--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\workspace\prac\src\com\interivew\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2111,7 +2111,7 @@
       <c r="D9" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>355</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -2230,7 +2230,7 @@
       <c r="D16" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>361</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -2315,7 +2315,7 @@
       <c r="D21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>367</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -2383,7 +2383,7 @@
       <c r="D25" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>370</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -2400,7 +2400,7 @@
       <c r="D26" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>371</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2486,7 +2486,7 @@
         <v>342</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>135</v>
@@ -2502,8 +2502,8 @@
       <c r="D32" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>413</v>
+      <c r="E32" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>136</v>
@@ -2519,8 +2519,8 @@
       <c r="D33" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>414</v>
+      <c r="E33" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>137</v>
@@ -2536,8 +2536,8 @@
       <c r="D34" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>415</v>
+      <c r="E34" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>139</v>
@@ -2554,7 +2554,7 @@
         <v>347</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>144</v>
@@ -2571,7 +2571,7 @@
         <v>346</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>140</v>
@@ -2587,8 +2587,8 @@
       <c r="D37" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>418</v>
+      <c r="E37" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>141</v>
@@ -2601,8 +2601,8 @@
       <c r="D38" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>419</v>
+      <c r="E38" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>194</v>
@@ -2615,8 +2615,8 @@
       <c r="D39" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>420</v>
+      <c r="E39" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>195</v>
@@ -2626,8 +2626,8 @@
       <c r="A40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>421</v>
+      <c r="E40" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>196</v>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="436">
   <si>
     <t>LIS</t>
   </si>
@@ -969,9 +969,6 @@
     <t>Stack and Queue from geeksforgeeks</t>
   </si>
   <si>
-    <t>Stack Buy or Sell</t>
-  </si>
-  <si>
     <t>inorderWithoutRecursion</t>
   </si>
   <si>
@@ -1056,9 +1053,6 @@
     <t>mirrorOfTree</t>
   </si>
   <si>
-    <t>mirrorOfTreeWithoutRecursino</t>
-  </si>
-  <si>
     <t>areMirrors</t>
   </si>
   <si>
@@ -1167,18 +1161,12 @@
     <t>Rainwater Trapping</t>
   </si>
   <si>
-    <t>Remove Duplicates</t>
-  </si>
-  <si>
     <t>find gcd</t>
   </si>
   <si>
     <t>power of a number</t>
   </si>
   <si>
-    <t>island</t>
-  </si>
-  <si>
     <t>petrol pumps</t>
   </si>
   <si>
@@ -1297,13 +1285,64 @@
   </si>
   <si>
     <t>CountBinaryTreesUsingPreorderlength</t>
+  </si>
+  <si>
+    <t>deepestNode</t>
+  </si>
+  <si>
+    <t>mirrorOfTreeWithoutRecursion</t>
+  </si>
+  <si>
+    <t>printRootToLeavePaths</t>
+  </si>
+  <si>
+    <t>levelOrderInReverse</t>
+  </si>
+  <si>
+    <t>FindMostFrequentCharacter</t>
+  </si>
+  <si>
+    <t>ReverseInteger</t>
+  </si>
+  <si>
+    <t>Remove Duplicates In Array</t>
+  </si>
+  <si>
+    <t>Remove Duplicates In Linked List</t>
+  </si>
+  <si>
+    <t>Remove Duplicates In Circular List</t>
+  </si>
+  <si>
+    <t>Remove Duplicates In Linked List Using Sorting</t>
+  </si>
+  <si>
+    <t>Remove Duplicates In Circular List Using Sorting</t>
+  </si>
+  <si>
+    <t>Remove Duplicates In Array Using Sorting</t>
+  </si>
+  <si>
+    <t>removeAllNodesOfValue</t>
+  </si>
+  <si>
+    <t>count islands</t>
+  </si>
+  <si>
+    <t>Stock-maxProfitWith1Transactions</t>
+  </si>
+  <si>
+    <t>Stock-maxProfitWithAnyNumberOfTransactions</t>
+  </si>
+  <si>
+    <t>Stock-maxProfitWithKTransactions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,6 +1395,21 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1420,7 +1474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1441,6 +1495,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1998,10 +2054,10 @@
         <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>174</v>
@@ -2015,10 +2071,10 @@
         <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>175</v>
@@ -2032,10 +2088,10 @@
         <v>304</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>176</v>
@@ -2049,16 +2105,16 @@
         <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>177</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2068,17 +2124,17 @@
       <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>352</v>
+      <c r="D7" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>178</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2088,17 +2144,17 @@
       <c r="C8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>353</v>
+      <c r="D8" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>179</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2109,10 +2165,10 @@
         <v>282</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>355</v>
+        <v>319</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>353</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>180</v>
@@ -2125,11 +2181,11 @@
       <c r="C10" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>321</v>
+      <c r="D10" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>125</v>
@@ -2143,10 +2199,10 @@
         <v>284</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>356</v>
+        <v>321</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>112</v>
@@ -2160,10 +2216,10 @@
         <v>285</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>355</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>181</v>
@@ -2177,10 +2233,10 @@
         <v>286</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>182</v>
@@ -2194,10 +2250,10 @@
         <v>287</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>358</v>
+        <v>324</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>68</v>
@@ -2211,10 +2267,10 @@
         <v>288</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>183</v>
@@ -2228,10 +2284,10 @@
         <v>289</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>361</v>
+        <v>326</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>184</v>
@@ -2245,10 +2301,10 @@
         <v>290</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>360</v>
+        <v>327</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>185</v>
@@ -2262,10 +2318,10 @@
         <v>291</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>364</v>
+        <v>328</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>362</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>62</v>
@@ -2279,10 +2335,10 @@
         <v>292</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>363</v>
+        <v>419</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>361</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>58</v>
@@ -2295,11 +2351,11 @@
       <c r="C20" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>365</v>
+      <c r="D20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>186</v>
@@ -2312,11 +2368,11 @@
       <c r="C21" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>332</v>
+      <c r="D21" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>97</v>
@@ -2329,11 +2385,11 @@
       <c r="C22" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>335</v>
+      <c r="D22" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>103</v>
@@ -2350,7 +2406,7 @@
         <v>334</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>187</v>
@@ -2367,7 +2423,7 @@
         <v>333</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>188</v>
@@ -2380,11 +2436,11 @@
       <c r="C25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>336</v>
+      <c r="D25" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>189</v>
@@ -2397,11 +2453,11 @@
       <c r="C26" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>337</v>
+      <c r="D26" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>190</v>
@@ -2414,11 +2470,11 @@
       <c r="C27" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>338</v>
+      <c r="D27" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>191</v>
@@ -2431,11 +2487,11 @@
       <c r="C28" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>339</v>
+      <c r="D28" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>192</v>
@@ -2448,11 +2504,11 @@
       <c r="C29" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>375</v>
+      <c r="D29" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>373</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>134</v>
@@ -2465,11 +2521,11 @@
       <c r="C30" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>341</v>
+      <c r="D30" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>193</v>
@@ -2483,10 +2539,10 @@
         <v>299</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>414</v>
+        <v>339</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>410</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>135</v>
@@ -2499,11 +2555,11 @@
       <c r="C32" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>419</v>
+      <c r="D32" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>415</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>136</v>
@@ -2516,11 +2572,11 @@
       <c r="C33" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>420</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>416</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>137</v>
@@ -2533,11 +2589,11 @@
       <c r="C34" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>345</v>
+      <c r="D34" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>139</v>
@@ -2550,11 +2606,11 @@
       <c r="C35" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>412</v>
+      <c r="D35" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>408</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>144</v>
@@ -2567,11 +2623,11 @@
       <c r="C36" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>346</v>
+      <c r="D36" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>140</v>
@@ -2585,10 +2641,10 @@
         <v>308</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>415</v>
+        <v>353</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>411</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>141</v>
@@ -2599,10 +2655,10 @@
         <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>416</v>
+        <v>345</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>194</v>
@@ -2612,11 +2668,11 @@
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>417</v>
+      <c r="D39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>413</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>195</v>
@@ -2626,8 +2682,11 @@
       <c r="A40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>418</v>
+      <c r="D40" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>414</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>196</v>
@@ -2637,6 +2696,9 @@
       <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="F41" s="13" t="s">
         <v>197</v>
       </c>
@@ -2645,77 +2707,83 @@
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>271</v>
+      <c r="D42" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>313</v>
+      <c r="C43" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>376</v>
+      <c r="C44" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>377</v>
+      <c r="C45" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>378</v>
+      <c r="C46" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="C47" s="13" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>379</v>
+      <c r="C48" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>380</v>
+      <c r="C49" s="13" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>381</v>
+      <c r="C50" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>382</v>
+      <c r="C51" s="13" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -2723,166 +2791,196 @@
         <v>77</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>384</v>
+      <c r="C53" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>386</v>
+      <c r="C54" s="13" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>385</v>
+      <c r="C55" s="13" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>387</v>
+      <c r="C56" s="13" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>388</v>
+      <c r="C57" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>389</v>
+      <c r="C58" s="13" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>395</v>
+      <c r="C59" s="13" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="C60" s="13" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="C61" s="13" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="C62" s="13" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="C63" s="13" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C64" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C65" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C66" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C67" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C68" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C69" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>105</v>
       </c>
@@ -2932,7 +3030,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -3180,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3284,13 +3382,13 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -3401,22 +3499,22 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
@@ -3431,12 +3529,12 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
@@ -3587,22 +3685,22 @@
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
@@ -3612,32 +3710,32 @@
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="436">
   <si>
     <t>LIS</t>
   </si>
@@ -1501,8 +1501,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2016,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3069,7 +3097,7 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3079,7 +3107,7 @@
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3089,7 +3117,7 @@
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3099,7 +3127,7 @@
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3276,10 +3304,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H99"/>
+  <dimension ref="B1:H106"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3393,348 +3421,392 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="4"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="4"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-    </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
-        <v>396</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
-        <v>394</v>
-      </c>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
-        <v>393</v>
-      </c>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="1" t="s">
-        <v>208</v>
+      <c r="B44" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
-        <v>397</v>
+      <c r="B45" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>398</v>
+      <c r="B46" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
-        <v>189</v>
+      <c r="B47" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="4" t="s">
-        <v>59</v>
+      <c r="B51" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="4" t="s">
-        <v>30</v>
+      <c r="B52" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="4" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="4" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="4" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="6" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="6" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="4"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="4" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
-        <v>401</v>
+      <c r="B90" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
-        <v>402</v>
+      <c r="B91" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
-        <v>404</v>
+      <c r="B92" s="9"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="1" t="s">
         <v>407</v>
       </c>
     </row>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="457">
   <si>
     <t>LIS</t>
   </si>
@@ -1336,6 +1336,69 @@
   </si>
   <si>
     <t>Stock-maxProfitWithKTransactions</t>
+  </si>
+  <si>
+    <t>CheckIfArrayIsArthimaticSequence</t>
+  </si>
+  <si>
+    <t>CountAllPairsWithGivenDifferenceX</t>
+  </si>
+  <si>
+    <t>FindIncreasingSequenceOfLength3WithMaxProduct</t>
+  </si>
+  <si>
+    <t>FindMinInSortedRotatedArray</t>
+  </si>
+  <si>
+    <t>FindSubarrayOfSumZero</t>
+  </si>
+  <si>
+    <t>MoveAllZeroesToEndOfArray</t>
+  </si>
+  <si>
+    <t>CheckForOverflow</t>
+  </si>
+  <si>
+    <t>FindCommonMinInTwoArrays</t>
+  </si>
+  <si>
+    <t>HashMapCustom</t>
+  </si>
+  <si>
+    <t>InfixToPostfix</t>
+  </si>
+  <si>
+    <t>PostfixEval</t>
+  </si>
+  <si>
+    <t>FindKthNodeInBinaryTree</t>
+  </si>
+  <si>
+    <t>CheckForDuplicatesWithInKDistance</t>
+  </si>
+  <si>
+    <t>FindFirstRepeatingNumber</t>
+  </si>
+  <si>
+    <t>MaxSumPathSumInTwoArrays</t>
+  </si>
+  <si>
+    <t>PrintDistinctElementsInArray</t>
+  </si>
+  <si>
+    <t>RemoveElementFromArray</t>
+  </si>
+  <si>
+    <t>ReplaceWithLeftRightMultiplication</t>
+  </si>
+  <si>
+    <t>XPowerN</t>
+  </si>
+  <si>
+    <t>SortArrayByAnotherArray</t>
+  </si>
+  <si>
+    <t>AVLTreeNodeWithCount</t>
   </si>
 </sst>
 </file>
@@ -2044,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2967,61 +3030,97 @@
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="C71" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="C72" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="C73" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="C74" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="C75" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="C76" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C77" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="C78" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="C79" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="C80" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="C81" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C82" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
@@ -3182,7 +3281,7 @@
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="8" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3304,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H106"/>
+  <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3355,8 +3454,8 @@
       <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>271</v>
+      <c r="D5" t="s">
+        <v>450</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3364,36 +3463,54 @@
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D6" t="s">
+        <v>451</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="D7" t="s">
+        <v>452</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="D8" t="s">
+        <v>453</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="D9" t="s">
+        <v>454</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="D10" t="s">
+        <v>455</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="D11" t="s">
+        <v>456</v>
+      </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -3539,7 +3656,9 @@
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
@@ -3601,212 +3720,233 @@
         <v>128</v>
       </c>
     </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="4" t="s">
-        <v>59</v>
+      <c r="B56" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="4" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="4" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="4" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="6" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="6" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="1" t="s">
-        <v>272</v>
+      <c r="B89" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="9" t="s">
-        <v>121</v>
+      <c r="B90" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="9"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B97" s="9"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
-        <v>362</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="1" t="s">
         <v>407</v>
       </c>
     </row>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="5" r:id="rId1"/>
-    <sheet name="topics" sheetId="12" r:id="rId2"/>
+    <sheet name="topics" sheetId="12" r:id="rId1"/>
+    <sheet name="All" sheetId="5" r:id="rId2"/>
     <sheet name="practice" sheetId="11" r:id="rId3"/>
     <sheet name="groups" sheetId="13" r:id="rId4"/>
     <sheet name="dp" sheetId="14" r:id="rId5"/>
@@ -1405,7 +1405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,6 +1477,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1537,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1560,6 +1575,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,6 +1885,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.7265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2003,112 +2120,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.7265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2351,7 +2368,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2385,7 +2402,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2419,7 +2436,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2504,7 +2521,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2623,7 +2640,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2657,7 +2674,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2918,7 +2935,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -2982,7 +2999,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C65" s="13" t="s">
@@ -3405,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -2124,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3084,7 +3084,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="21" t="s">
         <v>101</v>
       </c>
       <c r="C76" t="s">
@@ -3145,7 +3145,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="21" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="21" t="s">
         <v>115</v>
       </c>
     </row>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="463">
   <si>
     <t>LIS</t>
   </si>
@@ -1395,17 +1395,35 @@
     <t>XPowerN</t>
   </si>
   <si>
-    <t>SortArrayByAnotherArray</t>
-  </si>
-  <si>
     <t>AVLTreeNodeWithCount</t>
+  </si>
+  <si>
+    <t>Print all combinations</t>
+  </si>
+  <si>
+    <t>Print all permuations</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Arrays - Using merge procedure</t>
+  </si>
+  <si>
+    <t>positive and negative</t>
+  </si>
+  <si>
+    <t>non-negative</t>
+  </si>
+  <si>
+    <t>FindPairSumCloseToXFromTwoSortedArrays</t>
+  </si>
+  <si>
+    <t>Yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1510,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1552,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1577,6 +1602,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1988,7 +2015,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2124,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2762,6 +2789,9 @@
       <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="C38" s="20" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>345</v>
       </c>
@@ -2815,16 +2845,22 @@
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="C42" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>347</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>433</v>
+      <c r="C43" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>418</v>
@@ -2835,7 +2871,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2843,7 +2879,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -2851,15 +2887,15 @@
         <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>376</v>
+      <c r="C47" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2867,7 +2903,7 @@
         <v>73</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -3171,6 +3207,9 @@
       <c r="A88" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="C88" s="1" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
@@ -3213,7 +3252,7 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="22" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3228,7 +3267,7 @@
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="21" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3253,32 +3292,32 @@
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="21" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="21" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3292,122 +3331,143 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="4" t="s">
+      <c r="B118" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
+      <c r="B123" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
+      <c r="B125" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="s">
+      <c r="B130" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="4" t="s">
+      <c r="B133" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>158</v>
       </c>
@@ -3420,17 +3480,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H111"/>
+  <dimension ref="B1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="79.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -3516,9 +3576,7 @@
       <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D10" t="s">
-        <v>455</v>
-      </c>
+      <c r="D10"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -3526,7 +3584,7 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -3561,7 +3619,9 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
@@ -3569,402 +3629,475 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="4"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-    </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="4"/>
-    </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
-        <v>396</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>398</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="4" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="4" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>59</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
-        <v>30</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
-        <v>35</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
-        <v>448</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="4" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="4" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="4" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="6" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="4" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="4" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="4" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="4" t="s">
+      <c r="C90" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="4" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="4" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="4" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="4" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="4" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="4" t="s">
+      <c r="C96" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="4" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="4" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="4" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="9"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
-        <v>401</v>
+      <c r="B102" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="1" t="s">
-        <v>402</v>
+      <c r="B103" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="1" t="s">
-        <v>404</v>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="1" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="463">
   <si>
     <t>LIS</t>
   </si>
@@ -2151,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118:B134"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2806,6 +2806,9 @@
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>344</v>
       </c>
@@ -2820,6 +2823,9 @@
       <c r="A40" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="C40" s="13" t="s">
+        <v>426</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>422</v>
       </c>
@@ -2834,6 +2840,9 @@
       <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C41" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>346</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>271</v>
+        <v>427</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>347</v>
@@ -2859,8 +2868,8 @@
       <c r="A43" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>449</v>
+      <c r="C43" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>418</v>
@@ -2870,168 +2879,192 @@
       <c r="A44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>434</v>
-      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C49" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C50" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C51" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C52" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C55" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C56" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C58" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>429</v>
+      <c r="C64" s="21" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -3039,140 +3072,122 @@
         <v>90</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>384</v>
+      <c r="C66" s="13" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>385</v>
+      <c r="C67" s="13" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>378</v>
+      <c r="C68" s="13" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>380</v>
+      <c r="C69" s="13" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="C70" s="13" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C71" t="s">
-        <v>436</v>
+      <c r="C71" s="20" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C72" t="s">
-        <v>437</v>
+      <c r="C72" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C73" t="s">
-        <v>438</v>
+      <c r="C73" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C74" t="s">
-        <v>439</v>
+      <c r="C74" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C75" t="s">
-        <v>440</v>
+      <c r="C75" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C76" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C77" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C78" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C79" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C80" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C81" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C82" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="464">
   <si>
     <t>LIS</t>
   </si>
@@ -1417,13 +1417,16 @@
   </si>
   <si>
     <t>Yet</t>
+  </si>
+  <si>
+    <t>Pascal Triangle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,6 +1520,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1577,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1604,6 +1615,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2151,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4125,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4164,7 +4176,7 @@
       <c r="C3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4198,7 +4210,7 @@
       <c r="C5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="24" t="s">
         <v>220</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4305,6 +4317,9 @@
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>243</v>
       </c>
@@ -4331,6 +4346,7 @@
       <c r="A16" s="3" t="s">
         <v>226</v>
       </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="465">
   <si>
     <t>LIS</t>
   </si>
@@ -1420,6 +1420,9 @@
   </si>
   <si>
     <t>Pascal Triangle</t>
+  </si>
+  <si>
+    <t>Fibonacci Applications</t>
   </si>
 </sst>
 </file>
@@ -1478,13 +1481,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1524,6 +1520,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1601,7 +1604,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1609,11 +1611,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1967,7 +1970,7 @@
       <c r="A4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1975,7 +1978,7 @@
       <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2163,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2206,7 +2209,7 @@
       <c r="E3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2223,7 +2226,7 @@
       <c r="E4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2240,7 +2243,7 @@
       <c r="E5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2257,7 +2260,7 @@
       <c r="E6" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2271,13 +2274,13 @@
       <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>178</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2291,13 +2294,13 @@
       <c r="C8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>179</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2314,10 +2317,10 @@
       <c r="D9" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2328,13 +2331,13 @@
       <c r="C10" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>320</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2348,10 +2351,10 @@
       <c r="D11" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2359,16 +2362,16 @@
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>285</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2382,10 +2385,10 @@
       <c r="D13" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2399,15 +2402,15 @@
       <c r="D14" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2416,10 +2419,10 @@
       <c r="D15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2433,15 +2436,15 @@
       <c r="D16" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2450,10 +2453,10 @@
       <c r="D17" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2467,15 +2470,15 @@
       <c r="D18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2484,10 +2487,10 @@
       <c r="D19" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2501,10 +2504,10 @@
       <c r="D20" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2521,7 +2524,7 @@
       <c r="E21" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2538,7 +2541,7 @@
       <c r="E22" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2555,12 +2558,12 @@
       <c r="E23" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2572,7 +2575,7 @@
       <c r="E24" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2589,7 +2592,7 @@
       <c r="E25" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2600,7 +2603,7 @@
       <c r="C26" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>335</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2623,7 +2626,7 @@
       <c r="E27" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2634,13 +2637,13 @@
       <c r="C28" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>337</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2651,13 +2654,13 @@
       <c r="C29" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2668,18 +2671,18 @@
       <c r="C30" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>338</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2688,10 +2691,10 @@
       <c r="D31" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2702,18 +2705,18 @@
       <c r="C32" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2722,10 +2725,10 @@
       <c r="D33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2736,13 +2739,13 @@
       <c r="C34" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2756,7 +2759,7 @@
       <c r="D35" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>408</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -2776,7 +2779,7 @@
       <c r="E36" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2790,10 +2793,10 @@
       <c r="D37" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2801,16 +2804,16 @@
       <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>381</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2824,7 +2827,7 @@
       <c r="D39" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>413</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2832,19 +2835,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>426</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2852,13 +2855,13 @@
       <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>428</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2866,13 +2869,13 @@
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>427</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2880,7 +2883,7 @@
       <c r="A43" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>429</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2911,11 +2914,11 @@
       <c r="A48" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>74</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>75</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>76</v>
       </c>
@@ -2945,197 +2948,206 @@
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>435</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>374</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>376</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="21" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>432</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>379</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>382</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>381</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>383</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="21" t="s">
+      <c r="E64" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E65" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="19" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>97</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +3163,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>99</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>100</v>
       </c>
@@ -3167,33 +3179,33 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="21" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3208,7 +3220,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3244,12 +3256,12 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3269,7 +3281,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3279,7 +3291,7 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3294,7 +3306,7 @@
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3319,32 +3331,32 @@
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="20" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3369,17 +3381,17 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="20" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3392,17 +3404,17 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3423,7 +3435,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="20" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3436,7 +3448,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="22" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3446,7 +3458,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3467,7 +3479,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="22" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3485,7 +3497,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3941,17 +3953,17 @@
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4138,7 +4150,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E5" sqref="C2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4165,7 +4177,7 @@
       <c r="D2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4176,7 +4188,7 @@
       <c r="C3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>216</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4207,13 +4219,13 @@
       <c r="A5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="24" t="s">
         <v>229</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4224,13 +4236,13 @@
       <c r="A6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="24" t="s">
         <v>261</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4258,13 +4270,13 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="3" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="24" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4278,7 +4290,7 @@
       <c r="D9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="24" t="s">
         <v>266</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4306,10 +4318,10 @@
       <c r="C11" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="24" t="s">
         <v>268</v>
       </c>
     </row>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="478">
   <si>
     <t>LIS</t>
   </si>
@@ -1423,6 +1423,45 @@
   </si>
   <si>
     <t>Fibonacci Applications</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>GraphTraversals - DFS</t>
+  </si>
+  <si>
+    <t>GraphTraversals - BFS</t>
+  </si>
+  <si>
+    <t>Detect Cycle in Undirected Graph - UnionFind</t>
+  </si>
+  <si>
+    <t>Detect Cycle in Undirected Graph - DFS</t>
+  </si>
+  <si>
+    <t>Detect Cycle in Directed Graph</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>CheckForDuplicatesWithInKDistanceOfMatrix</t>
+  </si>
+  <si>
+    <t>Search in a row wise and column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Print a given matrix in spiral form</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Rotate Matrix Elements</t>
+  </si>
+  <si>
+    <t>A Boolean Matrix Question (MakeRowsAndColumns1IfCellIs1)</t>
   </si>
 </sst>
 </file>
@@ -2164,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G136"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2176,10 +2215,13 @@
     <col min="2" max="2" width="8.7265625" style="1"/>
     <col min="3" max="5" width="42.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="38.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>165</v>
       </c>
@@ -2195,8 +2237,14 @@
       <c r="F2" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J2" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -2212,8 +2260,14 @@
       <c r="F3" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -2229,8 +2283,14 @@
       <c r="F4" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -2246,8 +2306,14 @@
       <c r="F5" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -2266,8 +2332,14 @@
       <c r="G6" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -2286,8 +2358,14 @@
       <c r="G7" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J7" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -2306,8 +2384,11 @@
       <c r="G8" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -2323,8 +2404,11 @@
       <c r="F9" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2424,11 @@
       <c r="F10" s="16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -2358,7 +2445,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -2375,7 +2462,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2479,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -2409,7 +2496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>42</v>
       </c>
@@ -2426,7 +2513,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3521,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3860,14 +3947,10 @@
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="4" t="s">
-        <v>394</v>
-      </c>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="4"/>
@@ -4149,7 +4232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="C2:F13"/>
     </sheetView>
   </sheetViews>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="12" r:id="rId1"/>
-    <sheet name="All" sheetId="5" r:id="rId2"/>
-    <sheet name="practice" sheetId="11" r:id="rId3"/>
-    <sheet name="groups" sheetId="13" r:id="rId4"/>
-    <sheet name="dp" sheetId="14" r:id="rId5"/>
+    <sheet name="practice" sheetId="11" r:id="rId2"/>
+    <sheet name="groups" sheetId="13" r:id="rId3"/>
+    <sheet name="dp" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,86 +27,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="458">
   <si>
     <t>LIS</t>
   </si>
   <si>
-    <t>Wordwrap</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
     <t>LCS</t>
   </si>
   <si>
-    <t>Knapsack</t>
-  </si>
-  <si>
-    <t>Subset Sum</t>
-  </si>
-  <si>
-    <t>MaxContiguous Sum</t>
-  </si>
-  <si>
-    <t>MaxIncreasing Sequence</t>
-  </si>
-  <si>
-    <t>MinCost</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Boxstack</t>
-  </si>
-  <si>
-    <t>Rodcut</t>
-  </si>
-  <si>
-    <t>Longest Palindrome</t>
-  </si>
-  <si>
-    <t>LongestBitonic</t>
-  </si>
-  <si>
     <t>Matrix Chain Multiplication</t>
   </si>
   <si>
     <t>PalindromePartition</t>
   </si>
   <si>
-    <t>Partition Problem</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>MaxlengthofChainOfPairs</t>
-  </si>
-  <si>
-    <t>Egg Dropping</t>
-  </si>
-  <si>
-    <t>Floyd Marshall</t>
-  </si>
-  <si>
-    <t>Fib other ways</t>
-  </si>
-  <si>
-    <t>Ugly</t>
-  </si>
-  <si>
-    <t>Bellman-Ford</t>
-  </si>
-  <si>
-    <t>Largest Independent Set</t>
-  </si>
-  <si>
     <t>Boolean Parenthesization Problem</t>
   </si>
   <si>
@@ -543,15 +476,6 @@
     <t>Bit algorithms</t>
   </si>
   <si>
-    <t>binary(Count-23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      bst(Count-22)</t>
-  </si>
-  <si>
-    <t>linkedlist(Count-21)</t>
-  </si>
-  <si>
     <t>Binary Search</t>
   </si>
   <si>
@@ -1462,13 +1386,28 @@
   </si>
   <si>
     <t>A Boolean Matrix Question (MakeRowsAndColumns1IfCellIs1)</t>
+  </si>
+  <si>
+    <t>binary(Count-23) - 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      bst(Count-22) - 38</t>
+  </si>
+  <si>
+    <t>linkedlist(Count-21) - 41</t>
+  </si>
+  <si>
+    <t>Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>Mathetmatical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1509,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1630,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1658,6 +1605,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1969,7 +1917,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1980,83 +1928,83 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2066,147 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2223,1102 +2034,1102 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>353</v>
+        <v>283</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>320</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C86" s="1">
         <v>6108966300</v>
@@ -3326,276 +3137,276 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="20" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="20" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="20" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="20" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="20" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="20" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="20" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="20" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="20" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="20" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="20" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="20" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="20" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="20" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="22" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="20" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3604,12 +3415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3623,130 +3434,130 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D10"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -3764,13 +3575,13 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -3787,50 +3598,50 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
@@ -3841,23 +3652,23 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
@@ -3868,82 +3679,82 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
@@ -3960,37 +3771,37 @@
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
@@ -4001,32 +3812,32 @@
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
@@ -4037,37 +3848,37 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="12" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="12" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
@@ -4075,78 +3886,78 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="9" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
@@ -4154,72 +3965,72 @@
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4228,12 +4039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="C2:F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4247,400 +4058,412 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="469">
   <si>
     <t>LIS</t>
   </si>
@@ -1401,6 +1401,39 @@
   </si>
   <si>
     <t>Mathetmatical</t>
+  </si>
+  <si>
+    <t>MaxAreaOfHistogram</t>
+  </si>
+  <si>
+    <t>QueueInterleavingWithFirstHalfAndSecondHalf</t>
+  </si>
+  <si>
+    <t>QueueToStackCopyWithConstantSpace</t>
+  </si>
+  <si>
+    <t>QueueUsingStack</t>
+  </si>
+  <si>
+    <t>ReverseFirstKElementsInQueue</t>
+  </si>
+  <si>
+    <t>ReverseQueue</t>
+  </si>
+  <si>
+    <t>ReverseStackWithoutUsingLoopsWithUsingRecursion</t>
+  </si>
+  <si>
+    <t>StackSorting</t>
+  </si>
+  <si>
+    <t>StackUsingQueue</t>
+  </si>
+  <si>
+    <t>StackWithGetMinimumInO1</t>
+  </si>
+  <si>
+    <t>StockSpan</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1606,6 +1639,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2014,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:J136"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2026,13 +2061,14 @@
     <col min="2" max="2" width="8.7265625" style="1"/>
     <col min="3" max="5" width="42.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="38.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="23.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>143</v>
       </c>
@@ -2048,14 +2084,17 @@
       <c r="F2" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="J2" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2071,14 +2110,17 @@
       <c r="F3" s="12" t="s">
         <v>149</v>
       </c>
+      <c r="H3" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2094,14 +2136,17 @@
       <c r="F4" s="12" t="s">
         <v>150</v>
       </c>
+      <c r="H4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2117,14 +2162,17 @@
       <c r="F5" s="12" t="s">
         <v>151</v>
       </c>
+      <c r="H5" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -2143,14 +2191,17 @@
       <c r="G6" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="H6" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2169,14 +2220,17 @@
       <c r="G7" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="H7" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2195,11 +2249,14 @@
       <c r="G8" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="H8" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2215,11 +2272,14 @@
       <c r="F9" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="H9" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2235,11 +2295,14 @@
       <c r="F10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="H10" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2255,8 +2318,11 @@
       <c r="F11" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H11" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2272,8 +2338,11 @@
       <c r="F12" s="16" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H12" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2289,8 +2358,11 @@
       <c r="F13" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H13" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2306,8 +2378,11 @@
       <c r="F14" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H14" s="27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
@@ -2323,8 +2398,11 @@
       <c r="F15" s="16" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H15" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -3419,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
@@ -4043,7 +4121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9400" windowHeight="7900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="4870" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="12" r:id="rId1"/>
     <sheet name="practice" sheetId="11" r:id="rId2"/>
     <sheet name="groups" sheetId="13" r:id="rId3"/>
     <sheet name="dp" sheetId="14" r:id="rId4"/>
+    <sheet name="all" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="500">
   <si>
     <t>LIS</t>
   </si>
@@ -764,9 +765,6 @@
     <t>MatrixNumberOfPathsToReachBottoRight</t>
   </si>
   <si>
-    <t>StringInterleaving</t>
-  </si>
-  <si>
     <t>FindFirstNonRepeatingCharacter</t>
   </si>
   <si>
@@ -1343,9 +1341,6 @@
     <t>Yet</t>
   </si>
   <si>
-    <t>Pascal Triangle</t>
-  </si>
-  <si>
     <t>Fibonacci Applications</t>
   </si>
   <si>
@@ -1434,6 +1429,106 @@
   </si>
   <si>
     <t>StockSpan</t>
+  </si>
+  <si>
+    <t>ShortestRangeInKSortedArrays</t>
+  </si>
+  <si>
+    <t>CoinChangeNumberOfWaysToSum</t>
+  </si>
+  <si>
+    <t>CoinsMinimumToMakeSum</t>
+  </si>
+  <si>
+    <t>Pascal Triangle Print N rows or Nth Row</t>
+  </si>
+  <si>
+    <t>Pascal Triangle Find Rth Element of Nth Row</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>CombinationsOfSizeR</t>
+  </si>
+  <si>
+    <t>CombinationsOfString</t>
+  </si>
+  <si>
+    <t>KnightsTour</t>
+  </si>
+  <si>
+    <t>MColoring</t>
+  </si>
+  <si>
+    <t>NQueen</t>
+  </si>
+  <si>
+    <t>PermutationsOfString</t>
+  </si>
+  <si>
+    <t>RatMaze</t>
+  </si>
+  <si>
+    <t>SearchWordInMatrix</t>
+  </si>
+  <si>
+    <t>SudokuSolver</t>
+  </si>
+  <si>
+    <t>CountIslands</t>
+  </si>
+  <si>
+    <t>Square Root</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>BinarySearchTrees</t>
+  </si>
+  <si>
+    <t>Important Problems</t>
+  </si>
+  <si>
+    <t>Tobe Done</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Marked Yet in arrays</t>
+  </si>
+  <si>
+    <t>Imp Data Structures</t>
+  </si>
+  <si>
+    <t>LRUCache</t>
+  </si>
+  <si>
+    <t>DisjointDataset</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>TernarySearchTree</t>
+  </si>
+  <si>
+    <t>Design Phone Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can you find all of the substrings in a string?  </t>
+  </si>
+  <si>
+    <t>Write a program to find the first consecutive string of characters.
+ex: in 83d34cjk</t>
   </si>
 </sst>
 </file>
@@ -1528,14 +1623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -1550,8 +1637,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,6 +1674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1634,13 +1735,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1949,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1966,30 +2073,30 @@
         <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1997,7 +2104,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -2005,7 +2112,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="12" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2013,33 +2120,68 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E16" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2049,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J136"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A109" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2065,21 +2207,22 @@
     <col min="8" max="8" width="45.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>173</v>
@@ -2088,332 +2231,368 @@
         <v>140</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>458</v>
+      <c r="H3" s="24" t="s">
+        <v>456</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>141</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>459</v>
+      <c r="H5" s="25" t="s">
+        <v>457</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>152</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>460</v>
+        <v>360</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>458</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>461</v>
+        <v>361</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>459</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="K7" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>462</v>
+        <v>362</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>460</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H9" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="25" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H12" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H13" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H14" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H15" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>159</v>
@@ -2424,13 +2603,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>160</v>
@@ -2440,14 +2619,17 @@
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>40</v>
@@ -2458,13 +2640,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>36</v>
@@ -2475,13 +2657,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>161</v>
@@ -2492,13 +2674,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>75</v>
@@ -2509,13 +2691,13 @@
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>81</v>
@@ -2526,13 +2708,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>162</v>
@@ -2542,14 +2724,17 @@
       <c r="A24" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>163</v>
@@ -2560,13 +2745,13 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>164</v>
@@ -2577,13 +2762,13 @@
         <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>165</v>
@@ -2594,13 +2779,13 @@
         <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>166</v>
@@ -2611,13 +2796,13 @@
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>167</v>
@@ -2628,13 +2813,13 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>112</v>
@@ -2645,13 +2830,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>168</v>
@@ -2662,13 +2847,13 @@
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>113</v>
@@ -2679,13 +2864,13 @@
         <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>114</v>
@@ -2696,13 +2881,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>115</v>
@@ -2713,13 +2898,13 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>117</v>
@@ -2730,13 +2915,13 @@
         <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>122</v>
@@ -2747,13 +2932,13 @@
         <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>118</v>
@@ -2764,13 +2949,13 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>119</v>
@@ -2781,13 +2966,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>320</v>
+        <v>355</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>169</v>
@@ -2797,14 +2982,14 @@
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>359</v>
+      <c r="C39" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>170</v>
@@ -2815,13 +3000,13 @@
         <v>44</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>171</v>
@@ -2832,10 +3017,10 @@
         <v>45</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>172</v>
@@ -2846,24 +3031,27 @@
         <v>46</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="26" t="s">
         <v>179</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2891,26 +3079,26 @@
         <v>51</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>424</v>
+      <c r="C49" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2918,10 +3106,10 @@
         <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2929,10 +3117,10 @@
         <v>55</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2940,10 +3128,10 @@
         <v>56</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2951,10 +3139,10 @@
         <v>57</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2962,10 +3150,10 @@
         <v>58</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2973,10 +3161,10 @@
         <v>59</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2984,10 +3172,10 @@
         <v>60</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2995,21 +3183,21 @@
         <v>61</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -3017,10 +3205,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -3028,10 +3216,10 @@
         <v>64</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -3039,7 +3227,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -3047,10 +3235,10 @@
         <v>66</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -3058,7 +3246,7 @@
         <v>67</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>217</v>
@@ -3069,7 +3257,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>218</v>
@@ -3080,7 +3268,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -3088,7 +3276,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -3096,7 +3284,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -3104,7 +3292,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -3112,7 +3300,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -3120,7 +3308,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3128,7 +3316,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3136,7 +3324,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3144,7 +3332,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -3152,37 +3340,55 @@
         <v>78</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C76" s="30" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="C78" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="C79" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="C80" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="27" t="s">
         <v>84</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -3191,7 +3397,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3214,7 +3420,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="28" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3223,16 +3429,16 @@
         <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>367</v>
+      <c r="A89" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3267,7 +3473,7 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="28" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3307,7 +3513,7 @@
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3376,16 +3582,16 @@
         <v>120</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3399,7 +3605,7 @@
         <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -3407,11 +3613,11 @@
         <v>125</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3420,11 +3626,11 @@
         <v>127</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3434,7 +3640,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3443,7 +3649,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -3451,11 +3657,11 @@
         <v>131</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="21" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3469,7 +3675,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -3497,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3547,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3556,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -3565,7 +3771,7 @@
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -3574,7 +3780,7 @@
         <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -3583,7 +3789,7 @@
         <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -3599,7 +3805,7 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -3613,17 +3819,26 @@
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -3631,43 +3846,70 @@
       <c r="B16" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
@@ -3767,22 +4009,22 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
@@ -3797,12 +4039,12 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
@@ -3822,17 +4064,17 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
@@ -3879,7 +4121,7 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
@@ -3926,17 +4168,17 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
@@ -3967,7 +4209,7 @@
         <v>107</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
@@ -4000,7 +4242,7 @@
         <v>58</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
@@ -4025,7 +4267,7 @@
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
@@ -4043,22 +4285,22 @@
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
@@ -4068,32 +4310,32 @@
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
@@ -4103,12 +4345,12 @@
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4364,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4138,17 +4380,17 @@
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>457</v>
+      <c r="E1" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -4158,10 +4400,10 @@
       <c r="C2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4172,8 +4414,8 @@
       <c r="C3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>191</v>
+      <c r="D3" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>197</v>
@@ -4190,10 +4432,10 @@
         <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>196</v>
@@ -4203,14 +4445,14 @@
       <c r="A5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>204</v>
+      <c r="D5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -4224,10 +4466,10 @@
         <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>236</v>
+        <v>215</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>216</v>
@@ -4240,11 +4482,11 @@
       <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>211</v>
+      <c r="E7" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>217</v>
@@ -4258,10 +4500,10 @@
         <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>213</v>
+        <v>468</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -4271,11 +4513,11 @@
       <c r="C9" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>241</v>
+      <c r="D9" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>242</v>
@@ -4289,7 +4531,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>244</v>
@@ -4302,10 +4544,10 @@
       <c r="C11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="24" t="s">
+      <c r="D11" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4313,8 +4555,8 @@
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>438</v>
+      <c r="D12" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>218</v>
@@ -4324,8 +4566,11 @@
       <c r="A13" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -4548,4 +4793,1593 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F48" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F61" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F63" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F64" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F65" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F66" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F67" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F69" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F70" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F71" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F72" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F73" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F74" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F75" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F76" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F77" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F78" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F79" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F80" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F82" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F83" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F84" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F85" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F86" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F87" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F88" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F89" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F90" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F91" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F92" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F93" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F94" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F95" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F96" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F97" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F98" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F99" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F100" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F101" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F102" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F103" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F104" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F105" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F106" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F107" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F108" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F109" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F110" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F111" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F112" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F113" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F115" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F116" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F117" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F118" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F119" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F120" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F121" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F122" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F123" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F124" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F125" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F126" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F127" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F128" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F129" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F130" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F131" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F132" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F133" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F134" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F135" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="511">
   <si>
     <t>LIS</t>
   </si>
@@ -1529,6 +1529,39 @@
   <si>
     <t>Write a program to find the first consecutive string of characters.
 ex: in 83d34cjk</t>
+  </si>
+  <si>
+    <t>How to design a tiny URL or URL shortener?(Long url to short url)</t>
+  </si>
+  <si>
+    <t>URLShortner</t>
+  </si>
+  <si>
+    <t>Reverse Matrix</t>
+  </si>
+  <si>
+    <t>Check If Two Rectangles Overlap</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>URL Shortner</t>
+  </si>
+  <si>
+    <t>Parking lot</t>
+  </si>
+  <si>
+    <t>Elevator</t>
+  </si>
+  <si>
+    <t>Phone book</t>
+  </si>
+  <si>
+    <t>Check if any anagram of string is palindrome.</t>
+  </si>
+  <si>
+    <t>Print all anagrams together.</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2092,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4363,8 +4396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4797,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4816,10 +4849,11 @@
     <col min="9" max="9" width="53.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="72.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4853,8 +4887,11 @@
       <c r="K1" s="5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -4888,8 +4925,11 @@
       <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
@@ -4923,8 +4963,11 @@
       <c r="K3" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -4958,8 +5001,11 @@
       <c r="K4" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>205</v>
       </c>
@@ -4993,8 +5039,11 @@
       <c r="K5" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>207</v>
       </c>
@@ -5028,8 +5077,11 @@
       <c r="K6" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -5061,7 +5113,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>237</v>
       </c>
@@ -5093,7 +5145,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
@@ -5125,7 +5177,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -5154,7 +5206,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>239</v>
       </c>
@@ -5179,8 +5231,11 @@
       <c r="J11" s="12" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>469</v>
       </c>
@@ -5206,7 +5261,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -5232,7 +5287,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>195</v>
       </c>
@@ -5257,8 +5312,11 @@
       <c r="J14" s="12" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K14" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -5280,8 +5338,11 @@
       <c r="J15" s="12" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K15" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
@@ -5678,6 +5739,9 @@
       <c r="G31" s="12" t="s">
         <v>114</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
@@ -5701,8 +5765,11 @@
       <c r="G32" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J32" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>213</v>
       </c>
@@ -5724,8 +5791,11 @@
       <c r="G33" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J33" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>455</v>
       </c>
@@ -5748,7 +5818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -5771,7 +5841,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>192</v>
       </c>
@@ -5794,7 +5864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>484</v>
       </c>
@@ -5817,7 +5887,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -5837,7 +5907,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>218</v>
       </c>
@@ -5857,7 +5927,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -5874,7 +5944,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>216</v>
       </c>
@@ -5891,7 +5961,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -5908,7 +5978,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
@@ -5916,7 +5986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>243</v>
       </c>
@@ -5924,22 +5994,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F45" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F46" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F47" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F48" s="4" t="s">
         <v>52</v>
       </c>
@@ -6381,5 +6451,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="523">
   <si>
     <t>LIS</t>
   </si>
@@ -1562,13 +1562,50 @@
   </si>
   <si>
     <t>Print all anagrams together.</t>
+  </si>
+  <si>
+    <t>WellformedParantheses</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>PrintAllPathsFromTopLeftToBottomRight</t>
+  </si>
+  <si>
+    <t>ReverseAlternateKElements</t>
+  </si>
+  <si>
+    <t>SwapEveryKthNode</t>
+  </si>
+  <si>
+    <t>In a Binary Tree, Cre­ate Linked Lists of all the nodes at each depth.</t>
+  </si>
+  <si>
+    <t>MergeTwoListsAtAlternatePositions</t>
+  </si>
+  <si>
+    <t>Delete X Nodes After Y Nodes In a Linked List</t>
+  </si>
+  <si>
+    <t>SwapKthNodeFromStartAndEnd</t>
+  </si>
+  <si>
+    <t>IsBalancedTree</t>
+  </si>
+  <si>
+    <t>Inorder Suc­ces­sor in Binary Search Tree Using Par­ent link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorder Suc­ces­sor in Binary Search Tree with­out Using Par­ent link
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,6 +1715,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1744,7 +1788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1781,6 +1825,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4830,10 +4878,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4853,7 +4901,7 @@
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4887,11 +4935,8 @@
       <c r="K1" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -4925,11 +4970,8 @@
       <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
@@ -4963,11 +5005,8 @@
       <c r="K3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -5001,11 +5040,8 @@
       <c r="K4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>205</v>
       </c>
@@ -5039,11 +5075,8 @@
       <c r="K5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>207</v>
       </c>
@@ -5077,11 +5110,8 @@
       <c r="K6" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -5113,7 +5143,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>237</v>
       </c>
@@ -5145,7 +5175,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
@@ -5177,7 +5207,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -5206,7 +5236,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>239</v>
       </c>
@@ -5235,7 +5265,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>469</v>
       </c>
@@ -5261,7 +5291,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5317,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>195</v>
       </c>
@@ -5316,7 +5346,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -5342,7 +5372,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
@@ -5364,8 +5394,11 @@
       <c r="J16" s="12" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>191</v>
       </c>
@@ -5387,8 +5420,11 @@
       <c r="J17" s="12" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>215</v>
       </c>
@@ -5410,8 +5446,11 @@
       <c r="J18" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>203</v>
       </c>
@@ -5436,8 +5475,11 @@
       <c r="J19" s="12" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>468</v>
       </c>
@@ -5462,8 +5504,11 @@
       <c r="J20" s="12" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>198</v>
       </c>
@@ -5489,7 +5534,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>470</v>
       </c>
@@ -5515,7 +5560,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>471</v>
       </c>
@@ -5541,7 +5586,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>209</v>
       </c>
@@ -5567,7 +5612,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>454</v>
       </c>
@@ -5593,7 +5638,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>2</v>
       </c>
@@ -5619,7 +5664,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
@@ -5645,7 +5690,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
@@ -5671,7 +5716,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>202</v>
       </c>
@@ -5697,7 +5742,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>241</v>
       </c>
@@ -5720,7 +5765,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>236</v>
       </c>
@@ -5743,7 +5788,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>204</v>
       </c>
@@ -5765,11 +5810,8 @@
       <c r="G32" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>213</v>
       </c>
@@ -5791,11 +5833,8 @@
       <c r="G33" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>455</v>
       </c>
@@ -5818,7 +5857,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -5841,7 +5880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>192</v>
       </c>
@@ -5864,7 +5903,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>484</v>
       </c>
@@ -5887,7 +5926,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -5907,7 +5946,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>218</v>
       </c>
@@ -5927,7 +5966,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -5944,7 +5983,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>216</v>
       </c>
@@ -5961,7 +6000,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -5978,118 +6017,175 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="D43" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="F43" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>243</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="F44" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="F45" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="F46" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="F47" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="F48" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="F49" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F50" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F51" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F52" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F53" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F55" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F56" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F57" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F58" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F59" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F60" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F61" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F62" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F63" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F64" s="20" t="s">
         <v>68</v>
       </c>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="533">
   <si>
     <t>LIS</t>
   </si>
@@ -1599,6 +1599,36 @@
   <si>
     <t xml:space="preserve">Inorder Suc­ces­sor in Binary Search Tree with­out Using Par­ent link
 </t>
+  </si>
+  <si>
+    <t>CheckIfTreeIsSubsetOfAnotherTree</t>
+  </si>
+  <si>
+    <t>CheckIfTwoNodesAreSiblings</t>
+  </si>
+  <si>
+    <t>CheckIfTwoNodesAreCousins</t>
+  </si>
+  <si>
+    <t>PrintLeftViewOfTree</t>
+  </si>
+  <si>
+    <t>PrintRightViewOfTree</t>
+  </si>
+  <si>
+    <t>Given a binary tree, Print All the Nodes that don’t have Sib­lings.</t>
+  </si>
+  <si>
+    <t>SortedSingleLinkedListToBST</t>
+  </si>
+  <si>
+    <t>FindFirstNonRepeatingInStream</t>
+  </si>
+  <si>
+    <t>MedianInStreamOfIntegers</t>
+  </si>
+  <si>
+    <t>FindKthLargestInStream</t>
   </si>
 </sst>
 </file>
@@ -4880,8 +4910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="I23" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5383,7 +5413,7 @@
         <v>301</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>332</v>
+        <v>529</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>22</v>
@@ -5409,7 +5439,7 @@
         <v>302</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>23</v>
@@ -5435,7 +5465,7 @@
         <v>393</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>24</v>
@@ -5461,7 +5491,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>147</v>
@@ -5489,8 +5519,8 @@
       <c r="C20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>339</v>
+      <c r="D20" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>478</v>
@@ -5518,8 +5548,8 @@
       <c r="C21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>338</v>
+      <c r="D21" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>474</v>
@@ -5545,7 +5575,7 @@
         <v>308</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>473</v>
@@ -5571,7 +5601,7 @@
         <v>307</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>475</v>
@@ -5596,8 +5626,8 @@
       <c r="C24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>342</v>
+      <c r="D24" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>479</v>
@@ -5623,7 +5653,7 @@
         <v>309</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>477</v>
@@ -5648,8 +5678,8 @@
       <c r="C26" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>345</v>
+      <c r="D26" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>476</v>
@@ -5675,7 +5705,7 @@
         <v>311</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>482</v>
@@ -5700,8 +5730,8 @@
       <c r="C28" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>347</v>
+      <c r="D28" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>480</v>
@@ -5726,8 +5756,8 @@
       <c r="C29" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>346</v>
+      <c r="D29" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>481</v>
@@ -5752,8 +5782,8 @@
       <c r="C30" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>384</v>
+      <c r="D30" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>35</v>
@@ -5775,8 +5805,8 @@
       <c r="C31" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>389</v>
+      <c r="D31" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>36</v>
@@ -5799,7 +5829,7 @@
         <v>394</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>492</v>
@@ -5811,7 +5841,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>213</v>
       </c>
@@ -5821,8 +5851,8 @@
       <c r="C33" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>391</v>
+      <c r="D33" s="18" t="s">
+        <v>390</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>489</v>
@@ -5833,8 +5863,11 @@
       <c r="G33" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>455</v>
       </c>
@@ -5844,8 +5877,8 @@
       <c r="C34" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>382</v>
+      <c r="D34" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>493</v>
@@ -5856,8 +5889,11 @@
       <c r="G34" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J34" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -5867,8 +5903,8 @@
       <c r="C35" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>383</v>
+      <c r="D35" s="17" t="s">
+        <v>382</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>494</v>
@@ -5879,8 +5915,11 @@
       <c r="G35" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>192</v>
       </c>
@@ -5890,8 +5929,8 @@
       <c r="C36" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>385</v>
+      <c r="D36" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>495</v>
@@ -5903,7 +5942,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>484</v>
       </c>
@@ -5914,7 +5953,7 @@
         <v>319</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>496</v>
@@ -5926,7 +5965,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -5937,7 +5976,7 @@
         <v>318</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>43</v>
@@ -5946,7 +5985,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>218</v>
       </c>
@@ -5957,7 +5996,7 @@
         <v>396</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>44</v>
@@ -5966,7 +6005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -5976,6 +6015,9 @@
       <c r="C40" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="D40" s="18" t="s">
+        <v>388</v>
+      </c>
       <c r="F40" s="4" t="s">
         <v>45</v>
       </c>
@@ -5983,7 +6025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>216</v>
       </c>
@@ -6000,7 +6042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -6017,7 +6059,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
@@ -6031,7 +6073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>243</v>
       </c>
@@ -6051,10 +6093,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
         <v>515</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>505</v>
       </c>
@@ -6065,10 +6110,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B46" s="33" t="s">
         <v>516</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>506</v>
       </c>
@@ -6079,12 +6127,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>522</v>
+      <c r="C47" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>507</v>
@@ -6093,12 +6141,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B48" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>521</v>
+      <c r="C48" t="s">
+        <v>527</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>508</v>
@@ -6111,6 +6159,9 @@
       <c r="B49" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="C49" t="s">
+        <v>526</v>
+      </c>
       <c r="F49" s="26" t="s">
         <v>53</v>
       </c>
@@ -6140,17 +6191,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C55" s="32" t="s">
+        <v>522</v>
+      </c>
       <c r="F55" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="33" t="s">
+        <v>521</v>
+      </c>
       <c r="F56" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="F57" s="4" t="s">
         <v>61</v>
       </c>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="544">
   <si>
     <t>LIS</t>
   </si>
@@ -1629,13 +1629,47 @@
   </si>
   <si>
     <t>FindKthLargestInStream</t>
+  </si>
+  <si>
+    <t>BinarySearchTreeIterator</t>
+  </si>
+  <si>
+    <t>CompareVersionNumbers</t>
+  </si>
+  <si>
+    <t>Convert a BST to a Binary Tree such that sum of all greater keys is added to every key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>CountBitsUsingBrian Kernighan’s Algorithm</t>
+  </si>
+  <si>
+    <t>SerializeAndDeserializeBinaryTree</t>
+  </si>
+  <si>
+    <t>SerializeAndDeserializeBinarySearchTree</t>
+  </si>
+  <si>
+    <t>LookAndSaySequence</t>
+  </si>
+  <si>
+    <t>Count1sInBinary</t>
+  </si>
+  <si>
+    <t>MergeOverlappingIntervals</t>
+  </si>
+  <si>
+    <t>CheckForDuplicatesWithInKDistanceAndElementDiffWithInT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +1786,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1818,7 +1859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1859,6 +1900,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2173,13 +2217,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="32.7265625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
@@ -2190,7 +2234,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>138</v>
       </c>
@@ -2198,7 +2242,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>139</v>
       </c>
@@ -2206,7 +2250,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>140</v>
       </c>
@@ -2214,7 +2258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>141</v>
       </c>
@@ -2222,7 +2266,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>142</v>
       </c>
@@ -2230,67 +2274,67 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="E15" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="E16" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:5">
       <c r="E17" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:5">
       <c r="E18" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:5">
       <c r="E19" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:5">
       <c r="E20" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:5">
       <c r="E21" s="12" t="s">
         <v>143</v>
       </c>
@@ -2304,11 +2348,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView topLeftCell="A19" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="79.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="1"/>
@@ -2322,7 +2366,7 @@
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>143</v>
       </c>
@@ -2351,7 +2395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +2424,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2453,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2438,7 +2482,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2514,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2502,7 +2546,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2531,7 +2575,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2601,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2586,7 +2630,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2609,7 +2653,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2632,7 +2676,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2652,7 +2696,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2672,7 +2716,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2736,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -2709,7 +2753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2770,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -2746,7 +2790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -2763,7 +2807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -2780,7 +2824,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -2797,7 +2841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2814,7 +2858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -2831,7 +2875,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="19" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2895,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
@@ -2868,7 +2912,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -2885,7 +2929,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -2902,7 +2946,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -2919,7 +2963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -2936,7 +2980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2953,7 +2997,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -2970,7 +3014,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2987,7 +3031,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -3004,7 +3048,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3021,7 +3065,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3055,7 +3099,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -3072,7 +3116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -3089,7 +3133,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -3106,7 +3150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" s="14" t="s">
         <v>44</v>
       </c>
@@ -3123,7 +3167,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -3137,7 +3181,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -3151,7 +3195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="A43" s="26" t="s">
         <v>179</v>
       </c>
@@ -3165,27 +3209,27 @@
         <v>467</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6">
       <c r="A48" s="7" t="s">
         <v>51</v>
       </c>
@@ -3193,7 +3237,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>52</v>
       </c>
@@ -3201,7 +3245,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
         <v>53</v>
       </c>
@@ -3212,7 +3256,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
         <v>54</v>
       </c>
@@ -3223,7 +3267,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" s="14" t="s">
         <v>55</v>
       </c>
@@ -3234,7 +3278,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
@@ -3245,7 +3289,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
         <v>57</v>
       </c>
@@ -3256,7 +3300,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -3267,7 +3311,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
@@ -3278,7 +3322,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" s="20" t="s">
         <v>60</v>
       </c>
@@ -3289,7 +3333,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>61</v>
       </c>
@@ -3300,7 +3344,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" s="26" t="s">
         <v>62</v>
       </c>
@@ -3311,7 +3355,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
         <v>63</v>
       </c>
@@ -3322,7 +3366,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
         <v>64</v>
       </c>
@@ -3333,7 +3377,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
@@ -3341,7 +3385,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
@@ -3352,7 +3396,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" s="10" t="s">
         <v>67</v>
       </c>
@@ -3363,7 +3407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" s="20" t="s">
         <v>68</v>
       </c>
@@ -3374,7 +3418,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
@@ -3382,7 +3426,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
         <v>70</v>
       </c>
@@ -3390,7 +3434,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
         <v>71</v>
       </c>
@@ -3398,7 +3442,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
@@ -3406,7 +3450,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
         <v>73</v>
       </c>
@@ -3414,7 +3458,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
         <v>74</v>
       </c>
@@ -3422,7 +3466,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
@@ -3430,7 +3474,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
         <v>76</v>
       </c>
@@ -3438,7 +3482,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
         <v>77</v>
       </c>
@@ -3446,7 +3490,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75" s="7" t="s">
         <v>78</v>
       </c>
@@ -3454,7 +3498,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
@@ -3462,7 +3506,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
@@ -3470,7 +3514,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
         <v>81</v>
       </c>
@@ -3478,7 +3522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79" s="9" t="s">
         <v>82</v>
       </c>
@@ -3486,7 +3530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
@@ -3494,7 +3538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" s="27" t="s">
         <v>84</v>
       </c>
@@ -3502,27 +3546,27 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
         <v>89</v>
       </c>
@@ -3530,12 +3574,12 @@
         <v>6108966300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
         <v>91</v>
       </c>
@@ -3543,152 +3587,152 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1">
       <c r="A97" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1">
       <c r="A98" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1">
       <c r="A99" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1">
       <c r="A100" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1">
       <c r="A101" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1">
       <c r="A102" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1">
       <c r="A103" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1">
       <c r="A104" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1">
       <c r="A106" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1">
       <c r="A107" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1">
       <c r="A108" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1">
       <c r="A109" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1">
       <c r="A110" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1">
       <c r="A111" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1">
       <c r="A112" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>120</v>
       </c>
@@ -3696,22 +3740,22 @@
         <v>436</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>124</v>
       </c>
@@ -3719,7 +3763,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>125</v>
       </c>
@@ -3727,12 +3771,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
         <v>127</v>
       </c>
@@ -3740,22 +3784,22 @@
         <v>436</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2">
       <c r="A129" s="4" t="s">
         <v>130</v>
       </c>
@@ -3763,7 +3807,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2">
       <c r="A130" s="4" t="s">
         <v>131</v>
       </c>
@@ -3771,17 +3815,17 @@
         <v>436</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2">
       <c r="A131" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2">
       <c r="A132" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2">
       <c r="A133" s="4" t="s">
         <v>133</v>
       </c>
@@ -3789,17 +3833,17 @@
         <v>436</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2">
       <c r="A134" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2">
       <c r="A135" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2">
       <c r="A136" s="4" t="s">
         <v>136</v>
       </c>
@@ -3814,11 +3858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="79.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -3827,12 +3871,12 @@
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
@@ -3840,7 +3884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>174</v>
       </c>
@@ -3850,7 +3894,7 @@
       <c r="F3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>175</v>
       </c>
@@ -3859,7 +3903,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -3868,7 +3912,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3877,7 +3921,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>177</v>
       </c>
@@ -3886,7 +3930,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>178</v>
       </c>
@@ -3895,7 +3939,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>180</v>
       </c>
@@ -3904,14 +3948,14 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D10"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8">
       <c r="B11" s="6" t="s">
         <v>52</v>
       </c>
@@ -3920,13 +3964,13 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8">
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8">
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
@@ -3935,7 +3979,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8">
       <c r="B14" s="4" t="s">
         <v>363</v>
       </c>
@@ -3944,7 +3988,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8">
       <c r="B15" s="4" t="s">
         <v>364</v>
       </c>
@@ -3953,7 +3997,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8">
       <c r="B16" s="4" t="s">
         <v>100</v>
       </c>
@@ -3962,7 +4006,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
         <v>126</v>
       </c>
@@ -3971,28 +4015,28 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
       <c r="D18" s="1" t="s">
         <v>415</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>416</v>
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8">
       <c r="B20" s="4"/>
       <c r="D20" s="1" t="s">
         <v>417</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
@@ -4001,7 +4045,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8">
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
@@ -4010,312 +4054,312 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="D23" s="1" t="s">
         <v>420</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8">
       <c r="D24" s="1" t="s">
         <v>421</v>
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8">
       <c r="B32" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8">
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
         <v>179</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8">
       <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8">
       <c r="B40" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8">
       <c r="B41" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8">
       <c r="B45" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="4"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3">
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3">
       <c r="B82" s="12" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3">
       <c r="B83" s="12" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3">
       <c r="B84" s="12" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3">
       <c r="B86" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3">
       <c r="B87" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3">
       <c r="B88" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3">
       <c r="B90" s="4" t="s">
         <v>107</v>
       </c>
@@ -4323,32 +4367,32 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3">
       <c r="B91" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3">
       <c r="B92" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3">
       <c r="B93" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3">
       <c r="B94" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3">
       <c r="B95" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3">
       <c r="B96" s="4" t="s">
         <v>58</v>
       </c>
@@ -4356,110 +4400,110 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2">
       <c r="B97" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2">
       <c r="B98" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2">
       <c r="B99" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2">
       <c r="B100" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2">
       <c r="B101" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2">
       <c r="B102" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2">
       <c r="B103" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2">
       <c r="B104" s="4"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2">
       <c r="B108" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2">
       <c r="B117" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2">
       <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2">
       <c r="B124" s="1" t="s">
         <v>431</v>
       </c>
@@ -4475,10 +4519,10 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="39.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="1"/>
@@ -4487,7 +4531,7 @@
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -4504,7 +4548,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
@@ -4518,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -4535,7 +4579,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>190</v>
       </c>
@@ -4552,7 +4596,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>191</v>
       </c>
@@ -4569,7 +4613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>192</v>
       </c>
@@ -4586,7 +4630,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>193</v>
       </c>
@@ -4603,7 +4647,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4617,7 +4661,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
         <v>194</v>
       </c>
@@ -4634,7 +4678,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>195</v>
       </c>
@@ -4648,7 +4692,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>196</v>
       </c>
@@ -4662,7 +4706,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
@@ -4673,7 +4717,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>198</v>
       </c>
@@ -4684,218 +4728,218 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4910,11 +4954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="39.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -4931,7 +4975,7 @@
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4966,7 +5010,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -5001,7 +5045,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
@@ -5036,7 +5080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -5071,7 +5115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>205</v>
       </c>
@@ -5106,7 +5150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>207</v>
       </c>
@@ -5141,7 +5185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -5173,7 +5217,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>237</v>
       </c>
@@ -5205,7 +5249,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
@@ -5237,7 +5281,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.5">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -5266,7 +5310,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>239</v>
       </c>
@@ -5295,7 +5339,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>469</v>
       </c>
@@ -5321,7 +5365,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -5347,7 +5391,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>195</v>
       </c>
@@ -5376,7 +5420,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -5402,7 +5446,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
@@ -5428,7 +5472,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
         <v>191</v>
       </c>
@@ -5454,7 +5498,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>215</v>
       </c>
@@ -5480,7 +5524,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="12" t="s">
         <v>203</v>
       </c>
@@ -5509,7 +5553,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>468</v>
       </c>
@@ -5538,7 +5582,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>198</v>
       </c>
@@ -5564,7 +5608,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>470</v>
       </c>
@@ -5590,7 +5634,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>471</v>
       </c>
@@ -5616,7 +5660,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>209</v>
       </c>
@@ -5642,7 +5686,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
         <v>454</v>
       </c>
@@ -5668,7 +5712,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" s="22" t="s">
         <v>2</v>
       </c>
@@ -5694,7 +5738,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
@@ -5720,7 +5764,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
@@ -5746,7 +5790,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>202</v>
       </c>
@@ -5772,7 +5816,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="22" t="s">
         <v>241</v>
       </c>
@@ -5795,7 +5839,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" s="22" t="s">
         <v>236</v>
       </c>
@@ -5818,7 +5862,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" s="22" t="s">
         <v>204</v>
       </c>
@@ -5841,7 +5885,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="22" t="s">
         <v>213</v>
       </c>
@@ -5863,11 +5907,11 @@
       <c r="G33" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
         <v>455</v>
       </c>
@@ -5889,11 +5933,11 @@
       <c r="G34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -5915,11 +5959,11 @@
       <c r="G35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>192</v>
       </c>
@@ -5941,8 +5985,11 @@
       <c r="G36" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J36" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>484</v>
       </c>
@@ -5964,8 +6011,11 @@
       <c r="G37" s="12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J37" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -5984,8 +6034,11 @@
       <c r="G38" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J38" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>218</v>
       </c>
@@ -6004,8 +6057,11 @@
       <c r="G39" s="16" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J39" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -6024,8 +6080,11 @@
       <c r="G40" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J40" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>216</v>
       </c>
@@ -6041,8 +6100,11 @@
       <c r="G41" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J41" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -6058,8 +6120,11 @@
       <c r="G42" s="20" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J42" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
@@ -6073,7 +6138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" s="22" t="s">
         <v>243</v>
       </c>
@@ -6093,7 +6158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="B45" s="2" t="s">
         <v>515</v>
       </c>
@@ -6110,7 +6175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="B46" s="33" t="s">
         <v>516</v>
       </c>
@@ -6127,7 +6192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="B47" s="2" t="s">
         <v>517</v>
       </c>
@@ -6141,11 +6206,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="B48" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -6155,43 +6220,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6">
+      <c r="C50" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="F50" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6">
+      <c r="C51" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="F51" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6">
+      <c r="C52" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="F52" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6">
       <c r="F53" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6">
       <c r="F54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" ht="43.5">
       <c r="C55" s="32" t="s">
         <v>522</v>
       </c>
@@ -6199,7 +6273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6">
       <c r="C56" s="33" t="s">
         <v>521</v>
       </c>
@@ -6207,7 +6281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6">
       <c r="C57" s="1" t="s">
         <v>528</v>
       </c>
@@ -6215,392 +6289,404 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" ht="43.5">
+      <c r="B58" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>535</v>
+      </c>
       <c r="F58" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6">
+      <c r="B59" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="F59" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6">
       <c r="F60" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6">
       <c r="F61" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6">
       <c r="F62" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6">
       <c r="F63" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6">
       <c r="F64" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6">
       <c r="F65" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6">
       <c r="F66" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6">
       <c r="F67" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6">
       <c r="F68" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6">
       <c r="F69" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6">
       <c r="F70" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6">
       <c r="F71" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6">
       <c r="F72" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6">
       <c r="F73" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6">
       <c r="F74" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6">
       <c r="F75" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6">
       <c r="F76" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6">
       <c r="F77" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6">
       <c r="F78" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6">
       <c r="F79" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6">
       <c r="F80" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6">
       <c r="F81" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6">
       <c r="F82" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6">
       <c r="F83" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6">
       <c r="F84" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6">
       <c r="F85" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6">
       <c r="F86" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6">
       <c r="F87" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6">
       <c r="F88" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6">
       <c r="F89" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6">
       <c r="F90" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6">
       <c r="F91" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6">
       <c r="F92" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6">
       <c r="F93" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6">
       <c r="F94" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6">
       <c r="F95" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6">
       <c r="F96" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6">
       <c r="F97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6">
       <c r="F98" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6">
       <c r="F99" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6">
       <c r="F100" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6">
       <c r="F101" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:6">
       <c r="F102" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:6">
       <c r="F103" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:6">
       <c r="F104" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:6">
       <c r="F105" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:6">
       <c r="F106" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:6">
       <c r="F107" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:6">
       <c r="F108" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:6">
       <c r="F109" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:6">
       <c r="F110" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:6">
       <c r="F111" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:6">
       <c r="F112" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:6">
       <c r="F113" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:6">
       <c r="F114" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:6">
       <c r="F115" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:6">
       <c r="F116" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:6">
       <c r="F117" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:6">
       <c r="F118" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:6">
       <c r="F119" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:6">
       <c r="F120" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:6">
       <c r="F121" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:6">
       <c r="F122" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:6">
       <c r="F123" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:6">
       <c r="F124" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:6">
       <c r="F125" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:6">
       <c r="F126" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:6">
       <c r="F127" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:6">
       <c r="F128" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:6">
       <c r="F129" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:6">
       <c r="F130" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:6">
       <c r="F131" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:6">
       <c r="F132" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:6">
       <c r="F133" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:6">
       <c r="F134" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:6">
       <c r="F135" s="4" t="s">
         <v>136</v>
       </c>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -17,6 +17,8 @@
     <sheet name="groups" sheetId="13" r:id="rId3"/>
     <sheet name="dp" sheetId="14" r:id="rId4"/>
     <sheet name="all" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="612">
   <si>
     <t>LIS</t>
   </si>
@@ -1663,6 +1665,210 @@
   </si>
   <si>
     <t>CheckForDuplicatesWithInKDistanceAndElementDiffWithInT</t>
+  </si>
+  <si>
+    <t>findkthlargest</t>
+  </si>
+  <si>
+    <t>findkthLargest</t>
+  </si>
+  <si>
+    <t>FindTwoNonRepeatingNumbers</t>
+  </si>
+  <si>
+    <t>Find Pairs</t>
+  </si>
+  <si>
+    <t>checkForPairsWithSum</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>findMajority</t>
+  </si>
+  <si>
+    <t>bitwise</t>
+  </si>
+  <si>
+    <t>findNumberOccuringOddNumberOfTimes</t>
+  </si>
+  <si>
+    <t>Subarray</t>
+  </si>
+  <si>
+    <t>largestContiguousSumUsingDp</t>
+  </si>
+  <si>
+    <t>findMissingNumber</t>
+  </si>
+  <si>
+    <t>DivideAndConquer</t>
+  </si>
+  <si>
+    <t>findPivot</t>
+  </si>
+  <si>
+    <t>findElementInSortedRotatedArray</t>
+  </si>
+  <si>
+    <t>rotateArray</t>
+  </si>
+  <si>
+    <t>maxSumNonAdjascnent</t>
+  </si>
+  <si>
+    <t>leadersInArray</t>
+  </si>
+  <si>
+    <t>sortArrayByFrequency</t>
+  </si>
+  <si>
+    <t>countInversions</t>
+  </si>
+  <si>
+    <t>findSmallestandSecondSmallestInSingleTraversal</t>
+  </si>
+  <si>
+    <t>isMajorityInSortedArray</t>
+  </si>
+  <si>
+    <t>MinMaxWithLessComparisions</t>
+  </si>
+  <si>
+    <t>segregate0s1s</t>
+  </si>
+  <si>
+    <t>quickSelectForKthSmallest</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>maxDiff</t>
+  </si>
+  <si>
+    <t>productArray</t>
+  </si>
+  <si>
+    <t>segregateEvenAndOdd</t>
+  </si>
+  <si>
+    <t>segregate0s1s2sInSinglePass</t>
+  </si>
+  <si>
+    <t>findTwoRepeatingNumbersUsingSignChange</t>
+  </si>
+  <si>
+    <t>minLengthOfUnsortedArray</t>
+  </si>
+  <si>
+    <t>findDuplicates</t>
+  </si>
+  <si>
+    <t>findEqulibriumIndexWithoutExtraSpace</t>
+  </si>
+  <si>
+    <t>nextGreatElement</t>
+  </si>
+  <si>
+    <t>checkIfArrayelementsAreConsecutive</t>
+  </si>
+  <si>
+    <t>maxIndexDiff</t>
+  </si>
+  <si>
+    <t>maxOfAllSubarraysOfSizeK</t>
+  </si>
+  <si>
+    <t>checkWhetherBisSubSetofA</t>
+  </si>
+  <si>
+    <t>minDistanceBetweenTwoNumber</t>
+  </si>
+  <si>
+    <t>findMissingAndRepeating</t>
+  </si>
+  <si>
+    <t>maxLengthOfBitonicSubarray</t>
+  </si>
+  <si>
+    <t>countSmallerNodesOnRight</t>
+  </si>
+  <si>
+    <t>minJumpsToReachEnd</t>
+  </si>
+  <si>
+    <t>subArraysOfSumK</t>
+  </si>
+  <si>
+    <t>findTripletWithSumK</t>
+  </si>
+  <si>
+    <t>findSmallestMissingPositiveNumber</t>
+  </si>
+  <si>
+    <t>celebrityProblem</t>
+  </si>
+  <si>
+    <t>sortedSequenceOfLength3</t>
+  </si>
+  <si>
+    <t>maxProductSubArray</t>
+  </si>
+  <si>
+    <t>findPairWithGivenDifferenceK</t>
+  </si>
+  <si>
+    <t>replaceWithMaxOnRight</t>
+  </si>
+  <si>
+    <t>fourElementsSumToK</t>
+  </si>
+  <si>
+    <t>sortKSortedArray</t>
+  </si>
+  <si>
+    <t>maxCircularSubarraySum</t>
+  </si>
+  <si>
+    <t>findRowWithMax1s</t>
+  </si>
+  <si>
+    <t>shuffle</t>
+  </si>
+  <si>
+    <t>countPossibleTriangles</t>
+  </si>
+  <si>
+    <t>coutnPythogareanTriplets</t>
+  </si>
+  <si>
+    <t>indexToStartForPetrolPump</t>
+  </si>
+  <si>
+    <t>sortArrayToFormBiggestNumber</t>
+  </si>
+  <si>
+    <t>maxProfitWith1Transactions</t>
+  </si>
+  <si>
+    <t>maxProfitWithAnyNumberOfTransactions</t>
+  </si>
+  <si>
+    <t>maxProfitWithKTransactions</t>
+  </si>
+  <si>
+    <t>Rearrange</t>
+  </si>
+  <si>
+    <t>rearrangePositiveNegativeNumbers</t>
+  </si>
+  <si>
+    <t>Make practice after this : rearrangePositiveNegativeNumbers</t>
+  </si>
+  <si>
+    <t>removeAllNodesOfData</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1903,6 +2109,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2214,7 +2421,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2348,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A115" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118:B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3858,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4518,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4954,8 +5161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="I20" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6128,6 +6335,9 @@
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>504</v>
       </c>
@@ -6248,7 +6458,7 @@
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>539</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -6576,119 +6786,708 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="6:6">
+    <row r="113" spans="5:6">
       <c r="F113" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="6:6">
+    <row r="114" spans="5:6">
       <c r="F114" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="6:6">
+    <row r="115" spans="5:6">
       <c r="F115" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="6:6">
+    <row r="116" spans="5:6">
       <c r="F116" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="6:6">
+    <row r="117" spans="5:6">
+      <c r="E117" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F117" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="6:6">
+    <row r="118" spans="5:6">
       <c r="F118" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="6:6">
+    <row r="119" spans="5:6">
       <c r="F119" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="6:6">
+    <row r="120" spans="5:6">
       <c r="F120" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="6:6">
+    <row r="121" spans="5:6">
+      <c r="E121" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F121" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="6:6">
+    <row r="122" spans="5:6">
+      <c r="E122" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F122" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="6:6">
+    <row r="123" spans="5:6">
       <c r="F123" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="6:6">
+    <row r="124" spans="5:6">
+      <c r="E124" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F124" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="6:6">
+    <row r="125" spans="5:6">
       <c r="F125" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="6:6">
+    <row r="126" spans="5:6">
       <c r="F126" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="6:6">
+    <row r="127" spans="5:6">
       <c r="F127" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="6:6">
+    <row r="128" spans="5:6">
+      <c r="E128" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F128" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="6:6">
+    <row r="129" spans="5:6">
+      <c r="E129" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F129" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="6:6">
+    <row r="130" spans="5:6">
       <c r="F130" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="6:6">
+    <row r="131" spans="5:6">
       <c r="F131" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="6:6">
+    <row r="132" spans="5:6">
+      <c r="E132" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F132" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="6:6">
+    <row r="133" spans="5:6">
       <c r="F133" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="6:6">
+    <row r="134" spans="5:6">
       <c r="F134" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="6:6">
+    <row r="135" spans="5:6">
       <c r="F135" s="4" t="s">
         <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="54.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="54.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29">
+      <c r="A15" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="35" customFormat="1">
+      <c r="A2" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="617">
   <si>
     <t>LIS</t>
   </si>
@@ -1869,12 +1869,27 @@
   </si>
   <si>
     <t>removeAllNodesOfData</t>
+  </si>
+  <si>
+    <t>Leetcode</t>
+  </si>
+  <si>
+    <t>Reverse Vowels</t>
+  </si>
+  <si>
+    <t>LongestSubstringWithoutRepeatingCharacters</t>
+  </si>
+  <si>
+    <t>LongestSubstringContainsKUniqueCharacters</t>
+  </si>
+  <si>
+    <t>ZigzagIterator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -5159,10 +5174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I20" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5178,11 +5193,11 @@
     <col min="9" max="9" width="53.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="72.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5216,8 +5231,11 @@
       <c r="K1" s="5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -5251,8 +5269,11 @@
       <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
@@ -5286,8 +5307,11 @@
       <c r="K3" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -5321,8 +5345,11 @@
       <c r="K4" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>205</v>
       </c>
@@ -5357,7 +5384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>207</v>
       </c>
@@ -5392,7 +5419,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -5424,7 +5451,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>237</v>
       </c>
@@ -5456,7 +5483,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
@@ -5488,7 +5515,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.5">
+    <row r="10" spans="1:12" ht="43.5">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -5517,7 +5544,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>239</v>
       </c>
@@ -5546,7 +5573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>469</v>
       </c>
@@ -5572,7 +5599,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -5598,7 +5625,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>195</v>
       </c>
@@ -5627,7 +5654,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -5646,6 +5673,9 @@
       <c r="G15" s="16" t="s">
         <v>159</v>
       </c>
+      <c r="I15" s="1">
+        <v>1110</v>
+      </c>
       <c r="J15" s="12" t="s">
         <v>357</v>
       </c>
@@ -5653,7 +5683,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
@@ -5671,6 +5701,9 @@
       </c>
       <c r="G16" s="16" t="s">
         <v>160</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>365</v>
@@ -6346,6 +6379,9 @@
       </c>
       <c r="F43" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:10">

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="626">
   <si>
     <t>LIS</t>
   </si>
@@ -1643,9 +1643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>excel</t>
-  </si>
-  <si>
     <t>CountBitsUsingBrian Kernighan’s Algorithm</t>
   </si>
   <si>
@@ -1884,6 +1881,36 @@
   </si>
   <si>
     <t>ZigzagIterator</t>
+  </si>
+  <si>
+    <t>FloodFill</t>
+  </si>
+  <si>
+    <t>IsXPowerOf2</t>
+  </si>
+  <si>
+    <t>AddTwoBinaryNumbers</t>
+  </si>
+  <si>
+    <t>ReverseVowels</t>
+  </si>
+  <si>
+    <t>StringToInteger</t>
+  </si>
+  <si>
+    <t>ZigzagConversion</t>
+  </si>
+  <si>
+    <t>IntegerToRomanToInteger</t>
+  </si>
+  <si>
+    <t>IsXPowerOfN</t>
+  </si>
+  <si>
+    <t>SquareRoot</t>
+  </si>
+  <si>
+    <t>validparantheses</t>
   </si>
 </sst>
 </file>
@@ -5176,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="H38" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5232,7 +5259,7 @@
         <v>490</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -5270,7 +5297,7 @@
         <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5308,7 +5335,7 @@
         <v>88</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5346,7 +5373,7 @@
         <v>101</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6125,7 +6152,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="22" t="s">
         <v>213</v>
       </c>
@@ -6151,7 +6178,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="5" t="s">
         <v>455</v>
       </c>
@@ -6177,7 +6204,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -6203,7 +6230,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>192</v>
       </c>
@@ -6229,7 +6256,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>484</v>
       </c>
@@ -6255,7 +6282,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -6275,10 +6302,10 @@
         <v>170</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>218</v>
       </c>
@@ -6298,10 +6325,10 @@
         <v>171</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -6321,10 +6348,10 @@
         <v>172</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>216</v>
       </c>
@@ -6341,10 +6368,10 @@
         <v>109</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -6364,12 +6391,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>504</v>
@@ -6381,10 +6408,10 @@
         <v>47</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="22" t="s">
         <v>243</v>
       </c>
@@ -6403,8 +6430,14 @@
       <c r="F44" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" t="s">
+        <v>616</v>
+      </c>
+      <c r="K44" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="B45" s="2" t="s">
         <v>515</v>
       </c>
@@ -6420,8 +6453,14 @@
       <c r="F45" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" t="s">
+        <v>617</v>
+      </c>
+      <c r="K45" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="B46" s="33" t="s">
         <v>516</v>
       </c>
@@ -6437,8 +6476,14 @@
       <c r="F46" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="J46" t="s">
+        <v>618</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47" s="2" t="s">
         <v>517</v>
       </c>
@@ -6451,8 +6496,14 @@
       <c r="F47" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="J47" t="s">
+        <v>613</v>
+      </c>
+      <c r="K47" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="B48" s="33" t="s">
         <v>518</v>
       </c>
@@ -6465,8 +6516,11 @@
       <c r="F48" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="J48" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="2" t="s">
         <v>519</v>
       </c>
@@ -6476,42 +6530,57 @@
       <c r="F49" s="26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="J49" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="C50" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="J50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="C51" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="J51" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
       <c r="C52" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="J52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
       <c r="F53" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="J53" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
       <c r="F54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="43.5">
+    <row r="55" spans="2:10" ht="43.5">
       <c r="C55" s="32" t="s">
         <v>522</v>
       </c>
@@ -6519,7 +6588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:10">
       <c r="C56" s="33" t="s">
         <v>521</v>
       </c>
@@ -6527,7 +6596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:10">
       <c r="C57" s="1" t="s">
         <v>528</v>
       </c>
@@ -6535,10 +6604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="43.5">
-      <c r="B58" s="1" t="s">
-        <v>536</v>
-      </c>
+    <row r="58" spans="2:10" ht="43.5">
       <c r="C58" s="34" t="s">
         <v>535</v>
       </c>
@@ -6546,38 +6612,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="2:10">
+      <c r="C59" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:10">
       <c r="F60" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:10">
       <c r="F61" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:10">
       <c r="F62" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:10">
       <c r="F63" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:10">
       <c r="F64" s="20" t="s">
         <v>68</v>
       </c>
@@ -7056,18 +7119,18 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7089,7 +7152,7 @@
         <v>515</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7100,7 +7163,7 @@
         <v>517</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7122,7 +7185,7 @@
         <v>528</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29">
@@ -7133,15 +7196,15 @@
         <v>535</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7186,25 +7249,25 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7246,15 +7309,15 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7283,48 +7346,48 @@
   <sheetData>
     <row r="2" spans="1:7" s="35" customFormat="1">
       <c r="A2" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7335,195 +7398,195 @@
         <v>369</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="632">
   <si>
     <t>LIS</t>
   </si>
@@ -1911,6 +1911,24 @@
   </si>
   <si>
     <t>validparantheses</t>
+  </si>
+  <si>
+    <t>ReverseBinary</t>
+  </si>
+  <si>
+    <t>FindNumberOccuringOddNumberOfTimes</t>
+  </si>
+  <si>
+    <t>FindNumberThatAppearOnlyOnce</t>
+  </si>
+  <si>
+    <t>FindTwoRepeatingNumbers</t>
+  </si>
+  <si>
+    <t>FindNumberOccuringOnceOtherOccuringThreeTimes</t>
+  </si>
+  <si>
+    <t>FindMissingNumber</t>
   </si>
 </sst>
 </file>
@@ -5203,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H38" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5410,6 +5428,9 @@
       <c r="K5" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="L5" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
@@ -5445,6 +5466,9 @@
       <c r="K6" s="1" t="s">
         <v>483</v>
       </c>
+      <c r="L6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
@@ -5477,6 +5501,9 @@
       <c r="K7" s="1" t="s">
         <v>491</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
@@ -5509,6 +5536,9 @@
       <c r="K8" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="L8" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
@@ -5700,9 +5730,6 @@
       <c r="G15" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="1">
-        <v>1110</v>
-      </c>
       <c r="J15" s="12" t="s">
         <v>357</v>
       </c>
@@ -5729,9 +5756,6 @@
       <c r="G16" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
       <c r="J16" s="12" t="s">
         <v>365</v>
       </c>
@@ -6152,7 +6176,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:10">
       <c r="A33" s="22" t="s">
         <v>213</v>
       </c>
@@ -6178,7 +6202,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
         <v>455</v>
       </c>
@@ -6204,7 +6228,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -6230,7 +6254,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>192</v>
       </c>
@@ -6256,7 +6280,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>484</v>
       </c>
@@ -6282,7 +6306,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -6305,7 +6329,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>218</v>
       </c>
@@ -6328,7 +6352,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -6351,7 +6375,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>216</v>
       </c>
@@ -6371,7 +6395,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -6391,7 +6415,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
@@ -6411,7 +6435,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:10">
       <c r="A44" s="22" t="s">
         <v>243</v>
       </c>
@@ -6433,11 +6457,8 @@
       <c r="J44" t="s">
         <v>616</v>
       </c>
-      <c r="K44" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:10">
       <c r="B45" s="2" t="s">
         <v>515</v>
       </c>
@@ -6456,11 +6477,8 @@
       <c r="J45" t="s">
         <v>617</v>
       </c>
-      <c r="K45" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46" s="33" t="s">
         <v>516</v>
       </c>
@@ -6479,11 +6497,8 @@
       <c r="J46" t="s">
         <v>618</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:10">
       <c r="B47" s="2" t="s">
         <v>517</v>
       </c>
@@ -6499,11 +6514,8 @@
       <c r="J47" t="s">
         <v>613</v>
       </c>
-      <c r="K47" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:10">
       <c r="B48" s="33" t="s">
         <v>518</v>
       </c>
@@ -6538,6 +6550,9 @@
       <c r="C50" s="1" t="s">
         <v>533</v>
       </c>
+      <c r="E50" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="F50" s="6" t="s">
         <v>54</v>
       </c>
@@ -6549,6 +6564,9 @@
       <c r="C51" s="1" t="s">
         <v>537</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="F51" s="14" t="s">
         <v>55</v>
       </c>
@@ -6560,6 +6578,9 @@
       <c r="C52" s="2" t="s">
         <v>538</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="F52" s="4" t="s">
         <v>56</v>
       </c>
@@ -6568,6 +6589,9 @@
       </c>
     </row>
     <row r="53" spans="2:10">
+      <c r="E53" s="1" t="s">
+        <v>626</v>
+      </c>
       <c r="F53" s="8" t="s">
         <v>57</v>
       </c>
@@ -6576,6 +6600,9 @@
       </c>
     </row>
     <row r="54" spans="2:10">
+      <c r="E54" s="1" t="s">
+        <v>627</v>
+      </c>
       <c r="F54" s="4" t="s">
         <v>58</v>
       </c>
@@ -6584,6 +6611,9 @@
       <c r="C55" s="32" t="s">
         <v>522</v>
       </c>
+      <c r="E55" s="1" t="s">
+        <v>631</v>
+      </c>
       <c r="F55" s="4" t="s">
         <v>59</v>
       </c>
@@ -6592,6 +6622,9 @@
       <c r="C56" s="33" t="s">
         <v>521</v>
       </c>
+      <c r="E56" s="1" t="s">
+        <v>628</v>
+      </c>
       <c r="F56" s="20" t="s">
         <v>60</v>
       </c>
@@ -6600,6 +6633,9 @@
       <c r="C57" s="1" t="s">
         <v>528</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="F57" s="4" t="s">
         <v>61</v>
       </c>
@@ -6608,6 +6644,9 @@
       <c r="C58" s="34" t="s">
         <v>535</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="F58" s="26" t="s">
         <v>62</v>
       </c>
@@ -6615,6 +6654,9 @@
     <row r="59" spans="2:10">
       <c r="C59" s="1" t="s">
         <v>536</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>63</v>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="641">
   <si>
     <t>LIS</t>
   </si>
@@ -1892,9 +1892,6 @@
     <t>AddTwoBinaryNumbers</t>
   </si>
   <si>
-    <t>ReverseVowels</t>
-  </si>
-  <si>
     <t>StringToInteger</t>
   </si>
   <si>
@@ -1910,9 +1907,6 @@
     <t>SquareRoot</t>
   </si>
   <si>
-    <t>validparantheses</t>
-  </si>
-  <si>
     <t>ReverseBinary</t>
   </si>
   <si>
@@ -1929,6 +1923,39 @@
   </si>
   <si>
     <t>FindMissingNumber</t>
+  </si>
+  <si>
+    <t>CreateMatrixWithAlternateRectanglesOf0sAnd1s</t>
+  </si>
+  <si>
+    <t>PrintMatrixDiagnolly</t>
+  </si>
+  <si>
+    <t>PrintSortedOrderFromSortedMatrix</t>
+  </si>
+  <si>
+    <t>SumOfSubsquaresOfKbyK</t>
+  </si>
+  <si>
+    <t>TransposeMatrix</t>
+  </si>
+  <si>
+    <t>StringCompression</t>
+  </si>
+  <si>
+    <t>ValidPalindromeString</t>
+  </si>
+  <si>
+    <t>ValidParantheses</t>
+  </si>
+  <si>
+    <t>WellFormedParantheses</t>
+  </si>
+  <si>
+    <t>Mathamatical</t>
+  </si>
+  <si>
+    <t>Mathematical</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2170,6 +2197,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4123,10 +4153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H124"/>
+  <dimension ref="B1:H129"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4775,6 +4805,26 @@
         <v>431</v>
       </c>
     </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4785,7 +4835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -5219,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5242,7 +5292,7 @@
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5330,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -5317,8 +5367,11 @@
       <c r="L2" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
@@ -5355,8 +5408,11 @@
       <c r="L3" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -5393,8 +5449,11 @@
       <c r="L4" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>205</v>
       </c>
@@ -5429,10 +5488,13 @@
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>619</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>207</v>
       </c>
@@ -5466,11 +5528,11 @@
       <c r="K6" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="L6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -5501,11 +5563,14 @@
       <c r="K7" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" t="s">
+        <v>620</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>237</v>
       </c>
@@ -5537,10 +5602,13 @@
         <v>497</v>
       </c>
       <c r="L8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>618</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
@@ -5572,7 +5640,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5">
+    <row r="10" spans="1:13" ht="43.5">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -5594,6 +5662,9 @@
       <c r="G10" s="12" t="s">
         <v>90</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="J10" s="20" t="s">
         <v>351</v>
       </c>
@@ -5601,7 +5672,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>239</v>
       </c>
@@ -5623,6 +5694,12 @@
       <c r="G11" s="16" t="s">
         <v>156</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I11" t="s">
+        <v>631</v>
+      </c>
       <c r="J11" s="12" t="s">
         <v>406</v>
       </c>
@@ -5630,7 +5707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>469</v>
       </c>
@@ -5652,11 +5729,17 @@
       <c r="G12" s="16" t="s">
         <v>157</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I12" t="s">
+        <v>632</v>
+      </c>
       <c r="J12" s="19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -5678,11 +5761,17 @@
       <c r="G13" s="16" t="s">
         <v>46</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I13" t="s">
+        <v>633</v>
+      </c>
       <c r="J13" s="12" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>195</v>
       </c>
@@ -5704,14 +5793,17 @@
       <c r="G14" s="16" t="s">
         <v>158</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I14" t="s">
+        <v>634</v>
+      </c>
       <c r="J14" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -5730,6 +5822,12 @@
       <c r="G15" s="16" t="s">
         <v>159</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="J15" s="12" t="s">
         <v>357</v>
       </c>
@@ -5737,7 +5835,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
@@ -5755,6 +5853,9 @@
       </c>
       <c r="G16" s="16" t="s">
         <v>160</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>365</v>
@@ -5782,11 +5883,11 @@
       <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>626</v>
+      </c>
       <c r="J17" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5808,11 +5909,14 @@
       <c r="G18" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>639</v>
+      </c>
       <c r="J18" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5837,11 +5941,14 @@
       <c r="G19" s="12" t="s">
         <v>161</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I19" t="s">
+        <v>621</v>
+      </c>
       <c r="J19" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5866,6 +5973,12 @@
       <c r="G20" s="12" t="s">
         <v>75</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I20" t="s">
+        <v>622</v>
+      </c>
       <c r="J20" s="12" t="s">
         <v>404</v>
       </c>
@@ -5895,6 +6008,9 @@
       <c r="G21" s="12" t="s">
         <v>81</v>
       </c>
+      <c r="I21" t="s">
+        <v>623</v>
+      </c>
       <c r="J21" s="12" t="s">
         <v>400</v>
       </c>
@@ -5921,6 +6037,9 @@
       <c r="G22" s="12" t="s">
         <v>162</v>
       </c>
+      <c r="I22" t="s">
+        <v>428</v>
+      </c>
       <c r="J22" s="12" t="s">
         <v>402</v>
       </c>
@@ -6175,6 +6294,9 @@
       <c r="G32" s="12" t="s">
         <v>115</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="22" t="s">
@@ -6199,7 +6321,7 @@
         <v>117</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6224,8 +6346,8 @@
       <c r="G34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>531</v>
+      <c r="J34" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6251,7 +6373,7 @@
         <v>118</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6277,7 +6399,7 @@
         <v>119</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6302,9 +6424,7 @@
       <c r="G37" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="J37"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
@@ -6325,9 +6445,7 @@
       <c r="G38" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="J38"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
@@ -6348,9 +6466,7 @@
       <c r="G39" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>541</v>
-      </c>
+      <c r="J39"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
@@ -6371,9 +6487,6 @@
       <c r="G40" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
@@ -6391,9 +6504,6 @@
       <c r="G41" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
@@ -6411,9 +6521,6 @@
       <c r="G42" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
@@ -6431,9 +6538,6 @@
       <c r="F43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>615</v>
-      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22" t="s">
@@ -6454,9 +6558,6 @@
       <c r="F44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J44" t="s">
-        <v>616</v>
-      </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="2" t="s">
@@ -6474,9 +6575,6 @@
       <c r="F45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J45" t="s">
-        <v>617</v>
-      </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="33" t="s">
@@ -6494,9 +6592,6 @@
       <c r="F46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J46" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="2" t="s">
@@ -6508,11 +6603,11 @@
       <c r="D47" s="1" t="s">
         <v>507</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="F47" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J47" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6525,164 +6620,142 @@
       <c r="D48" s="1" t="s">
         <v>508</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="F48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J48" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
         <v>519</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>526</v>
       </c>
+      <c r="E49" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="F49" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J49" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
+    </row>
+    <row r="50" spans="2:6">
       <c r="C50" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>550</v>
+      <c r="E50" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
+    </row>
+    <row r="51" spans="2:6">
       <c r="C51" s="1" t="s">
         <v>537</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>617</v>
+        <v>374</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J51" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
+    </row>
+    <row r="52" spans="2:6">
       <c r="C52" s="2" t="s">
         <v>538</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>540</v>
+        <v>635</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J52" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
+    </row>
+    <row r="53" spans="2:6">
       <c r="E53" s="1" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
+    </row>
+    <row r="54" spans="2:6">
       <c r="E54" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="43.5">
+    <row r="55" spans="2:6" ht="43.5">
       <c r="C55" s="32" t="s">
         <v>522</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:6">
       <c r="C56" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="F56" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:6">
       <c r="C57" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="F57" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="43.5">
+    <row r="58" spans="2:6" ht="43.5">
       <c r="C58" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="F58" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:6">
       <c r="C59" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="F59" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:6">
       <c r="F60" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:6">
+      <c r="D61" s="36"/>
       <c r="F61" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:6">
+      <c r="D62" s="36"/>
       <c r="F62" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:6">
       <c r="F63" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:6">
       <c r="F64" s="20" t="s">
         <v>68</v>
       </c>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="643">
   <si>
     <t>LIS</t>
   </si>
@@ -1956,6 +1956,12 @@
   </si>
   <si>
     <t>Mathematical</t>
+  </si>
+  <si>
+    <t>ReverseWordsInString</t>
+  </si>
+  <si>
+    <t>IsomorphicStrings</t>
   </si>
 </sst>
 </file>
@@ -5271,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5525,9 +5531,6 @@
       <c r="J6" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="L6" s="1" t="s">
         <v>615</v>
       </c>
@@ -5639,6 +5642,9 @@
       <c r="K9" s="1" t="s">
         <v>498</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="43.5">
       <c r="A10" s="1" t="s">
@@ -5670,6 +5676,9 @@
       </c>
       <c r="K10" s="31" t="s">
         <v>499</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:13">

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="652">
   <si>
     <t>LIS</t>
   </si>
@@ -1673,198 +1673,9 @@
     <t>FindTwoNonRepeatingNumbers</t>
   </si>
   <si>
-    <t>Find Pairs</t>
-  </si>
-  <si>
-    <t>checkForPairsWithSum</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>findMajority</t>
-  </si>
-  <si>
     <t>bitwise</t>
   </si>
   <si>
-    <t>findNumberOccuringOddNumberOfTimes</t>
-  </si>
-  <si>
-    <t>Subarray</t>
-  </si>
-  <si>
-    <t>largestContiguousSumUsingDp</t>
-  </si>
-  <si>
-    <t>findMissingNumber</t>
-  </si>
-  <si>
-    <t>DivideAndConquer</t>
-  </si>
-  <si>
-    <t>findPivot</t>
-  </si>
-  <si>
-    <t>findElementInSortedRotatedArray</t>
-  </si>
-  <si>
-    <t>rotateArray</t>
-  </si>
-  <si>
-    <t>maxSumNonAdjascnent</t>
-  </si>
-  <si>
-    <t>leadersInArray</t>
-  </si>
-  <si>
-    <t>sortArrayByFrequency</t>
-  </si>
-  <si>
-    <t>countInversions</t>
-  </si>
-  <si>
-    <t>findSmallestandSecondSmallestInSingleTraversal</t>
-  </si>
-  <si>
-    <t>isMajorityInSortedArray</t>
-  </si>
-  <si>
-    <t>MinMaxWithLessComparisions</t>
-  </si>
-  <si>
-    <t>segregate0s1s</t>
-  </si>
-  <si>
-    <t>quickSelectForKthSmallest</t>
-  </si>
-  <si>
-    <t>sorting</t>
-  </si>
-  <si>
-    <t>maxDiff</t>
-  </si>
-  <si>
-    <t>productArray</t>
-  </si>
-  <si>
-    <t>segregateEvenAndOdd</t>
-  </si>
-  <si>
-    <t>segregate0s1s2sInSinglePass</t>
-  </si>
-  <si>
-    <t>findTwoRepeatingNumbersUsingSignChange</t>
-  </si>
-  <si>
-    <t>minLengthOfUnsortedArray</t>
-  </si>
-  <si>
-    <t>findDuplicates</t>
-  </si>
-  <si>
-    <t>findEqulibriumIndexWithoutExtraSpace</t>
-  </si>
-  <si>
-    <t>nextGreatElement</t>
-  </si>
-  <si>
-    <t>checkIfArrayelementsAreConsecutive</t>
-  </si>
-  <si>
-    <t>maxIndexDiff</t>
-  </si>
-  <si>
-    <t>maxOfAllSubarraysOfSizeK</t>
-  </si>
-  <si>
-    <t>checkWhetherBisSubSetofA</t>
-  </si>
-  <si>
-    <t>minDistanceBetweenTwoNumber</t>
-  </si>
-  <si>
-    <t>findMissingAndRepeating</t>
-  </si>
-  <si>
-    <t>maxLengthOfBitonicSubarray</t>
-  </si>
-  <si>
-    <t>countSmallerNodesOnRight</t>
-  </si>
-  <si>
-    <t>minJumpsToReachEnd</t>
-  </si>
-  <si>
-    <t>subArraysOfSumK</t>
-  </si>
-  <si>
-    <t>findTripletWithSumK</t>
-  </si>
-  <si>
-    <t>findSmallestMissingPositiveNumber</t>
-  </si>
-  <si>
-    <t>celebrityProblem</t>
-  </si>
-  <si>
-    <t>sortedSequenceOfLength3</t>
-  </si>
-  <si>
-    <t>maxProductSubArray</t>
-  </si>
-  <si>
-    <t>findPairWithGivenDifferenceK</t>
-  </si>
-  <si>
-    <t>replaceWithMaxOnRight</t>
-  </si>
-  <si>
-    <t>fourElementsSumToK</t>
-  </si>
-  <si>
-    <t>sortKSortedArray</t>
-  </si>
-  <si>
-    <t>maxCircularSubarraySum</t>
-  </si>
-  <si>
-    <t>findRowWithMax1s</t>
-  </si>
-  <si>
-    <t>shuffle</t>
-  </si>
-  <si>
-    <t>countPossibleTriangles</t>
-  </si>
-  <si>
-    <t>coutnPythogareanTriplets</t>
-  </si>
-  <si>
-    <t>indexToStartForPetrolPump</t>
-  </si>
-  <si>
-    <t>sortArrayToFormBiggestNumber</t>
-  </si>
-  <si>
-    <t>maxProfitWith1Transactions</t>
-  </si>
-  <si>
-    <t>maxProfitWithAnyNumberOfTransactions</t>
-  </si>
-  <si>
-    <t>maxProfitWithKTransactions</t>
-  </si>
-  <si>
-    <t>Rearrange</t>
-  </si>
-  <si>
-    <t>rearrangePositiveNegativeNumbers</t>
-  </si>
-  <si>
-    <t>Make practice after this : rearrangePositiveNegativeNumbers</t>
-  </si>
-  <si>
     <t>removeAllNodesOfData</t>
   </si>
   <si>
@@ -1962,6 +1773,222 @@
   </si>
   <si>
     <t>IsomorphicStrings</t>
+  </si>
+  <si>
+    <t>2) Evaluate Reverse Polish Notation (Stack)</t>
+  </si>
+  <si>
+    <t>3) Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>5) Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>5) Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>10) 3Sum Closest</t>
+  </si>
+  <si>
+    <t>11) String to Integer</t>
+  </si>
+  <si>
+    <t>12) Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>13) Valid Parentheses</t>
+  </si>
+  <si>
+    <t>13) Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>14) Implement strStr()</t>
+  </si>
+  <si>
+    <t>15) Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>16) Search Insert Position</t>
+  </si>
+  <si>
+    <t>17) Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>18) Valid Palindrome</t>
+  </si>
+  <si>
+    <t>19) ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>21) Length of Last Word</t>
+  </si>
+  <si>
+    <t>22) Triangle</t>
+  </si>
+  <si>
+    <t>27) Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>28) Substring with Concatenation of All Words</t>
+  </si>
+  <si>
+    <t>29) Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>33) Min Stack</t>
+  </si>
+  <si>
+    <t>36) Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>38) Largest Number</t>
+  </si>
+  <si>
+    <t>39) Simplify Path</t>
+  </si>
+  <si>
+    <t>40) Compare Version Numbers</t>
+  </si>
+  <si>
+    <t>41) Gas Station</t>
+  </si>
+  <si>
+    <t>45) Container With Most Water</t>
+  </si>
+  <si>
+    <t>45) Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>46) Count and Say</t>
+  </si>
+  <si>
+    <t>47) Search for a Range</t>
+  </si>
+  <si>
+    <t>49) Group Anagrams</t>
+  </si>
+  <si>
+    <t>50) Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>51) Rectangle Area</t>
+  </si>
+  <si>
+    <t>52) Summary Ranges</t>
+  </si>
+  <si>
+    <t>53) Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>57) Missing Number</t>
+  </si>
+  <si>
+    <t>59) Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>60) Find Peak Element</t>
+  </si>
+  <si>
+    <t>61) Word Pattern</t>
+  </si>
+  <si>
+    <t>63) Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>64) One Edit Distance</t>
+  </si>
+  <si>
+    <t>65) Scramble String</t>
+  </si>
+  <si>
+    <t>66) First Bad Version</t>
+  </si>
+  <si>
+    <t>67) Integer to English Words</t>
+  </si>
+  <si>
+    <t>69) Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>71) Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>1) Rotate Array, Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>4) Word Ladder (BFS), Word Ladder II (BFS)</t>
+  </si>
+  <si>
+    <t>6) Wildcard Matching, Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>7) Merge Intervals, Insert Interval</t>
+  </si>
+  <si>
+    <t>9) Two Sum, Two Sum II, Two Sum III, 3Sum, 4Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20) Add Binary </t>
+  </si>
+  <si>
+    <t>24) Contains Duplicate: I, II, III</t>
+  </si>
+  <si>
+    <t>25) Remove Duplicates from Sorted Array: I, II, Remove Element , Move Zeroes</t>
+  </si>
+  <si>
+    <t>28) Longest Substring that contains 2 unique characters [Google]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30) Reverse Words in a String </t>
+  </si>
+  <si>
+    <t>31) Find Minimum in Rotated Sorted Array: I, II</t>
+  </si>
+  <si>
+    <t>32) Search in Rotated Array:I, II</t>
+  </si>
+  <si>
+    <t>34) Majority Element: I, II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35) Bulls and Cows </t>
+  </si>
+  <si>
+    <t>37) Longest Common Prefix [Google]</t>
+  </si>
+  <si>
+    <t>44) Pascal's Triangle: I, II</t>
+  </si>
+  <si>
+    <t>45) Candy [Google]</t>
+  </si>
+  <si>
+    <t>48) Basic Calculator, Basic Calculator II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54) Get Target Using Number List And Arithmetic Operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55) Reverse Vowels of a String </t>
+  </si>
+  <si>
+    <t>56) Flip Game, Flip Game II</t>
+  </si>
+  <si>
+    <t>58) Valid Anagram, Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>62) H-Index , H-Index II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68) Text Justification </t>
+  </si>
+  <si>
+    <t>70) Intersection of Two Arrays, Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>String Interleaving</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2130,6 +2157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2158,7 +2191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2202,10 +2235,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4828,7 +4863,7 @@
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -5277,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5333,7 +5368,7 @@
         <v>490</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>611</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5371,7 +5406,7 @@
         <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>512</v>
@@ -5393,7 +5428,7 @@
       <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -5412,7 +5447,7 @@
         <v>88</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>512</v>
@@ -5453,14 +5488,14 @@
         <v>101</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="37" t="s">
         <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5490,14 +5525,12 @@
       <c r="J5" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" t="s">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>640</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5532,7 +5565,7 @@
         <v>409</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5567,14 +5600,14 @@
         <v>491</v>
       </c>
       <c r="L7" t="s">
-        <v>620</v>
+        <v>557</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>640</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5605,7 +5638,7 @@
         <v>497</v>
       </c>
       <c r="L8" t="s">
-        <v>618</v>
+        <v>555</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>512</v>
@@ -5643,7 +5676,7 @@
         <v>498</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>641</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="43.5">
@@ -5669,7 +5702,7 @@
         <v>90</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>351</v>
@@ -5678,7 +5711,7 @@
         <v>499</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>642</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5704,10 +5737,10 @@
         <v>156</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I11" t="s">
-        <v>631</v>
+        <v>568</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>406</v>
@@ -5717,7 +5750,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="12" t="s">
         <v>469</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5739,10 +5772,10 @@
         <v>157</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>617</v>
+        <v>554</v>
       </c>
       <c r="I12" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>353</v>
@@ -5774,15 +5807,15 @@
         <v>540</v>
       </c>
       <c r="I13" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="4" t="s">
-        <v>195</v>
+      <c r="A14" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>262</v>
@@ -5803,10 +5836,10 @@
         <v>158</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>624</v>
+        <v>561</v>
       </c>
       <c r="I14" t="s">
-        <v>634</v>
+        <v>571</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>355</v>
@@ -5814,7 +5847,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>263</v>
@@ -5832,7 +5865,7 @@
         <v>159</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>502</v>
@@ -5845,8 +5878,8 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>240</v>
+      <c r="A16" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>264</v>
@@ -5864,7 +5897,7 @@
         <v>160</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>629</v>
+        <v>566</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>365</v>
@@ -5874,8 +5907,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
-        <v>191</v>
+      <c r="A17" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>265</v>
@@ -5893,7 +5926,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>626</v>
+        <v>563</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>397</v>
@@ -5901,7 +5934,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>266</v>
@@ -5922,15 +5955,15 @@
         <v>545</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>639</v>
+        <v>576</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="12" t="s">
-        <v>203</v>
+      <c r="A19" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>275</v>
@@ -5951,10 +5984,10 @@
         <v>161</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>627</v>
+        <v>564</v>
       </c>
       <c r="I19" t="s">
-        <v>621</v>
+        <v>558</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>399</v>
@@ -5962,7 +5995,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>468</v>
+        <v>215</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>279</v>
@@ -5983,10 +6016,10 @@
         <v>75</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>628</v>
+        <v>565</v>
       </c>
       <c r="I20" t="s">
-        <v>622</v>
+        <v>559</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>404</v>
@@ -5996,8 +6029,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>198</v>
+      <c r="A21" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>267</v>
@@ -6018,15 +6051,15 @@
         <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>623</v>
+        <v>560</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
-        <v>470</v>
+      <c r="A22" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>268</v>
@@ -6054,8 +6087,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
-        <v>471</v>
+      <c r="A23" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>270</v>
@@ -6080,8 +6113,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>209</v>
+      <c r="A24" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>269</v>
@@ -6106,8 +6139,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
-        <v>454</v>
+      <c r="A25" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>280</v>
@@ -6132,8 +6165,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="22" t="s">
-        <v>2</v>
+      <c r="A26" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>281</v>
@@ -6158,8 +6191,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>197</v>
+      <c r="A27" s="22" t="s">
+        <v>651</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>283</v>
@@ -6184,8 +6217,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>211</v>
+      <c r="A28" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>271</v>
@@ -6210,8 +6243,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1" t="s">
-        <v>202</v>
+      <c r="A29" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>272</v>
@@ -6236,8 +6269,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="22" t="s">
-        <v>241</v>
+      <c r="A30" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>273</v>
@@ -6259,8 +6292,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="22" t="s">
-        <v>236</v>
+      <c r="A31" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>274</v>
@@ -6282,8 +6315,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="22" t="s">
-        <v>204</v>
+      <c r="A32" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>284</v>
@@ -6309,7 +6342,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="22" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>285</v>
@@ -6334,8 +6367,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
-        <v>455</v>
+      <c r="A34" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>276</v>
@@ -6356,12 +6389,12 @@
         <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>616</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>244</v>
+      <c r="A35" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>277</v>
@@ -6382,12 +6415,12 @@
         <v>118</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>192</v>
+      <c r="A36" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>282</v>
@@ -6401,19 +6434,19 @@
       <c r="E36" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>119</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>484</v>
+      <c r="A37" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>355</v>
@@ -6437,7 +6470,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>217</v>
+        <v>484</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>358</v>
@@ -6458,7 +6491,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>400</v>
@@ -6479,7 +6512,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>402</v>
@@ -6499,7 +6532,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>401</v>
@@ -6515,8 +6548,8 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="2" t="s">
-        <v>247</v>
+      <c r="A42" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>403</v>
@@ -6532,11 +6565,11 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>242</v>
+      <c r="A43" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>610</v>
+        <v>547</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>504</v>
@@ -6549,8 +6582,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="22" t="s">
-        <v>243</v>
+      <c r="A44" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>514</v>
@@ -6569,6 +6602,9 @@
       </c>
     </row>
     <row r="45" spans="1:10">
+      <c r="A45" s="22" t="s">
+        <v>243</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>515</v>
       </c>
@@ -6603,6 +6639,9 @@
       </c>
     </row>
     <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>517</v>
       </c>
@@ -6620,6 +6659,9 @@
       </c>
     </row>
     <row r="48" spans="1:10">
+      <c r="A48" s="22" t="s">
+        <v>241</v>
+      </c>
       <c r="B48" s="33" t="s">
         <v>518</v>
       </c>
@@ -6636,7 +6678,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="1:6">
+      <c r="A49" s="22" t="s">
+        <v>236</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>519</v>
       </c>
@@ -6644,13 +6689,16 @@
         <v>526</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="1:6">
+      <c r="A50" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>533</v>
       </c>
@@ -6661,7 +6709,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="1:6">
+      <c r="A51" s="22" t="s">
+        <v>213</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>537</v>
       </c>
@@ -6672,45 +6723,57 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>538</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>635</v>
+        <v>572</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>637</v>
+        <v>574</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="43.5">
+    <row r="55" spans="1:6" ht="43.5">
+      <c r="A55" s="22" t="s">
+        <v>243</v>
+      </c>
       <c r="C55" s="32" t="s">
         <v>522</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="1:6">
       <c r="C56" s="33" t="s">
         <v>521</v>
       </c>
@@ -6718,7 +6781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="1:6">
       <c r="C57" s="1" t="s">
         <v>528</v>
       </c>
@@ -6726,7 +6789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="43.5">
+    <row r="58" spans="1:6" ht="43.5">
       <c r="C58" s="34" t="s">
         <v>535</v>
       </c>
@@ -6734,7 +6797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="1:6">
       <c r="C59" s="1" t="s">
         <v>536</v>
       </c>
@@ -6742,29 +6805,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="1:6">
       <c r="F60" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="D61" s="36"/>
+    <row r="61" spans="1:6">
+      <c r="D61" s="35"/>
       <c r="F61" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
-      <c r="D62" s="36"/>
+    <row r="62" spans="1:6">
+      <c r="D62" s="35"/>
       <c r="F62" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="1:6">
       <c r="F63" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="1:6">
       <c r="F64" s="20" t="s">
         <v>68</v>
       </c>
@@ -7155,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7451,15 +7514,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
@@ -7468,249 +7531,360 @@
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="35" customFormat="1">
-      <c r="A2" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>550</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>552</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>555</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>568</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:4" s="36" customFormat="1">
+      <c r="A2" s="36" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>598</v>
+      <c r="A18" s="3" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="4870" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="4870" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="12" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="dp" sheetId="14" r:id="rId4"/>
     <sheet name="all" sheetId="15" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="665">
   <si>
     <t>LIS</t>
   </si>
@@ -1989,6 +1990,45 @@
   </si>
   <si>
     <t>String Interleaving</t>
+  </si>
+  <si>
+    <t>Htree</t>
+  </si>
+  <si>
+    <t>IsValidSudoku</t>
+  </si>
+  <si>
+    <t>DeleteNodeGivenAccessOnlyToThatNode</t>
+  </si>
+  <si>
+    <t>ReplaceSpaceInString</t>
+  </si>
+  <si>
+    <t>StringRotation</t>
+  </si>
+  <si>
+    <t>LongestConsecutiveSubsequence</t>
+  </si>
+  <si>
+    <t>LongestValidParatheses</t>
+  </si>
+  <si>
+    <t>SkylineProblem</t>
+  </si>
+  <si>
+    <t>BusinessTimeInTheMall</t>
+  </si>
+  <si>
+    <t>LargestBSTInBinaryTree</t>
+  </si>
+  <si>
+    <t>Merge Two SortedArrays(http://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/)</t>
+  </si>
+  <si>
+    <t>WordLadder</t>
+  </si>
+  <si>
+    <t>Anagrams needle in haystay(http://www.geeksforgeeks.org/anagram-substring-search-search-permutations/)</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2187,11 +2227,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2241,6 +2292,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2362,6 +2428,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2397,6 +2480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5312,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5748,6 +5848,9 @@
       <c r="K11" s="1" t="s">
         <v>500</v>
       </c>
+      <c r="L11" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="12" t="s">
@@ -5780,6 +5883,9 @@
       <c r="J12" s="19" t="s">
         <v>353</v>
       </c>
+      <c r="L12" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
@@ -5812,6 +5918,9 @@
       <c r="J13" s="12" t="s">
         <v>356</v>
       </c>
+      <c r="L13" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
@@ -5844,6 +5953,9 @@
       <c r="J14" s="12" t="s">
         <v>355</v>
       </c>
+      <c r="L14" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
@@ -5876,6 +5988,9 @@
       <c r="K15" s="1" t="s">
         <v>503</v>
       </c>
+      <c r="L15" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
@@ -5905,8 +6020,11 @@
       <c r="K16" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
@@ -5932,7 +6050,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>240</v>
       </c>
@@ -5960,8 +6078,11 @@
       <c r="J18" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>191</v>
       </c>
@@ -5993,7 +6114,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>215</v>
       </c>
@@ -6027,8 +6148,11 @@
       <c r="K20" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="12" t="s">
         <v>203</v>
       </c>
@@ -6056,8 +6180,11 @@
       <c r="J21" s="12" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="38" t="s">
         <v>468</v>
       </c>
@@ -6086,7 +6213,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>198</v>
       </c>
@@ -6112,7 +6239,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="12" t="s">
         <v>470</v>
       </c>
@@ -6138,7 +6265,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="12" t="s">
         <v>471</v>
       </c>
@@ -6164,7 +6291,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -6190,7 +6317,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="22" t="s">
         <v>651</v>
       </c>
@@ -6216,7 +6343,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
         <v>454</v>
       </c>
@@ -6242,7 +6369,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="22" t="s">
         <v>2</v>
       </c>
@@ -6268,7 +6395,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>197</v>
       </c>
@@ -6291,7 +6418,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>211</v>
       </c>
@@ -6314,8 +6441,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -6466,7 +6593,9 @@
       <c r="G37" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J37"/>
+      <c r="J37" s="39" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
@@ -6487,7 +6616,9 @@
       <c r="G38" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J38"/>
+      <c r="J38" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
@@ -6508,7 +6639,9 @@
       <c r="G39" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J39"/>
+      <c r="J39" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
@@ -6529,6 +6662,9 @@
       <c r="G40" s="12" t="s">
         <v>172</v>
       </c>
+      <c r="J40" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
@@ -6546,9 +6682,12 @@
       <c r="G41" s="20" t="s">
         <v>109</v>
       </c>
+      <c r="J41" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="22" t="s">
         <v>216</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -6562,6 +6701,9 @@
       </c>
       <c r="G42" s="20" t="s">
         <v>467</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6639,9 +6781,6 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B47" s="2" t="s">
         <v>517</v>
       </c>
@@ -6659,9 +6798,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="22" t="s">
-        <v>241</v>
-      </c>
+      <c r="A48" s="22"/>
       <c r="B48" s="33" t="s">
         <v>518</v>
       </c>
@@ -6679,9 +6816,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="22" t="s">
-        <v>236</v>
-      </c>
+      <c r="A49" s="22"/>
       <c r="B49" s="2" t="s">
         <v>519</v>
       </c>
@@ -6696,9 +6831,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="22" t="s">
-        <v>204</v>
-      </c>
+      <c r="A50" s="22"/>
       <c r="C50" s="1" t="s">
         <v>533</v>
       </c>
@@ -6710,9 +6843,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="22" t="s">
-        <v>213</v>
-      </c>
+      <c r="A51" s="22"/>
       <c r="C51" s="1" t="s">
         <v>537</v>
       </c>
@@ -6724,9 +6855,6 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>538</v>
       </c>
@@ -6738,9 +6866,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="E53" s="1" t="s">
         <v>573</v>
       </c>
@@ -6749,9 +6875,6 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E54" s="1" t="s">
         <v>574</v>
       </c>
@@ -7219,7 +7342,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7514,10 +7637,3146 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="39.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="43.5">
+      <c r="A10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="44" t="s">
+        <v>652</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" ht="43.5">
+      <c r="A55" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" ht="43.5">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="729">
   <si>
     <t>LIS</t>
   </si>
@@ -2029,13 +2029,207 @@
   </si>
   <si>
     <t>Anagrams needle in haystay(http://www.geeksforgeeks.org/anagram-substring-search-search-permutations/)</t>
+  </si>
+  <si>
+    <t>Regex Matching</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>PrintBoundarytViewOfTree</t>
+  </si>
+  <si>
+    <t>PrintRootToLeafPathsWithGivenSum</t>
+  </si>
+  <si>
+    <t>PrintTopDownPathsWithGivenSum</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>UpsideDownBinaryTree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>FindUniqueBinarySearchTrees</t>
+  </si>
+  <si>
+    <t>CountSingleValuedSubtrees</t>
+  </si>
+  <si>
+    <t>CanPreorderRepresentBST</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>CountCompleteTreeNodes</t>
+  </si>
+  <si>
+    <t>RegexMatching</t>
+  </si>
+  <si>
+    <t>WildcardMatching</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a Data Structure with Insert &amp; Delete &amp; GetMostFrequent of O(1)
+</t>
+  </si>
+  <si>
+    <t>Design a data structure that supports insert, delete, search and getRandom in constant time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a data structure that supports insert, delete, search and getRandom in constant time
+</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Counter </t>
+  </si>
+  <si>
+    <t>OOAD</t>
+  </si>
+  <si>
+    <t>SocialNetwork</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter : </t>
+  </si>
+  <si>
+    <t>http://massivealgorithms.blogspot.com/2016/06/leetcode-359-logger-rate-limiter.html</t>
+  </si>
+  <si>
+    <t>Peeking Iterator: </t>
+  </si>
+  <si>
+    <t>http://blog.welkinlan.com/2015/09/20/peeking-iterator-leetcode-java/</t>
+  </si>
+  <si>
+    <t>http://www.programcreek.com/2014/08/leetcode-design-snake-game-java/</t>
+  </si>
+  <si>
+    <t>Design a Data Structure with Insert &amp; Delete &amp; GetMostFrequent of O(1)</t>
+  </si>
+  <si>
+    <t>http://www.programcreek.com/2016/08/design-a-data-structure-with-insert-delete-getmostfrequent-of-o1/</t>
+  </si>
+  <si>
+    <t>http://www.geeksforgeeks.org/design-a-data-structure-that-supports-insert-delete-search-and-getrandom-in-constant-time/</t>
+  </si>
+  <si>
+    <t>Design Counter</t>
+  </si>
+  <si>
+    <t>http://massivealgorithms.blogspot.com/2016/08/leetcode-362-design-hit-counter.html</t>
+  </si>
+  <si>
+    <t>T9 Dictionary</t>
+  </si>
+  <si>
+    <t>Chess Game</t>
+  </si>
+  <si>
+    <t>Jukebox</t>
+  </si>
+  <si>
+    <t>OnlineBookReader</t>
+  </si>
+  <si>
+    <t>FindAllSubsetsIterative</t>
+  </si>
+  <si>
+    <t>FindAllSubsetsRecursive</t>
+  </si>
+  <si>
+    <t>FindAllSubsetsWithoutDuplicates</t>
+  </si>
+  <si>
+    <t>SearchAnagramSubstrings</t>
+  </si>
+  <si>
+    <t>CombinationSum1</t>
+  </si>
+  <si>
+    <t>CombinationSum2WithoutDuplicates</t>
+  </si>
+  <si>
+    <t>CombinationSum3WithK</t>
+  </si>
+  <si>
+    <t>GenerateParantheses</t>
+  </si>
+  <si>
+    <t>PermutationSequence</t>
+  </si>
+  <si>
+    <t>PrintAllPalindromePartitions</t>
+  </si>
+  <si>
+    <t>MaxSizeRectangleOfAll1s</t>
+  </si>
+  <si>
+    <t>MaxSubSquareWithSidesX</t>
+  </si>
+  <si>
+    <t>BinaryWatch</t>
+  </si>
+  <si>
+    <t>MinStepsInRatMaze</t>
+  </si>
+  <si>
+    <t>Item Recommendation</t>
+  </si>
+  <si>
+    <t>Find missing number from billion numbers</t>
+  </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <t>Find nearest 5 cabs</t>
+  </si>
+  <si>
+    <t>GrayCode</t>
+  </si>
+  <si>
+    <t>FindNextPalindromeNumber</t>
+  </si>
+  <si>
+    <t>Ramanujan</t>
+  </si>
+  <si>
+    <t>IsomorphicPatternToString</t>
+  </si>
+  <si>
+    <t>ValidWordSquares</t>
+  </si>
+  <si>
+    <t>FindPattern</t>
+  </si>
+  <si>
+    <t>RestoreIpAddress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2159,8 +2353,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2203,6 +2411,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2239,10 +2453,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2304,11 +2519,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -7637,10 +7858,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7655,12 +7876,13 @@
     <col min="8" max="8" width="38.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7692,14 +7914,14 @@
         <v>487</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="L1" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="4"/>
+      <c r="N1" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>189</v>
       </c>
@@ -7730,17 +7952,12 @@
       <c r="J2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>199</v>
       </c>
@@ -7771,17 +7988,12 @@
       <c r="J3" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>200</v>
       </c>
@@ -7812,17 +8024,12 @@
       <c r="J4" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>205</v>
       </c>
@@ -7853,15 +8060,15 @@
       <c r="J5" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="41" t="s">
+      <c r="K5" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>207</v>
       </c>
@@ -7892,13 +8099,15 @@
       <c r="J6" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -7927,17 +8136,15 @@
       <c r="J7" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="4"/>
+      <c r="N7" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>237</v>
       </c>
@@ -7966,17 +8173,15 @@
       <c r="J8" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="L8" s="41" t="s">
+      <c r="K8" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
@@ -8006,14 +8211,14 @@
         <v>349</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="L9" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="43.5">
+      <c r="L9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>238</v>
       </c>
@@ -8042,15 +8247,15 @@
       <c r="J10" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="K10" s="42" t="s">
-        <v>499</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>239</v>
       </c>
@@ -8081,15 +8286,15 @@
       <c r="J11" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="L11" s="41" t="s">
+      <c r="K11" s="41" t="s">
         <v>653</v>
       </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>469</v>
       </c>
@@ -8120,13 +8325,15 @@
       <c r="J12" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="41" t="s">
+      <c r="K12" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -8157,13 +8364,15 @@
       <c r="J13" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="41" t="s">
+      <c r="K13" s="41" t="s">
         <v>658</v>
       </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="4"/>
+      <c r="N13" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>244</v>
       </c>
@@ -8194,13 +8403,12 @@
       <c r="J14" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="41" t="s">
+      <c r="K14" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>192</v>
       </c>
@@ -8229,15 +8437,15 @@
       <c r="J15" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="L15" s="41" t="s">
+      <c r="K15" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>195</v>
       </c>
@@ -8265,14 +8473,14 @@
         <v>365</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="L16" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>190</v>
       </c>
@@ -8299,11 +8507,15 @@
       <c r="J17" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="1" t="s">
+        <v>707</v>
+      </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>240</v>
       </c>
@@ -8332,13 +8544,15 @@
       <c r="J18" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="K18" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="N18" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>191</v>
       </c>
@@ -8351,9 +8565,6 @@
       <c r="D19" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="F19" s="4" t="s">
         <v>25</v>
       </c>
@@ -8369,11 +8580,15 @@
       <c r="J19" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>215</v>
       </c>
@@ -8386,9 +8601,6 @@
       <c r="D20" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>478</v>
-      </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
       </c>
@@ -8404,15 +8616,15 @@
       <c r="J20" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="K20" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="N20" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>203</v>
       </c>
@@ -8424,9 +8636,6 @@
       </c>
       <c r="D21" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>27</v>
@@ -8442,12 +8651,12 @@
         <v>400</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21" s="4"/>
+      <c r="N21" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="37" t="s">
         <v>468</v>
       </c>
@@ -8459,9 +8668,6 @@
       </c>
       <c r="D22" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>28</v>
@@ -8478,9 +8684,11 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
         <v>198</v>
       </c>
@@ -8492,9 +8700,6 @@
       </c>
       <c r="D23" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>29</v>
@@ -8507,11 +8712,15 @@
       <c r="J23" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>665</v>
+      </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
         <v>470</v>
       </c>
@@ -8523,9 +8732,6 @@
       </c>
       <c r="D24" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>30</v>
@@ -8538,11 +8744,15 @@
       <c r="J24" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>666</v>
+      </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>471</v>
       </c>
@@ -8554,9 +8764,6 @@
       </c>
       <c r="D25" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>31</v>
@@ -8571,9 +8778,11 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>209</v>
       </c>
@@ -8585,9 +8794,6 @@
       </c>
       <c r="D26" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>32</v>
@@ -8602,9 +8808,11 @@
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>651</v>
       </c>
@@ -8616,9 +8824,6 @@
       </c>
       <c r="D27" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>33</v>
@@ -8633,9 +8838,11 @@
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>454</v>
       </c>
@@ -8647,9 +8854,6 @@
       </c>
       <c r="D28" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>34</v>
@@ -8664,9 +8868,11 @@
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
@@ -8678,9 +8884,6 @@
       </c>
       <c r="D29" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>8</v>
@@ -8695,9 +8898,11 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
         <v>197</v>
       </c>
@@ -8724,16 +8929,18 @@
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="45" t="s">
         <v>314</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -8753,9 +8960,11 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
         <v>202</v>
       </c>
@@ -8782,11 +8991,15 @@
       <c r="J32" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>662</v>
+      </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
         <v>241</v>
       </c>
@@ -8815,9 +9028,8 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
         <v>236</v>
       </c>
@@ -8846,16 +9058,15 @@
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="45" t="s">
         <v>317</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -8877,16 +9088,15 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="45" t="s">
         <v>327</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -8908,9 +9118,8 @@
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13">
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
         <v>455</v>
       </c>
@@ -8939,9 +9148,8 @@
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
         <v>484</v>
       </c>
@@ -8968,9 +9176,8 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13">
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
         <v>217</v>
       </c>
@@ -8997,9 +9204,8 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
         <v>218</v>
       </c>
@@ -9026,9 +9232,8 @@
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -9053,9 +9258,8 @@
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
         <v>216</v>
       </c>
@@ -9080,9 +9284,8 @@
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
         <v>247</v>
       </c>
@@ -9105,11 +9308,10 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13">
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
-        <v>242</v>
+        <v>714</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>514</v>
@@ -9132,11 +9334,10 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
-        <v>243</v>
+        <v>715</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>515</v>
@@ -9159,9 +9360,8 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>516</v>
@@ -9170,7 +9370,7 @@
         <v>524</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>511</v>
@@ -9184,18 +9384,19 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="4"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4" t="s">
+        <v>678</v>
+      </c>
       <c r="B47" s="4" t="s">
         <v>517</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>507</v>
+      <c r="D47" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>245</v>
@@ -9209,18 +9410,19 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="4"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="4" t="s">
+        <v>679</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>518</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>508</v>
+      <c r="D48" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>530</v>
@@ -9234,9 +9436,8 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13">
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>519</v>
@@ -9244,7 +9445,9 @@
       <c r="C49" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>681</v>
+      </c>
       <c r="E49" s="4" t="s">
         <v>551</v>
       </c>
@@ -9257,15 +9460,15 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13">
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>667</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="E50" s="4" t="s">
         <v>539</v>
       </c>
@@ -9278,15 +9481,16 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13">
+    </row>
+    <row r="51" spans="1:12" ht="43.5">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>533</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>683</v>
+      </c>
       <c r="E51" s="4" t="s">
         <v>374</v>
       </c>
@@ -9299,15 +9503,16 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13">
+    </row>
+    <row r="52" spans="1:12" ht="43.5">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D52" s="4"/>
+        <v>537</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>685</v>
+      </c>
       <c r="E52" s="4" t="s">
         <v>572</v>
       </c>
@@ -9320,13 +9525,16 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>686</v>
+      </c>
       <c r="E53" s="4" t="s">
         <v>573</v>
       </c>
@@ -9339,13 +9547,14 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="E54" s="4" t="s">
         <v>574</v>
       </c>
@@ -9358,17 +9567,18 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" ht="43.5">
+    </row>
+    <row r="55" spans="1:12" ht="43.5">
       <c r="A55" s="4" t="s">
-        <v>243</v>
+        <v>715</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>575</v>
       </c>
@@ -9381,15 +9591,13 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
         <v>60</v>
@@ -9400,15 +9608,13 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
         <v>61</v>
@@ -9419,16 +9625,16 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" ht="43.5">
+    </row>
+    <row r="58" spans="1:12" ht="43.5">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="29" t="s">
+        <v>688</v>
+      </c>
       <c r="F58" s="4" t="s">
         <v>62</v>
       </c>
@@ -9438,16 +9644,16 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>506</v>
+      </c>
       <c r="F59" s="8" t="s">
         <v>63</v>
       </c>
@@ -9457,14 +9663,17 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="D60" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="F60" s="4" t="s">
         <v>64</v>
       </c>
@@ -9474,14 +9683,19 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13">
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>689</v>
+      </c>
       <c r="F61" s="4" t="s">
         <v>65</v>
       </c>
@@ -9491,14 +9705,19 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13">
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>701</v>
+      </c>
       <c r="F62" s="4" t="s">
         <v>66</v>
       </c>
@@ -9508,14 +9727,19 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13">
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>702</v>
+      </c>
       <c r="F63" s="4" t="s">
         <v>67</v>
       </c>
@@ -9525,14 +9749,17 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13">
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>661</v>
+      </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="F64" s="4" t="s">
         <v>68</v>
       </c>
@@ -9542,12 +9769,13 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13">
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>671</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
@@ -9559,12 +9787,13 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13">
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>672</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
@@ -9576,12 +9805,13 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13">
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>673</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
@@ -9593,12 +9823,13 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13">
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>675</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
@@ -9610,12 +9841,13 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>674</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
@@ -9627,12 +9859,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13">
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
@@ -9644,12 +9877,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13">
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" t="s">
+        <v>677</v>
+      </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
@@ -9661,9 +9895,8 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13">
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -9678,9 +9911,8 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13">
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -9695,9 +9927,8 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13">
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -9712,9 +9943,8 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13">
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -9729,9 +9959,8 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -9746,9 +9975,8 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -9763,9 +9991,8 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13">
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -9780,9 +10007,8 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13">
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -9797,9 +10023,8 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -9814,9 +10039,8 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -9831,9 +10055,8 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13">
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -9848,9 +10071,8 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -9865,9 +10087,8 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -9882,9 +10103,8 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -9899,9 +10119,8 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13">
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -9916,9 +10135,8 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13">
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -9933,9 +10151,8 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13">
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -9950,9 +10167,8 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13">
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -9967,9 +10183,8 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13">
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -9984,9 +10199,8 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13">
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -10001,9 +10215,8 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13">
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -10018,9 +10231,8 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13">
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -10035,9 +10247,8 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13">
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -10052,9 +10263,8 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13">
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -10069,9 +10279,8 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="1:13">
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -10086,9 +10295,8 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13">
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -10103,9 +10311,8 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13">
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -10120,9 +10327,8 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13">
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -10137,9 +10343,8 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13">
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -10154,9 +10359,8 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13">
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -10171,9 +10375,8 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13">
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -10188,9 +10391,8 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13">
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -10205,9 +10407,8 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:13">
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -10222,9 +10423,8 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:13">
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -10239,9 +10439,8 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13">
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -10256,9 +10455,8 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13">
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -10273,9 +10471,8 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="1:13">
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -10290,9 +10487,8 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -10307,9 +10503,8 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:13">
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -10324,9 +10519,8 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13">
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -10341,9 +10535,8 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13">
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -10358,9 +10551,8 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13">
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -10375,9 +10567,8 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13">
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -10392,9 +10583,8 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13">
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -10409,9 +10599,8 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13">
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -10426,9 +10615,8 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13">
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -10445,9 +10633,8 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13">
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -10462,9 +10649,8 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-    </row>
-    <row r="119" spans="1:13">
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -10479,9 +10665,8 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-    </row>
-    <row r="120" spans="1:13">
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -10496,9 +10681,8 @@
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-    </row>
-    <row r="121" spans="1:13">
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -10515,9 +10699,8 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-    </row>
-    <row r="122" spans="1:13">
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -10534,9 +10717,8 @@
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="1:13">
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -10551,9 +10733,8 @@
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13">
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -10570,9 +10751,8 @@
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="1:13">
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -10587,9 +10767,8 @@
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-    </row>
-    <row r="126" spans="1:13">
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -10604,9 +10783,8 @@
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-    </row>
-    <row r="127" spans="1:13">
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -10621,9 +10799,8 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-    </row>
-    <row r="128" spans="1:13">
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -10640,9 +10817,8 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-    </row>
-    <row r="129" spans="1:13">
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -10659,9 +10835,8 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-    </row>
-    <row r="130" spans="1:13">
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -10676,9 +10851,8 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-    </row>
-    <row r="131" spans="1:13">
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -10693,9 +10867,8 @@
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-    </row>
-    <row r="132" spans="1:13">
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -10712,9 +10885,8 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-    </row>
-    <row r="133" spans="1:13">
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -10729,9 +10901,8 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-    </row>
-    <row r="134" spans="1:13">
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -10746,9 +10917,8 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-    </row>
-    <row r="135" spans="1:13">
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -10763,7 +10933,6 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10773,10 +10942,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D72"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:A72"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10790,81 +10959,137 @@
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="47" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>699</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" s="36" customFormat="1">
       <c r="A2" s="36" t="s">
         <v>626</v>
       </c>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>580</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>581</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>627</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>582</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>583</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>628</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>629</v>
       </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>630</v>
       </c>
+      <c r="B10" s="47"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>584</v>
       </c>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>585</v>
       </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>586</v>
       </c>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>587</v>
       </c>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>589</v>
       </c>
+      <c r="B16" s="47"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
@@ -11147,7 +11372,17 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://massivealgorithms.blogspot.com/2016/08/leetcode-362-design-hit-counter.html"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C1" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="740">
   <si>
     <t>LIS</t>
   </si>
@@ -2223,6 +2223,39 @@
   </si>
   <si>
     <t>RestoreIpAddress</t>
+  </si>
+  <si>
+    <t>MergeTwoArraysWithoutExtraSpace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FindKthSmallestInSortedMatrix </t>
+  </si>
+  <si>
+    <t>FindConflictingIntervalsWithPreviousIntervals</t>
+  </si>
+  <si>
+    <t>IntervalTree</t>
+  </si>
+  <si>
+    <t>MeetingRooms2(FindMinNumberOfConfRooms)</t>
+  </si>
+  <si>
+    <t>MeetingRooms(CheckPersonAttendAllMeetings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>KruskalMST</t>
+  </si>
+  <si>
+    <t>PrimMST</t>
+  </si>
+  <si>
+    <t>TopologicalSort</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
   </si>
 </sst>
 </file>
@@ -7860,8 +7893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7956,6 +7989,9 @@
         <v>549</v>
       </c>
       <c r="L2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
@@ -7992,6 +8028,9 @@
         <v>550</v>
       </c>
       <c r="L3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
@@ -8028,6 +8067,9 @@
         <v>551</v>
       </c>
       <c r="L4" s="4"/>
+      <c r="N4" s="1" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
@@ -8065,7 +8107,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -8104,7 +8146,7 @@
       </c>
       <c r="L6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -8129,7 +8171,9 @@
       <c r="G7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>736</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>77</v>
       </c>
@@ -8140,8 +8184,8 @@
         <v>557</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="N7" s="1" t="s">
-        <v>717</v>
+      <c r="N7" s="4" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -8166,7 +8210,9 @@
       <c r="G8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>737</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>449</v>
       </c>
@@ -8178,7 +8224,7 @@
       </c>
       <c r="L8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -8203,7 +8249,9 @@
       <c r="G9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>738</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>445</v>
       </c>
@@ -8215,7 +8263,7 @@
       </c>
       <c r="L9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>476</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8240,7 +8288,9 @@
       <c r="G10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>739</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>567</v>
       </c>
@@ -8251,8 +8301,8 @@
         <v>579</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="N10" s="4" t="s">
-        <v>482</v>
+      <c r="N10" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -8277,9 +8327,6 @@
       <c r="G11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>546</v>
-      </c>
       <c r="I11" s="41" t="s">
         <v>568</v>
       </c>
@@ -8291,7 +8338,7 @@
       </c>
       <c r="L11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -8316,9 +8363,6 @@
       <c r="G12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>554</v>
-      </c>
       <c r="I12" s="41" t="s">
         <v>569</v>
       </c>
@@ -8330,7 +8374,7 @@
       </c>
       <c r="L12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8355,9 +8399,6 @@
       <c r="G13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="I13" s="41" t="s">
         <v>570</v>
       </c>
@@ -8368,8 +8409,8 @@
         <v>658</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="N13" s="1" t="s">
-        <v>653</v>
+      <c r="N13" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -8394,9 +8435,6 @@
       <c r="G14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="I14" s="41" t="s">
         <v>571</v>
       </c>
@@ -8407,6 +8445,9 @@
         <v>578</v>
       </c>
       <c r="L14" s="4"/>
+      <c r="N14" s="1" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
@@ -8428,9 +8469,6 @@
       <c r="G15" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>562</v>
-      </c>
       <c r="I15" s="4" t="s">
         <v>502</v>
       </c>
@@ -8441,8 +8479,8 @@
         <v>659</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>478</v>
+      <c r="N15" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -8465,8 +8503,8 @@
       <c r="G16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>566</v>
+      <c r="H16" s="8" t="s">
+        <v>546</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
@@ -8476,8 +8514,8 @@
         <v>663</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="N16" s="4" t="s">
-        <v>474</v>
+      <c r="N16" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -8501,7 +8539,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
@@ -8511,8 +8549,8 @@
         <v>707</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>473</v>
+      <c r="N17" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -8536,7 +8574,7 @@
         <v>36</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>576</v>
@@ -8549,7 +8587,7 @@
       </c>
       <c r="L18" s="4"/>
       <c r="N18" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -8572,7 +8610,7 @@
         <v>161</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I19" s="41" t="s">
         <v>558</v>
@@ -8585,7 +8623,7 @@
       </c>
       <c r="L19" s="4"/>
       <c r="N19" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -8608,7 +8646,7 @@
         <v>75</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I20" s="41" t="s">
         <v>559</v>
@@ -8621,7 +8659,7 @@
       </c>
       <c r="L20" s="4"/>
       <c r="N20" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -8643,17 +8681,21 @@
       <c r="G21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="I21" s="41" t="s">
         <v>560</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>731</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="N21" s="1" t="s">
-        <v>708</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -8675,17 +8717,21 @@
       <c r="G22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="I22" s="41" t="s">
         <v>428</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>732</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="N22" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -8707,8 +8753,12 @@
       <c r="G23" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="J23" s="4" t="s">
         <v>401</v>
       </c>
@@ -8717,7 +8767,7 @@
       </c>
       <c r="L23" s="4"/>
       <c r="N23" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -8739,7 +8789,9 @@
       <c r="G24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
         <v>403</v>
@@ -8749,7 +8801,7 @@
       </c>
       <c r="L24" s="4"/>
       <c r="N24" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -8771,15 +8823,19 @@
       <c r="G25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>734</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="N25" s="1" t="s">
-        <v>3</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -8806,10 +8862,12 @@
       <c r="J26" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>733</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="N26" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -8839,7 +8897,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="N27" s="1" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -8869,7 +8927,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="N28" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -8898,9 +8956,6 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="1" t="s">
-        <v>722</v>
-      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
@@ -8929,9 +8984,6 @@
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="N30" s="1" t="s">
-        <v>725</v>
-      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
@@ -8960,9 +9012,6 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="N31" s="1" t="s">
-        <v>726</v>
-      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
@@ -8991,13 +9040,8 @@
       <c r="J32" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>662</v>
-      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="N32" s="1" t="s">
-        <v>728</v>
-      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
@@ -9305,7 +9349,9 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>729</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
@@ -9331,7 +9377,9 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4" t="s">
+        <v>730</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
@@ -9357,7 +9405,9 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
@@ -9381,7 +9431,9 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>662</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="18" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="17" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="757">
   <si>
     <t>LIS</t>
   </si>
@@ -2177,9 +2178,6 @@
     <t>PermutationSequence</t>
   </si>
   <si>
-    <t>PrintAllPalindromePartitions</t>
-  </si>
-  <si>
     <t>MaxSizeRectangleOfAll1s</t>
   </si>
   <si>
@@ -2256,13 +2254,67 @@
   </si>
   <si>
     <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>KStacksInArray</t>
+  </si>
+  <si>
+    <t>HouseRobberWithHousesInLine</t>
+  </si>
+  <si>
+    <t>HouseRobberWithMaxAmountInTree</t>
+  </si>
+  <si>
+    <t>HouseRobberWithHousesInCircle</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Lazy Propagation Segment Tree</t>
+  </si>
+  <si>
+    <t>All BST problems in leetcode</t>
+  </si>
+  <si>
+    <t>MinSegmentTree</t>
+  </si>
+  <si>
+    <t>PaintNHousesWith3Colors</t>
+  </si>
+  <si>
+    <t>PaintNHousesWithKColors</t>
+  </si>
+  <si>
+    <t>Most Challenging</t>
+  </si>
+  <si>
+    <t>What you Learned</t>
+  </si>
+  <si>
+    <t>Most Interesting</t>
+  </si>
+  <si>
+    <t>Hardest Bug</t>
+  </si>
+  <si>
+    <t>Enjoyed Most</t>
+  </si>
+  <si>
+    <t>Conflicts with Teammates</t>
+  </si>
+  <si>
+    <t>LetterCombinationsOfPhoneNumber</t>
+  </si>
+  <si>
+    <t>MatrixPrintAllPathsToReachBottomRightFromTopLeft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2400,8 +2452,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2446,7 +2511,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,7 +2567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2552,7 +2629,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2560,6 +2636,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7891,10 +7984,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7912,10 +8005,11 @@
     <col min="11" max="11" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.7265625" style="1"/>
     <col min="14" max="14" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="42" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7953,8 +8047,11 @@
       <c r="N1" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="49" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>189</v>
       </c>
@@ -7985,15 +8082,18 @@
       <c r="J2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="9" t="s">
         <v>549</v>
       </c>
       <c r="L2" s="4"/>
       <c r="N2" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="48" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>199</v>
       </c>
@@ -8024,15 +8124,18 @@
       <c r="J3" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="9" t="s">
         <v>550</v>
       </c>
       <c r="L3" s="4"/>
       <c r="N3" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>200</v>
       </c>
@@ -8068,10 +8171,10 @@
       </c>
       <c r="L4" s="4"/>
       <c r="N4" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="9" t="s">
         <v>205</v>
       </c>
@@ -8110,7 +8213,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>207</v>
       </c>
@@ -8123,7 +8226,7 @@
       <c r="D6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="56" t="s">
         <v>459</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -8138,7 +8241,7 @@
       <c r="I6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="55" t="s">
         <v>409</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -8149,7 +8252,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -8172,12 +8275,12 @@
         <v>154</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="56" t="s">
         <v>348</v>
       </c>
       <c r="K7" s="41" t="s">
@@ -8188,7 +8291,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>237</v>
       </c>
@@ -8210,8 +8313,8 @@
       <c r="G8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>737</v>
+      <c r="H8" s="55" t="s">
+        <v>735</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>449</v>
@@ -8227,7 +8330,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
@@ -8243,16 +8346,16 @@
       <c r="E9" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="I9" s="55" t="s">
         <v>445</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -8262,11 +8365,11 @@
         <v>578</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>238</v>
       </c>
@@ -8288,8 +8391,8 @@
       <c r="G10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>739</v>
+      <c r="H10" s="55" t="s">
+        <v>738</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>567</v>
@@ -8302,10 +8405,10 @@
       </c>
       <c r="L10" s="4"/>
       <c r="N10" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>239</v>
       </c>
@@ -8330,19 +8433,15 @@
       <c r="I11" s="41" t="s">
         <v>568</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>653</v>
-      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="4"/>
       <c r="N11" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="55" t="s">
         <v>469</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -8366,7 +8465,7 @@
       <c r="I12" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="52" t="s">
         <v>353</v>
       </c>
       <c r="K12" s="41" t="s">
@@ -8377,9 +8476,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8" t="s">
-        <v>1</v>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>261</v>
@@ -8390,7 +8489,7 @@
       <c r="D13" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="55" t="s">
         <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -8405,7 +8504,7 @@
       <c r="J13" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="53" t="s">
         <v>658</v>
       </c>
       <c r="L13" s="4"/>
@@ -8413,9 +8512,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
-        <v>244</v>
+    <row r="14" spans="1:15">
+      <c r="A14" s="36" t="s">
+        <v>742</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>262</v>
@@ -8423,13 +8522,13 @@
       <c r="C14" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>334</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -8441,17 +8540,15 @@
       <c r="J14" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="41" t="s">
-        <v>578</v>
-      </c>
+      <c r="K14" s="41"/>
       <c r="L14" s="4"/>
       <c r="N14" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="4" t="s">
-        <v>192</v>
+    <row r="15" spans="1:15">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>263</v>
@@ -8459,7 +8556,7 @@
       <c r="C15" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>333</v>
       </c>
       <c r="E15" s="4"/>
@@ -8483,9 +8580,9 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>264</v>
@@ -8493,7 +8590,7 @@
       <c r="C16" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>529</v>
       </c>
       <c r="E16" s="4"/>
@@ -8520,7 +8617,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>265</v>
@@ -8532,7 +8629,7 @@
         <v>332</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -8545,7 +8642,7 @@
       <c r="J17" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="60" t="s">
         <v>707</v>
       </c>
       <c r="L17" s="4"/>
@@ -8555,7 +8652,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>266</v>
@@ -8567,7 +8664,7 @@
         <v>336</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -8583,16 +8680,16 @@
         <v>398</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="58" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>275</v>
@@ -8619,16 +8716,16 @@
         <v>399</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="58" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>279</v>
@@ -8655,16 +8752,16 @@
         <v>404</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="36" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>267</v>
@@ -8690,17 +8787,17 @@
       <c r="J21" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>731</v>
+      <c r="K21" s="50" t="s">
+        <v>730</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="37" t="s">
-        <v>468</v>
+      <c r="A22" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>268</v>
@@ -8726,17 +8823,17 @@
       <c r="J22" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>732</v>
+      <c r="K22" s="50" t="s">
+        <v>731</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="36" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>270</v>
@@ -8757,7 +8854,7 @@
         <v>545</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>401</v>
@@ -8766,13 +8863,13 @@
         <v>665</v>
       </c>
       <c r="L23" s="4"/>
-      <c r="N23" s="1" t="s">
-        <v>713</v>
+      <c r="N23" s="36" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="4" t="s">
-        <v>470</v>
+      <c r="A24" s="37" t="s">
+        <v>468</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>269</v>
@@ -8800,13 +8897,13 @@
         <v>666</v>
       </c>
       <c r="L24" s="4"/>
-      <c r="N24" s="1" t="s">
-        <v>716</v>
+      <c r="N24" s="36" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="4" t="s">
-        <v>471</v>
+      <c r="A25" s="55" t="s">
+        <v>198</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>280</v>
@@ -8831,16 +8928,16 @@
         <v>405</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L25" s="4"/>
       <c r="N25" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
-        <v>209</v>
+        <v>470</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>281</v>
@@ -8863,16 +8960,16 @@
         <v>358</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L26" s="4"/>
       <c r="N26" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
-        <v>651</v>
+        <v>471</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>283</v>
@@ -8894,17 +8991,19 @@
       <c r="J27" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>739</v>
+      </c>
       <c r="L27" s="4"/>
-      <c r="N27" s="1" t="s">
-        <v>726</v>
+      <c r="N27" s="36" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>271</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -8924,15 +9023,17 @@
       <c r="J28" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>747</v>
+      </c>
       <c r="L28" s="4"/>
       <c r="N28" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="4" t="s">
-        <v>2</v>
+      <c r="A29" s="56" t="s">
+        <v>651</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>272</v>
@@ -8954,12 +9055,17 @@
       <c r="J29" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>748</v>
+      </c>
       <c r="L29" s="4"/>
+      <c r="N29" s="36" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
-        <v>197</v>
+        <v>679</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>273</v>
@@ -8982,17 +9088,22 @@
       <c r="J30" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30" t="s">
+        <v>740</v>
+      </c>
       <c r="L30" s="4"/>
+      <c r="N30" s="9" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
-        <v>211</v>
+        <v>678</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="9" t="s">
         <v>314</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -9010,12 +9121,14 @@
       <c r="J31" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="K31" s="4"/>
+      <c r="K31" s="59" t="s">
+        <v>742</v>
+      </c>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="4" t="s">
-        <v>202</v>
+      <c r="A32" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>284</v>
@@ -9040,12 +9153,14 @@
       <c r="J32" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32" s="59" t="s">
+        <v>741</v>
+      </c>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>285</v>
@@ -9070,12 +9185,14 @@
       <c r="J33" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>746</v>
+      </c>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>276</v>
@@ -9100,17 +9217,16 @@
       <c r="J34" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="9" t="s">
         <v>317</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -9135,12 +9251,12 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="9" t="s">
         <v>327</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -9164,8 +9280,8 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="8" t="s">
-        <v>455</v>
+      <c r="A37" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>355</v>
@@ -9195,7 +9311,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
-        <v>484</v>
+        <v>236</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>358</v>
@@ -9223,7 +9339,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>400</v>
@@ -9251,12 +9367,12 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="9" t="s">
         <v>320</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -9278,8 +9394,8 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="4" t="s">
-        <v>12</v>
+      <c r="A41" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>401</v>
@@ -9305,7 +9421,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
-        <v>216</v>
+        <v>484</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>403</v>
@@ -9315,7 +9431,7 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="55" t="s">
         <v>179</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -9331,7 +9447,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>547</v>
@@ -9349,15 +9465,15 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4" t="s">
-        <v>729</v>
+      <c r="J43" s="52" t="s">
+        <v>728</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>514</v>
@@ -9378,14 +9494,14 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
-        <v>715</v>
+        <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>515</v>
@@ -9406,13 +9522,15 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="B46" s="4" t="s">
         <v>516</v>
       </c>
@@ -9422,7 +9540,7 @@
       <c r="D46" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="55" t="s">
         <v>511</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -9439,7 +9557,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
-        <v>678</v>
+        <v>247</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>517</v>
@@ -9453,7 +9571,7 @@
       <c r="E47" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G47" s="4"/>
@@ -9465,7 +9583,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="4" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>518</v>
@@ -9490,7 +9608,9 @@
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>714</v>
+      </c>
       <c r="B49" s="4" t="s">
         <v>519</v>
       </c>
@@ -9503,7 +9623,7 @@
       <c r="E49" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G49" s="4"/>
@@ -9514,7 +9634,9 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>747</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>667</v>
       </c>
@@ -9535,18 +9657,20 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="43.5">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>748</v>
+      </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="51" t="s">
         <v>683</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="55" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="4"/>
@@ -9557,8 +9681,6 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="43.5">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
         <v>537</v>
       </c>
@@ -9579,9 +9701,7 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="9" t="s">
         <v>538</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -9590,7 +9710,7 @@
       <c r="E53" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G53" s="4"/>
@@ -9601,7 +9721,6 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
@@ -9610,7 +9729,7 @@
       <c r="E54" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G54" s="4"/>
@@ -9621,9 +9740,6 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="43.5">
-      <c r="A55" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="B55" s="4"/>
       <c r="C55" s="42" t="s">
         <v>522</v>
@@ -9631,10 +9747,8 @@
       <c r="D55" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="E55" s="4"/>
+      <c r="F55" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G55" s="4"/>
@@ -9646,12 +9760,12 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="B56"/>
       <c r="C56" s="4" t="s">
         <v>521</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G56" s="4"/>
@@ -9663,12 +9777,12 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="4" t="s">
         <v>528</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G57" s="4"/>
@@ -9687,7 +9801,7 @@
       <c r="E58" s="29" t="s">
         <v>688</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G58" s="4"/>
@@ -9706,7 +9820,7 @@
       <c r="E59" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G59" s="4"/>
@@ -9721,7 +9835,7 @@
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>507</v>
@@ -9743,7 +9857,7 @@
         <v>668</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>689</v>
@@ -9765,12 +9879,12 @@
         <v>669</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G62" s="4"/>
@@ -9787,12 +9901,12 @@
         <v>670</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="55" t="s">
         <v>67</v>
       </c>
       <c r="G63" s="4"/>
@@ -9805,7 +9919,7 @@
     <row r="64" spans="1:12">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="9" t="s">
         <v>661</v>
       </c>
       <c r="D64" s="4"/>
@@ -9861,7 +9975,7 @@
     <row r="67" spans="1:12">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="55" t="s">
         <v>673</v>
       </c>
       <c r="D67" s="4"/>
@@ -9879,7 +9993,7 @@
     <row r="68" spans="1:12">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="9" t="s">
         <v>675</v>
       </c>
       <c r="D68" s="4"/>
@@ -9897,7 +10011,7 @@
     <row r="69" spans="1:12">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="9" t="s">
         <v>674</v>
       </c>
       <c r="D69" s="4"/>
@@ -9915,7 +10029,7 @@
     <row r="70" spans="1:12">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="36" t="s">
         <v>676</v>
       </c>
       <c r="D70" s="4"/>
@@ -9933,7 +10047,7 @@
     <row r="71" spans="1:12">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" t="s">
+      <c r="C71" s="59" t="s">
         <v>677</v>
       </c>
       <c r="D71" s="4"/>
@@ -10996,7 +11110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -11012,10 +11126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>698</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>699</v>
       </c>
     </row>
@@ -11023,7 +11137,7 @@
       <c r="A2" s="36" t="s">
         <v>626</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -11032,7 +11146,7 @@
       <c r="B3" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>691</v>
       </c>
     </row>
@@ -11043,7 +11157,7 @@
       <c r="B4" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>693</v>
       </c>
     </row>
@@ -11054,7 +11168,7 @@
       <c r="B5" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>694</v>
       </c>
     </row>
@@ -11065,7 +11179,7 @@
       <c r="B6" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>696</v>
       </c>
     </row>
@@ -11076,7 +11190,7 @@
       <c r="B7" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>697</v>
       </c>
     </row>
@@ -11087,7 +11201,7 @@
       <c r="B8" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>691</v>
       </c>
     </row>
@@ -11095,53 +11209,53 @@
       <c r="A9" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="46"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="47"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="46"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
@@ -11437,4 +11551,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -15,13 +15,15 @@
     <sheet name="topics" sheetId="12" r:id="rId1"/>
     <sheet name="groups" sheetId="13" r:id="rId2"/>
     <sheet name="all" sheetId="18" r:id="rId3"/>
-    <sheet name="leetcode" sheetId="23" r:id="rId4"/>
-    <sheet name="design" sheetId="17" r:id="rId5"/>
-    <sheet name="Company Tag" sheetId="22" r:id="rId6"/>
+    <sheet name="linkedin" sheetId="25" r:id="rId4"/>
+    <sheet name="leetcode" sheetId="23" r:id="rId5"/>
+    <sheet name="design" sheetId="17" r:id="rId6"/>
+    <sheet name="Company Tag" sheetId="22" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Company Tag'!$A$1:$D$580</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">leetcode!$A$1:$E$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Company Tag'!$A$1:$D$580</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">leetcode!$A$1:$E$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">linkedin!$A$1:$E$43</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="1081">
   <si>
     <t>LIS</t>
   </si>
@@ -3202,6 +3204,84 @@
   </si>
   <si>
     <t>math</t>
+  </si>
+  <si>
+    <t>Find K Closest Points to Value</t>
+  </si>
+  <si>
+    <t>ShortestWordDistance</t>
+  </si>
+  <si>
+    <t>ShortestWordDistance2</t>
+  </si>
+  <si>
+    <t>TwoSum3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested List Weight Sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest Word Distance II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested List Weight Sum II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Upside Down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Sum III - Data structure design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest Word Distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor Combinations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest Word Distance III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Leaves of Binary Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparse Matrix Multiplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Celebrity </t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>FindLeaveOfBinaryTree</t>
+  </si>
+  <si>
+    <t>RepeateDNASequences</t>
+  </si>
+  <si>
+    <t>RotateMatrixBy90degrees</t>
+  </si>
+  <si>
+    <t>NestedListWeightSum</t>
+  </si>
+  <si>
+    <t>NestedListWeightSum2</t>
+  </si>
+  <si>
+    <t>Permutaion</t>
+  </si>
+  <si>
+    <t>Permutaion2</t>
+  </si>
+  <si>
+    <t>NextPermutation</t>
+  </si>
+  <si>
+    <t>Find K Closest Points to Origin(https://www.careercup.com/question?id=5309537623998464)</t>
+  </si>
+  <si>
+    <t>FactorCombinations</t>
   </si>
 </sst>
 </file>
@@ -4575,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K36" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="N15" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4802,6 +4882,9 @@
       <c r="P4" s="1" t="s">
         <v>1035</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
@@ -4843,6 +4926,9 @@
       <c r="O5" s="4" t="s">
         <v>413</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
@@ -4887,8 +4973,8 @@
       <c r="O6" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>1036</v>
+      <c r="P6" s="1" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4934,8 +5020,8 @@
       <c r="O7" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>1035</v>
+      <c r="P7" s="1" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4984,6 +5070,9 @@
       <c r="O8" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
@@ -5028,6 +5117,9 @@
       <c r="O9" s="1" t="s">
         <v>501</v>
       </c>
+      <c r="P9" s="1" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
@@ -5075,6 +5167,9 @@
       <c r="O10" s="1" t="s">
         <v>417</v>
       </c>
+      <c r="P10" s="1" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
@@ -5117,6 +5212,9 @@
       <c r="O11" s="4" t="s">
         <v>414</v>
       </c>
+      <c r="P11" s="1" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
@@ -5161,6 +5259,9 @@
       <c r="O12" s="4" t="s">
         <v>410</v>
       </c>
+      <c r="P12" s="1" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
@@ -5205,6 +5306,9 @@
       <c r="O13" s="4" t="s">
         <v>409</v>
       </c>
+      <c r="P13" s="1" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
@@ -5252,6 +5356,9 @@
       <c r="O14" s="1" t="s">
         <v>549</v>
       </c>
+      <c r="P14" s="1" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15" t="s">
@@ -5294,6 +5401,9 @@
       <c r="O15" s="1" t="s">
         <v>550</v>
       </c>
+      <c r="P15" s="1" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
@@ -5334,8 +5444,11 @@
       <c r="O16" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
         <v>192</v>
       </c>
@@ -5379,8 +5492,11 @@
       <c r="O17" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>593</v>
       </c>
@@ -5421,8 +5537,11 @@
       <c r="O18" s="15" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>708</v>
       </c>
@@ -5463,7 +5582,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>709</v>
       </c>
@@ -5504,7 +5623,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>710</v>
       </c>
@@ -5542,7 +5661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>190</v>
       </c>
@@ -5580,7 +5699,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>711</v>
       </c>
@@ -5618,7 +5737,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>712</v>
       </c>
@@ -5656,7 +5775,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>713</v>
       </c>
@@ -5691,7 +5810,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
         <v>407</v>
       </c>
@@ -5728,7 +5847,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
         <v>714</v>
       </c>
@@ -5762,7 +5881,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
         <v>715</v>
       </c>
@@ -5796,7 +5915,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
         <v>716</v>
       </c>
@@ -5830,7 +5949,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
         <v>717</v>
       </c>
@@ -5861,8 +5980,11 @@
       <c r="M30" s="23" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="O30" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>675</v>
       </c>
@@ -5894,7 +6016,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
         <v>524</v>
       </c>
@@ -7970,11 +8092,613 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="31">
+        <v>339</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="31">
+        <v>244</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="31">
+        <v>364</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="31">
+        <v>156</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="31">
+        <v>170</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="31">
+        <v>256</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="31">
+        <v>243</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="31">
+        <v>254</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="31">
+        <v>245</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="31">
+        <v>205</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="31">
+        <v>50</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="31">
+        <v>297</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="31">
+        <v>53</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D13" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="31">
+        <v>366</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" t="s">
+        <v>664</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="31">
+        <v>311</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="31">
+        <v>68</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="31">
+        <v>56</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="31">
+        <v>277</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="31">
+        <v>65</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D19" t="s">
+        <v>664</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="31">
+        <v>187</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D20" t="s">
+        <v>664</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="31">
+        <v>464</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="31">
+        <v>149</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="31">
+        <v>102</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="31">
+        <v>34</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="31">
+        <v>152</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D25" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="31">
+        <v>1</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="31">
+        <v>33</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>828</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D27" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="31">
+        <v>150</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D28" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="31">
+        <v>236</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D29" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="31">
+        <v>238</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="31">
+        <v>101</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="31">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="31">
+        <v>104</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="31">
+        <v>198</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="31">
+        <v>127</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="31">
+        <v>46</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="31">
+        <v>57</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="31">
+        <v>103</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="31">
+        <v>23</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="31">
+        <v>21</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="31">
+        <v>173</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="31">
+        <v>47</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="31">
+        <v>367</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E43"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7999,7 +8723,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8013,7 +8737,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8027,7 +8751,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8041,7 +8765,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8055,7 +8779,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8069,7 +8793,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8083,7 +8807,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8097,7 +8821,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8111,7 +8835,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8125,7 +8849,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8139,7 +8863,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8153,7 +8877,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8167,7 +8891,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8181,7 +8905,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8195,7 +8919,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8209,7 +8933,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8223,7 +8947,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8237,7 +8961,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8251,7 +8975,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8265,7 +8989,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8279,7 +9003,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8293,7 +9017,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8307,7 +9031,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8321,7 +9045,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8335,7 +9059,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8349,7 +9073,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8363,7 +9087,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8377,7 +9101,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8391,7 +9115,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8405,7 +9129,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8419,7 +9143,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8433,7 +9157,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8447,7 +9171,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8461,7 +9185,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8475,7 +9199,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8489,7 +9213,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8503,7 +9227,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8517,7 +9241,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8531,7 +9255,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8559,7 +9283,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8573,7 +9297,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8601,7 +9325,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8615,7 +9339,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8629,7 +9353,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8643,7 +9367,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8657,7 +9381,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8671,7 +9395,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8713,7 +9437,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8727,7 +9451,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8755,7 +9479,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8769,7 +9493,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8783,7 +9507,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8797,7 +9521,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8825,7 +9549,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8839,7 +9563,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8853,7 +9577,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8867,7 +9591,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8881,7 +9605,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8895,7 +9619,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8909,7 +9633,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8923,7 +9647,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8937,7 +9661,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8951,7 +9675,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8965,7 +9689,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8993,7 +9717,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>1052</v>
       </c>
@@ -9021,7 +9745,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>1052</v>
       </c>
@@ -9035,7 +9759,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9049,7 +9773,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9063,7 +9787,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9077,7 +9801,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9091,7 +9815,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9105,7 +9829,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9119,7 +9843,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9133,7 +9857,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9147,7 +9871,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9175,7 +9899,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9189,7 +9913,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9203,7 +9927,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9217,7 +9941,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9231,7 +9955,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9245,7 +9969,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9259,7 +9983,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9273,7 +9997,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9287,7 +10011,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9301,7 +10025,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9315,7 +10039,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9329,7 +10053,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9357,7 +10081,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9371,7 +10095,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9385,7 +10109,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9399,7 +10123,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9413,7 +10137,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9427,7 +10151,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9441,7 +10165,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9455,7 +10179,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9469,7 +10193,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9483,7 +10207,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9497,7 +10221,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9511,7 +10235,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1">
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9539,7 +10263,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1">
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9564,7 +10288,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9578,7 +10302,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9592,7 +10316,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1">
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9609,7 +10333,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9623,7 +10347,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9637,7 +10361,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9651,7 +10375,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9665,7 +10389,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9679,7 +10403,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1">
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9693,7 +10417,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9710,7 +10434,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1">
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9724,7 +10448,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9738,7 +10462,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1">
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9752,7 +10476,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1">
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9766,7 +10490,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9780,7 +10504,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9794,7 +10518,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9808,7 +10532,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9834,24 +10558,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E132">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="TBD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9967,13 +10685,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C404" sqref="C404"/>
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13659,7 +14377,7 @@
       </c>
       <c r="E245" s="31"/>
     </row>
-    <row r="246" spans="1:5" hidden="1">
+    <row r="246" spans="1:5">
       <c r="A246" s="31" t="s">
         <v>805</v>
       </c>
@@ -13674,7 +14392,7 @@
       </c>
       <c r="E246" s="31"/>
     </row>
-    <row r="247" spans="1:5" hidden="1">
+    <row r="247" spans="1:5">
       <c r="A247" s="31" t="s">
         <v>805</v>
       </c>
@@ -13689,7 +14407,7 @@
       </c>
       <c r="E247" s="31"/>
     </row>
-    <row r="248" spans="1:5" hidden="1">
+    <row r="248" spans="1:5">
       <c r="A248" s="31" t="s">
         <v>805</v>
       </c>
@@ -13704,7 +14422,7 @@
       </c>
       <c r="E248" s="31"/>
     </row>
-    <row r="249" spans="1:5" hidden="1">
+    <row r="249" spans="1:5">
       <c r="A249" s="31" t="s">
         <v>805</v>
       </c>
@@ -13719,7 +14437,7 @@
       </c>
       <c r="E249" s="31"/>
     </row>
-    <row r="250" spans="1:5" hidden="1">
+    <row r="250" spans="1:5">
       <c r="A250" s="31" t="s">
         <v>805</v>
       </c>
@@ -13734,7 +14452,7 @@
       </c>
       <c r="E250" s="31"/>
     </row>
-    <row r="251" spans="1:5" hidden="1">
+    <row r="251" spans="1:5">
       <c r="A251" s="31" t="s">
         <v>805</v>
       </c>
@@ -13749,7 +14467,7 @@
       </c>
       <c r="E251" s="31"/>
     </row>
-    <row r="252" spans="1:5" hidden="1">
+    <row r="252" spans="1:5">
       <c r="A252" s="31" t="s">
         <v>805</v>
       </c>
@@ -13764,7 +14482,7 @@
       </c>
       <c r="E252" s="31"/>
     </row>
-    <row r="253" spans="1:5" hidden="1">
+    <row r="253" spans="1:5">
       <c r="A253" s="31" t="s">
         <v>805</v>
       </c>
@@ -13779,7 +14497,7 @@
       </c>
       <c r="E253" s="31"/>
     </row>
-    <row r="254" spans="1:5" hidden="1">
+    <row r="254" spans="1:5">
       <c r="A254" s="31" t="s">
         <v>805</v>
       </c>
@@ -13794,7 +14512,7 @@
       </c>
       <c r="E254" s="31"/>
     </row>
-    <row r="255" spans="1:5" hidden="1">
+    <row r="255" spans="1:5">
       <c r="A255" s="31" t="s">
         <v>805</v>
       </c>
@@ -13809,7 +14527,7 @@
       </c>
       <c r="E255" s="31"/>
     </row>
-    <row r="256" spans="1:5" hidden="1">
+    <row r="256" spans="1:5">
       <c r="A256" s="31" t="s">
         <v>805</v>
       </c>
@@ -13824,7 +14542,7 @@
       </c>
       <c r="E256" s="31"/>
     </row>
-    <row r="257" spans="1:5" hidden="1">
+    <row r="257" spans="1:5">
       <c r="A257" s="31" t="s">
         <v>805</v>
       </c>
@@ -13839,7 +14557,7 @@
       </c>
       <c r="E257" s="31"/>
     </row>
-    <row r="258" spans="1:5" hidden="1">
+    <row r="258" spans="1:5">
       <c r="A258" s="31" t="s">
         <v>805</v>
       </c>
@@ -13854,7 +14572,7 @@
       </c>
       <c r="E258" s="31"/>
     </row>
-    <row r="259" spans="1:5" hidden="1">
+    <row r="259" spans="1:5">
       <c r="A259" s="31" t="s">
         <v>805</v>
       </c>
@@ -13869,7 +14587,7 @@
       </c>
       <c r="E259" s="31"/>
     </row>
-    <row r="260" spans="1:5" hidden="1">
+    <row r="260" spans="1:5">
       <c r="A260" s="31" t="s">
         <v>805</v>
       </c>
@@ -13884,7 +14602,7 @@
       </c>
       <c r="E260" s="31"/>
     </row>
-    <row r="261" spans="1:5" hidden="1">
+    <row r="261" spans="1:5">
       <c r="A261" s="31" t="s">
         <v>805</v>
       </c>
@@ -13899,7 +14617,7 @@
       </c>
       <c r="E261" s="31"/>
     </row>
-    <row r="262" spans="1:5" hidden="1">
+    <row r="262" spans="1:5">
       <c r="A262" s="31" t="s">
         <v>805</v>
       </c>
@@ -13914,7 +14632,7 @@
       </c>
       <c r="E262" s="31"/>
     </row>
-    <row r="263" spans="1:5" hidden="1">
+    <row r="263" spans="1:5">
       <c r="A263" s="31" t="s">
         <v>805</v>
       </c>
@@ -13929,7 +14647,7 @@
       </c>
       <c r="E263" s="31"/>
     </row>
-    <row r="264" spans="1:5" hidden="1">
+    <row r="264" spans="1:5">
       <c r="A264" s="31" t="s">
         <v>805</v>
       </c>
@@ -13944,7 +14662,7 @@
       </c>
       <c r="E264" s="31"/>
     </row>
-    <row r="265" spans="1:5" hidden="1">
+    <row r="265" spans="1:5">
       <c r="A265" s="31" t="s">
         <v>805</v>
       </c>
@@ -13959,7 +14677,7 @@
       </c>
       <c r="E265" s="31"/>
     </row>
-    <row r="266" spans="1:5" hidden="1">
+    <row r="266" spans="1:5">
       <c r="A266" s="31" t="s">
         <v>805</v>
       </c>
@@ -13974,7 +14692,7 @@
       </c>
       <c r="E266" s="31"/>
     </row>
-    <row r="267" spans="1:5" hidden="1">
+    <row r="267" spans="1:5">
       <c r="A267" s="31" t="s">
         <v>805</v>
       </c>
@@ -13989,7 +14707,7 @@
       </c>
       <c r="E267" s="31"/>
     </row>
-    <row r="268" spans="1:5" hidden="1">
+    <row r="268" spans="1:5">
       <c r="A268" s="31" t="s">
         <v>805</v>
       </c>
@@ -14004,7 +14722,7 @@
       </c>
       <c r="E268" s="31"/>
     </row>
-    <row r="269" spans="1:5" hidden="1">
+    <row r="269" spans="1:5">
       <c r="A269" s="31" t="s">
         <v>805</v>
       </c>
@@ -14019,7 +14737,7 @@
       </c>
       <c r="E269" s="31"/>
     </row>
-    <row r="270" spans="1:5" hidden="1">
+    <row r="270" spans="1:5">
       <c r="A270" s="31" t="s">
         <v>805</v>
       </c>
@@ -14034,7 +14752,7 @@
       </c>
       <c r="E270" s="31"/>
     </row>
-    <row r="271" spans="1:5" hidden="1">
+    <row r="271" spans="1:5">
       <c r="A271" s="31" t="s">
         <v>805</v>
       </c>
@@ -14049,7 +14767,7 @@
       </c>
       <c r="E271" s="31"/>
     </row>
-    <row r="272" spans="1:5" hidden="1">
+    <row r="272" spans="1:5">
       <c r="A272" s="31" t="s">
         <v>805</v>
       </c>
@@ -14064,7 +14782,7 @@
       </c>
       <c r="E272" s="31"/>
     </row>
-    <row r="273" spans="1:5" hidden="1">
+    <row r="273" spans="1:5">
       <c r="A273" s="31" t="s">
         <v>805</v>
       </c>
@@ -14079,7 +14797,7 @@
       </c>
       <c r="E273" s="31"/>
     </row>
-    <row r="274" spans="1:5" hidden="1">
+    <row r="274" spans="1:5">
       <c r="A274" s="31" t="s">
         <v>805</v>
       </c>
@@ -14094,7 +14812,7 @@
       </c>
       <c r="E274" s="31"/>
     </row>
-    <row r="275" spans="1:5" hidden="1">
+    <row r="275" spans="1:5">
       <c r="A275" s="31" t="s">
         <v>805</v>
       </c>
@@ -14109,7 +14827,7 @@
       </c>
       <c r="E275" s="31"/>
     </row>
-    <row r="276" spans="1:5" hidden="1">
+    <row r="276" spans="1:5">
       <c r="A276" s="31" t="s">
         <v>805</v>
       </c>
@@ -14124,7 +14842,7 @@
       </c>
       <c r="E276" s="31"/>
     </row>
-    <row r="277" spans="1:5" hidden="1">
+    <row r="277" spans="1:5">
       <c r="A277" s="31" t="s">
         <v>805</v>
       </c>
@@ -14139,7 +14857,7 @@
       </c>
       <c r="E277" s="31"/>
     </row>
-    <row r="278" spans="1:5" hidden="1">
+    <row r="278" spans="1:5">
       <c r="A278" s="31" t="s">
         <v>805</v>
       </c>
@@ -14154,7 +14872,7 @@
       </c>
       <c r="E278" s="31"/>
     </row>
-    <row r="279" spans="1:5" hidden="1">
+    <row r="279" spans="1:5">
       <c r="A279" s="31" t="s">
         <v>805</v>
       </c>
@@ -14169,7 +14887,7 @@
       </c>
       <c r="E279" s="31"/>
     </row>
-    <row r="280" spans="1:5" hidden="1">
+    <row r="280" spans="1:5">
       <c r="A280" s="31" t="s">
         <v>805</v>
       </c>
@@ -14184,7 +14902,7 @@
       </c>
       <c r="E280" s="31"/>
     </row>
-    <row r="281" spans="1:5" hidden="1">
+    <row r="281" spans="1:5">
       <c r="A281" s="31" t="s">
         <v>805</v>
       </c>
@@ -14199,7 +14917,7 @@
       </c>
       <c r="E281" s="31"/>
     </row>
-    <row r="282" spans="1:5" hidden="1">
+    <row r="282" spans="1:5">
       <c r="A282" s="31" t="s">
         <v>805</v>
       </c>
@@ -14214,7 +14932,7 @@
       </c>
       <c r="E282" s="31"/>
     </row>
-    <row r="283" spans="1:5" hidden="1">
+    <row r="283" spans="1:5">
       <c r="A283" s="31" t="s">
         <v>805</v>
       </c>
@@ -14229,7 +14947,7 @@
       </c>
       <c r="E283" s="31"/>
     </row>
-    <row r="284" spans="1:5" hidden="1">
+    <row r="284" spans="1:5">
       <c r="A284" s="31" t="s">
         <v>805</v>
       </c>
@@ -14244,7 +14962,7 @@
       </c>
       <c r="E284" s="31"/>
     </row>
-    <row r="285" spans="1:5" hidden="1">
+    <row r="285" spans="1:5">
       <c r="A285" s="31" t="s">
         <v>805</v>
       </c>
@@ -14259,7 +14977,7 @@
       </c>
       <c r="E285" s="31"/>
     </row>
-    <row r="286" spans="1:5" hidden="1">
+    <row r="286" spans="1:5">
       <c r="A286" s="31" t="s">
         <v>805</v>
       </c>
@@ -14274,7 +14992,7 @@
       </c>
       <c r="E286" s="31"/>
     </row>
-    <row r="287" spans="1:5" hidden="1">
+    <row r="287" spans="1:5">
       <c r="A287" s="31" t="s">
         <v>805</v>
       </c>
@@ -14289,7 +15007,7 @@
       </c>
       <c r="E287" s="31"/>
     </row>
-    <row r="288" spans="1:5" hidden="1">
+    <row r="288" spans="1:5">
       <c r="A288" s="31" t="s">
         <v>805</v>
       </c>
@@ -14304,7 +15022,7 @@
       </c>
       <c r="E288" s="31"/>
     </row>
-    <row r="289" spans="1:5" hidden="1">
+    <row r="289" spans="1:5">
       <c r="A289" s="31" t="s">
         <v>805</v>
       </c>
@@ -14319,7 +15037,7 @@
       </c>
       <c r="E289" s="31"/>
     </row>
-    <row r="290" spans="1:5" hidden="1">
+    <row r="290" spans="1:5">
       <c r="A290" s="31" t="s">
         <v>805</v>
       </c>
@@ -14334,7 +15052,7 @@
       </c>
       <c r="E290" s="31"/>
     </row>
-    <row r="291" spans="1:5" hidden="1">
+    <row r="291" spans="1:5">
       <c r="A291" s="31" t="s">
         <v>805</v>
       </c>
@@ -14349,7 +15067,7 @@
       </c>
       <c r="E291" s="31"/>
     </row>
-    <row r="292" spans="1:5" hidden="1">
+    <row r="292" spans="1:5">
       <c r="A292" s="31" t="s">
         <v>805</v>
       </c>
@@ -14364,7 +15082,7 @@
       </c>
       <c r="E292" s="31"/>
     </row>
-    <row r="293" spans="1:5" hidden="1">
+    <row r="293" spans="1:5">
       <c r="A293" s="31" t="s">
         <v>805</v>
       </c>
@@ -14379,7 +15097,7 @@
       </c>
       <c r="E293" s="31"/>
     </row>
-    <row r="294" spans="1:5" hidden="1">
+    <row r="294" spans="1:5">
       <c r="A294" s="31" t="s">
         <v>805</v>
       </c>
@@ -14394,7 +15112,7 @@
       </c>
       <c r="E294" s="31"/>
     </row>
-    <row r="295" spans="1:5" hidden="1">
+    <row r="295" spans="1:5">
       <c r="A295" s="31" t="s">
         <v>805</v>
       </c>
@@ -14409,7 +15127,7 @@
       </c>
       <c r="E295" s="31"/>
     </row>
-    <row r="296" spans="1:5" hidden="1">
+    <row r="296" spans="1:5">
       <c r="A296" s="31" t="s">
         <v>805</v>
       </c>
@@ -14424,7 +15142,7 @@
       </c>
       <c r="E296" s="31"/>
     </row>
-    <row r="297" spans="1:5" hidden="1">
+    <row r="297" spans="1:5">
       <c r="A297" s="31" t="s">
         <v>805</v>
       </c>
@@ -14439,7 +15157,7 @@
       </c>
       <c r="E297" s="31"/>
     </row>
-    <row r="298" spans="1:5" hidden="1">
+    <row r="298" spans="1:5">
       <c r="A298" s="31" t="s">
         <v>805</v>
       </c>
@@ -14454,7 +15172,7 @@
       </c>
       <c r="E298" s="31"/>
     </row>
-    <row r="299" spans="1:5" hidden="1">
+    <row r="299" spans="1:5">
       <c r="A299" s="31" t="s">
         <v>805</v>
       </c>
@@ -14469,7 +15187,7 @@
       </c>
       <c r="E299" s="31"/>
     </row>
-    <row r="300" spans="1:5" hidden="1">
+    <row r="300" spans="1:5">
       <c r="A300" s="31" t="s">
         <v>805</v>
       </c>
@@ -14484,7 +15202,7 @@
       </c>
       <c r="E300" s="31"/>
     </row>
-    <row r="301" spans="1:5" hidden="1">
+    <row r="301" spans="1:5">
       <c r="A301" s="31" t="s">
         <v>805</v>
       </c>
@@ -14499,7 +15217,7 @@
       </c>
       <c r="E301" s="31"/>
     </row>
-    <row r="302" spans="1:5" hidden="1">
+    <row r="302" spans="1:5">
       <c r="A302" s="31" t="s">
         <v>805</v>
       </c>
@@ -14514,7 +15232,7 @@
       </c>
       <c r="E302" s="31"/>
     </row>
-    <row r="303" spans="1:5" hidden="1">
+    <row r="303" spans="1:5">
       <c r="A303" s="31" t="s">
         <v>805</v>
       </c>
@@ -14529,7 +15247,7 @@
       </c>
       <c r="E303" s="31"/>
     </row>
-    <row r="304" spans="1:5" hidden="1">
+    <row r="304" spans="1:5">
       <c r="A304" s="31" t="s">
         <v>805</v>
       </c>
@@ -14544,7 +15262,7 @@
       </c>
       <c r="E304" s="31"/>
     </row>
-    <row r="305" spans="1:5" hidden="1">
+    <row r="305" spans="1:5">
       <c r="A305" s="31" t="s">
         <v>805</v>
       </c>
@@ -14559,7 +15277,7 @@
       </c>
       <c r="E305" s="31"/>
     </row>
-    <row r="306" spans="1:5" hidden="1">
+    <row r="306" spans="1:5">
       <c r="A306" s="31" t="s">
         <v>805</v>
       </c>
@@ -14574,7 +15292,7 @@
       </c>
       <c r="E306" s="31"/>
     </row>
-    <row r="307" spans="1:5" hidden="1">
+    <row r="307" spans="1:5">
       <c r="A307" s="31" t="s">
         <v>805</v>
       </c>
@@ -14589,7 +15307,7 @@
       </c>
       <c r="E307" s="31"/>
     </row>
-    <row r="308" spans="1:5" hidden="1">
+    <row r="308" spans="1:5">
       <c r="A308" s="31" t="s">
         <v>805</v>
       </c>
@@ -14604,7 +15322,7 @@
       </c>
       <c r="E308" s="31"/>
     </row>
-    <row r="309" spans="1:5" hidden="1">
+    <row r="309" spans="1:5">
       <c r="A309" s="31" t="s">
         <v>805</v>
       </c>
@@ -14619,7 +15337,7 @@
       </c>
       <c r="E309" s="31"/>
     </row>
-    <row r="310" spans="1:5" hidden="1">
+    <row r="310" spans="1:5">
       <c r="A310" s="31" t="s">
         <v>805</v>
       </c>
@@ -14634,7 +15352,7 @@
       </c>
       <c r="E310" s="31"/>
     </row>
-    <row r="311" spans="1:5" hidden="1">
+    <row r="311" spans="1:5">
       <c r="A311" s="31" t="s">
         <v>805</v>
       </c>
@@ -14649,7 +15367,7 @@
       </c>
       <c r="E311" s="31"/>
     </row>
-    <row r="312" spans="1:5" hidden="1">
+    <row r="312" spans="1:5">
       <c r="A312" s="31" t="s">
         <v>805</v>
       </c>
@@ -14664,7 +15382,7 @@
       </c>
       <c r="E312" s="31"/>
     </row>
-    <row r="313" spans="1:5" hidden="1">
+    <row r="313" spans="1:5">
       <c r="A313" s="31" t="s">
         <v>805</v>
       </c>
@@ -14679,7 +15397,7 @@
       </c>
       <c r="E313" s="31"/>
     </row>
-    <row r="314" spans="1:5" hidden="1">
+    <row r="314" spans="1:5">
       <c r="A314" s="31" t="s">
         <v>805</v>
       </c>
@@ -14694,7 +15412,7 @@
       </c>
       <c r="E314" s="31"/>
     </row>
-    <row r="315" spans="1:5" hidden="1">
+    <row r="315" spans="1:5">
       <c r="A315" s="31" t="s">
         <v>805</v>
       </c>
@@ -14709,7 +15427,7 @@
       </c>
       <c r="E315" s="31"/>
     </row>
-    <row r="316" spans="1:5" hidden="1">
+    <row r="316" spans="1:5">
       <c r="A316" s="31" t="s">
         <v>805</v>
       </c>
@@ -14724,7 +15442,7 @@
       </c>
       <c r="E316" s="31"/>
     </row>
-    <row r="317" spans="1:5" hidden="1">
+    <row r="317" spans="1:5">
       <c r="A317" s="31" t="s">
         <v>805</v>
       </c>
@@ -14739,7 +15457,7 @@
       </c>
       <c r="E317" s="31"/>
     </row>
-    <row r="318" spans="1:5" hidden="1">
+    <row r="318" spans="1:5">
       <c r="A318" s="31" t="s">
         <v>805</v>
       </c>
@@ -14754,7 +15472,7 @@
       </c>
       <c r="E318" s="31"/>
     </row>
-    <row r="319" spans="1:5" hidden="1">
+    <row r="319" spans="1:5">
       <c r="A319" s="31" t="s">
         <v>805</v>
       </c>
@@ -14769,7 +15487,7 @@
       </c>
       <c r="E319" s="31"/>
     </row>
-    <row r="320" spans="1:5" hidden="1">
+    <row r="320" spans="1:5">
       <c r="A320" s="31" t="s">
         <v>805</v>
       </c>
@@ -14784,7 +15502,7 @@
       </c>
       <c r="E320" s="31"/>
     </row>
-    <row r="321" spans="1:5" hidden="1">
+    <row r="321" spans="1:5">
       <c r="A321" s="31" t="s">
         <v>805</v>
       </c>
@@ -14799,7 +15517,7 @@
       </c>
       <c r="E321" s="31"/>
     </row>
-    <row r="322" spans="1:5" hidden="1">
+    <row r="322" spans="1:5">
       <c r="A322" s="31" t="s">
         <v>805</v>
       </c>
@@ -14814,7 +15532,7 @@
       </c>
       <c r="E322" s="31"/>
     </row>
-    <row r="323" spans="1:5" hidden="1">
+    <row r="323" spans="1:5">
       <c r="A323" s="31" t="s">
         <v>805</v>
       </c>
@@ -14829,7 +15547,7 @@
       </c>
       <c r="E323" s="31"/>
     </row>
-    <row r="324" spans="1:5" hidden="1">
+    <row r="324" spans="1:5">
       <c r="A324" s="31" t="s">
         <v>805</v>
       </c>
@@ -14844,7 +15562,7 @@
       </c>
       <c r="E324" s="31"/>
     </row>
-    <row r="325" spans="1:5" hidden="1">
+    <row r="325" spans="1:5">
       <c r="A325" s="31" t="s">
         <v>805</v>
       </c>
@@ -14859,7 +15577,7 @@
       </c>
       <c r="E325" s="31"/>
     </row>
-    <row r="326" spans="1:5" hidden="1">
+    <row r="326" spans="1:5">
       <c r="A326" s="31" t="s">
         <v>805</v>
       </c>
@@ -14874,7 +15592,7 @@
       </c>
       <c r="E326" s="31"/>
     </row>
-    <row r="327" spans="1:5" hidden="1">
+    <row r="327" spans="1:5">
       <c r="A327" s="31" t="s">
         <v>805</v>
       </c>
@@ -14889,7 +15607,7 @@
       </c>
       <c r="E327" s="31"/>
     </row>
-    <row r="328" spans="1:5" hidden="1">
+    <row r="328" spans="1:5">
       <c r="A328" s="31" t="s">
         <v>805</v>
       </c>
@@ -14904,7 +15622,7 @@
       </c>
       <c r="E328" s="31"/>
     </row>
-    <row r="329" spans="1:5" hidden="1">
+    <row r="329" spans="1:5">
       <c r="A329" s="31" t="s">
         <v>805</v>
       </c>
@@ -14919,7 +15637,7 @@
       </c>
       <c r="E329" s="31"/>
     </row>
-    <row r="330" spans="1:5" hidden="1">
+    <row r="330" spans="1:5">
       <c r="A330" s="31" t="s">
         <v>805</v>
       </c>
@@ -14934,7 +15652,7 @@
       </c>
       <c r="E330" s="31"/>
     </row>
-    <row r="331" spans="1:5" hidden="1">
+    <row r="331" spans="1:5">
       <c r="A331" s="31" t="s">
         <v>805</v>
       </c>
@@ -14949,7 +15667,7 @@
       </c>
       <c r="E331" s="31"/>
     </row>
-    <row r="332" spans="1:5" hidden="1">
+    <row r="332" spans="1:5">
       <c r="A332" s="31" t="s">
         <v>805</v>
       </c>
@@ -14964,7 +15682,7 @@
       </c>
       <c r="E332" s="31"/>
     </row>
-    <row r="333" spans="1:5" hidden="1">
+    <row r="333" spans="1:5">
       <c r="A333" s="31" t="s">
         <v>805</v>
       </c>
@@ -14979,7 +15697,7 @@
       </c>
       <c r="E333" s="31"/>
     </row>
-    <row r="334" spans="1:5" hidden="1">
+    <row r="334" spans="1:5">
       <c r="A334" s="31" t="s">
         <v>805</v>
       </c>
@@ -14994,7 +15712,7 @@
       </c>
       <c r="E334" s="31"/>
     </row>
-    <row r="335" spans="1:5" hidden="1">
+    <row r="335" spans="1:5">
       <c r="A335" s="31" t="s">
         <v>805</v>
       </c>
@@ -15009,7 +15727,7 @@
       </c>
       <c r="E335" s="31"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336" s="31" t="s">
         <v>804</v>
       </c>
@@ -15024,7 +15742,7 @@
       </c>
       <c r="E336" s="31"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" s="31" t="s">
         <v>804</v>
       </c>
@@ -15039,7 +15757,7 @@
       </c>
       <c r="E337" s="31"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" s="31" t="s">
         <v>804</v>
       </c>
@@ -15054,7 +15772,7 @@
       </c>
       <c r="E338" s="31"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" s="31" t="s">
         <v>804</v>
       </c>
@@ -15069,7 +15787,7 @@
       </c>
       <c r="E339" s="31"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" s="31" t="s">
         <v>804</v>
       </c>
@@ -15084,7 +15802,7 @@
       </c>
       <c r="E340" s="31"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" s="31" t="s">
         <v>804</v>
       </c>
@@ -15099,7 +15817,7 @@
       </c>
       <c r="E341" s="31"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" s="31" t="s">
         <v>804</v>
       </c>
@@ -15114,7 +15832,7 @@
       </c>
       <c r="E342" s="31"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" s="31" t="s">
         <v>804</v>
       </c>
@@ -15129,7 +15847,7 @@
       </c>
       <c r="E343" s="31"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" s="31" t="s">
         <v>804</v>
       </c>
@@ -15144,7 +15862,7 @@
       </c>
       <c r="E344" s="31"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" s="31" t="s">
         <v>804</v>
       </c>
@@ -15159,7 +15877,7 @@
       </c>
       <c r="E345" s="31"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" s="31" t="s">
         <v>804</v>
       </c>
@@ -15174,7 +15892,7 @@
       </c>
       <c r="E346" s="31"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347" s="31" t="s">
         <v>804</v>
       </c>
@@ -15189,7 +15907,7 @@
       </c>
       <c r="E347" s="31"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" s="31" t="s">
         <v>804</v>
       </c>
@@ -15204,7 +15922,7 @@
       </c>
       <c r="E348" s="31"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" s="31" t="s">
         <v>804</v>
       </c>
@@ -15219,7 +15937,7 @@
       </c>
       <c r="E349" s="31"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" s="31" t="s">
         <v>804</v>
       </c>
@@ -15234,7 +15952,7 @@
       </c>
       <c r="E350" s="31"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" s="31" t="s">
         <v>804</v>
       </c>
@@ -15249,7 +15967,7 @@
       </c>
       <c r="E351" s="31"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" s="31" t="s">
         <v>804</v>
       </c>
@@ -15264,7 +15982,7 @@
       </c>
       <c r="E352" s="31"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" s="31" t="s">
         <v>804</v>
       </c>
@@ -15279,7 +15997,7 @@
       </c>
       <c r="E353" s="31"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" s="31" t="s">
         <v>804</v>
       </c>
@@ -15294,7 +16012,7 @@
       </c>
       <c r="E354" s="31"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" s="31" t="s">
         <v>804</v>
       </c>
@@ -15309,7 +16027,7 @@
       </c>
       <c r="E355" s="31"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" s="31" t="s">
         <v>804</v>
       </c>
@@ -15324,7 +16042,7 @@
       </c>
       <c r="E356" s="31"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" s="31" t="s">
         <v>804</v>
       </c>
@@ -15339,7 +16057,7 @@
       </c>
       <c r="E357" s="31"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" s="31" t="s">
         <v>804</v>
       </c>
@@ -15354,7 +16072,7 @@
       </c>
       <c r="E358" s="31"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359" s="31" t="s">
         <v>804</v>
       </c>
@@ -15369,7 +16087,7 @@
       </c>
       <c r="E359" s="31"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" s="31" t="s">
         <v>804</v>
       </c>
@@ -15384,7 +16102,7 @@
       </c>
       <c r="E360" s="31"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" s="31" t="s">
         <v>804</v>
       </c>
@@ -15399,7 +16117,7 @@
       </c>
       <c r="E361" s="31"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" s="31" t="s">
         <v>804</v>
       </c>
@@ -15414,7 +16132,7 @@
       </c>
       <c r="E362" s="31"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" s="31" t="s">
         <v>804</v>
       </c>
@@ -15429,7 +16147,7 @@
       </c>
       <c r="E363" s="31"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" s="31" t="s">
         <v>804</v>
       </c>
@@ -15444,7 +16162,7 @@
       </c>
       <c r="E364" s="31"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" s="31" t="s">
         <v>804</v>
       </c>
@@ -15459,7 +16177,7 @@
       </c>
       <c r="E365" s="31"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" s="31" t="s">
         <v>804</v>
       </c>
@@ -15474,7 +16192,7 @@
       </c>
       <c r="E366" s="31"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" s="31" t="s">
         <v>804</v>
       </c>
@@ -15489,7 +16207,7 @@
       </c>
       <c r="E367" s="31"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" s="31" t="s">
         <v>804</v>
       </c>
@@ -15504,7 +16222,7 @@
       </c>
       <c r="E368" s="31"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" s="31" t="s">
         <v>804</v>
       </c>
@@ -15519,7 +16237,7 @@
       </c>
       <c r="E369" s="31"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" s="31" t="s">
         <v>804</v>
       </c>
@@ -15534,7 +16252,7 @@
       </c>
       <c r="E370" s="31"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" s="31" t="s">
         <v>804</v>
       </c>
@@ -15549,7 +16267,7 @@
       </c>
       <c r="E371" s="31"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" s="31" t="s">
         <v>804</v>
       </c>
@@ -15564,7 +16282,7 @@
       </c>
       <c r="E372" s="31"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" s="31" t="s">
         <v>804</v>
       </c>
@@ -15579,7 +16297,7 @@
       </c>
       <c r="E373" s="31"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" s="31" t="s">
         <v>804</v>
       </c>
@@ -18688,7 +19406,7 @@
   <autoFilter ref="A1:D580">
     <filterColumn colId="0">
       <filters>
-        <filter val="LinkedIn(39)"/>
+        <filter val="Google(90)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/interivew/practice/tracker.xlsx
+++ b/interivew/practice/tracker.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="4870" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="4870" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="12" r:id="rId1"/>
     <sheet name="groups" sheetId="13" r:id="rId2"/>
     <sheet name="all" sheetId="18" r:id="rId3"/>
     <sheet name="linkedin" sheetId="25" r:id="rId4"/>
-    <sheet name="leetcode" sheetId="23" r:id="rId5"/>
-    <sheet name="design" sheetId="17" r:id="rId6"/>
-    <sheet name="Company Tag" sheetId="22" r:id="rId7"/>
+    <sheet name="google" sheetId="27" r:id="rId5"/>
+    <sheet name="leetcode" sheetId="23" r:id="rId6"/>
+    <sheet name="design" sheetId="17" r:id="rId7"/>
+    <sheet name="Company Tag" sheetId="22" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Company Tag'!$A$1:$D$580</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">leetcode!$A$1:$E$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">linkedin!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Company Tag'!$A$1:$D$580</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">google!$A$1:$D$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">leetcode!$A$1:$E$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">linkedin!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1165">
   <si>
     <t>LIS</t>
   </si>
@@ -3282,6 +3284,258 @@
   </si>
   <si>
     <t>FactorCombinations</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Substring with At Most K Distinct Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Sum Query 2D - Mutable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Squares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zigzag Iterator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Longest Consecutive Sequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving Average from Data Stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Ranges </t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest Distance from All Buildings </t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encode and Decode Strings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Word Abbreviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Islands II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiggle Sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Sum Smaller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Account Balancing </t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walls and Gates </t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generalized Abbreviation </t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Unique Word Abbreviation </t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger Rate Limiter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flip Game II </t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Rooms II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Hit Counter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flip Game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closest Binary Search Tree Value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Shifted Strings </t>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus One Linked List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange String k Distance Apart </t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome Permutation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Tic-Tac-Toe </t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten 2D Vector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Word Square </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closest Binary Search Tree Value II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Word Abbreviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Snake Game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Rectangle Enclosing Black Pixels </t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Consecutive Ones II </t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Addition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Vertical Order Traversal </t>
+  </si>
+  <si>
+    <t>Number of Boomerangs</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Permutation </t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Phone Directory </t>
+  </si>
+  <si>
+    <t>FindElementInSortedRotatedArray</t>
+  </si>
+  <si>
+    <t>NotNow</t>
+  </si>
+  <si>
+    <t>BinaryTreeLongestConsecutiveSequence</t>
+  </si>
+  <si>
+    <t>LicenceKeyFormatting</t>
+  </si>
+  <si>
+    <t>MissingRanges</t>
+  </si>
+  <si>
+    <t>DecodeString</t>
+  </si>
+  <si>
+    <t>EncodeAndDecodeStrings</t>
+  </si>
+  <si>
+    <t>UniqueWordAbbreviation</t>
+  </si>
+  <si>
+    <t>NumberOfIslands2</t>
+  </si>
+  <si>
+    <t>WiggleSort</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>Find3SumSmaller</t>
   </si>
 </sst>
 </file>
@@ -3444,7 +3698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3493,6 +3747,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4655,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N15" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5581,6 +5838,9 @@
       <c r="O19" s="15" t="s">
         <v>555</v>
       </c>
+      <c r="P19" s="1" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
@@ -5622,6 +5882,9 @@
       <c r="O20" s="15" t="s">
         <v>556</v>
       </c>
+      <c r="P20" s="1" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
@@ -5660,6 +5923,9 @@
       <c r="O21" s="26" t="s">
         <v>2</v>
       </c>
+      <c r="P21" s="1" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
@@ -5698,6 +5964,9 @@
       <c r="O22" s="15" t="s">
         <v>560</v>
       </c>
+      <c r="P22" s="1" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
@@ -5736,6 +6005,9 @@
       <c r="O23" s="1" t="s">
         <v>566</v>
       </c>
+      <c r="P23" s="1" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
@@ -5774,6 +6046,9 @@
       <c r="O24" s="1" t="s">
         <v>569</v>
       </c>
+      <c r="P24" s="1" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
@@ -5809,6 +6084,9 @@
       <c r="O25" s="15" t="s">
         <v>570</v>
       </c>
+      <c r="P25" s="1" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
@@ -5845,6 +6123,9 @@
       </c>
       <c r="O26" s="1" t="s">
         <v>572</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -5880,6 +6161,9 @@
       <c r="O27" s="15" t="s">
         <v>592</v>
       </c>
+      <c r="P27" s="1" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
@@ -5914,6 +6198,9 @@
       <c r="O28" s="8" t="s">
         <v>593</v>
       </c>
+      <c r="P28" s="1" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
@@ -5947,6 +6234,9 @@
       </c>
       <c r="O29" s="1" t="s">
         <v>1034</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -8092,10 +8382,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8104,31 +8394,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="31">
-        <v>339</v>
+      <c r="A1" s="31" t="s">
+        <v>1014</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1059</v>
+        <v>791</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="D1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>1070</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D2" t="s">
         <v>664</v>
@@ -8139,10 +8423,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="31">
-        <v>364</v>
+        <v>244</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>609</v>
@@ -8156,10 +8440,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="31">
-        <v>156</v>
+        <v>364</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>609</v>
@@ -8173,13 +8457,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="31">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
         <v>664</v>
@@ -8190,13 +8474,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="31">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>661</v>
+        <v>1063</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D6" t="s">
         <v>664</v>
@@ -8207,41 +8491,41 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="31">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>1064</v>
+        <v>661</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D7" t="s">
         <v>664</v>
       </c>
+      <c r="E7" s="31" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="31">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D8" t="s">
         <v>664</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>1070</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="31">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>609</v>
@@ -8255,27 +8539,30 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="31">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>844</v>
+        <v>1066</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D10" t="s">
         <v>664</v>
       </c>
+      <c r="E10" s="31" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="31">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>767</v>
+        <v>844</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D11" t="s">
         <v>664</v>
@@ -8283,13 +8570,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="31">
-        <v>297</v>
+        <v>50</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>853</v>
+        <v>767</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="D12" t="s">
         <v>664</v>
@@ -8297,13 +8584,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="31">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>620</v>
+        <v>853</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D13" t="s">
         <v>664</v>
@@ -8311,10 +8598,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="31">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>1067</v>
+        <v>620</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>609</v>
@@ -8322,41 +8609,44 @@
       <c r="D14" t="s">
         <v>664</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>1070</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="31">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>609</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
+        <v>664</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="31">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>833</v>
+        <v>1068</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>636</v>
+        <v>609</v>
+      </c>
+      <c r="D16" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="31">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>636</v>
@@ -8364,97 +8654,94 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="31">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>1069</v>
+        <v>831</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>609</v>
-      </c>
-      <c r="D18" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="31">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>778</v>
+        <v>1069</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="D19" t="s">
         <v>664</v>
       </c>
-      <c r="E19" t="s">
-        <v>1070</v>
-      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="31">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>843</v>
+        <v>778</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D20" t="s">
         <v>664</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="31">
-        <v>464</v>
+        <v>187</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>608</v>
+        <v>843</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>609</v>
+      </c>
+      <c r="D21" t="s">
+        <v>664</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="31">
-        <v>149</v>
+        <v>464</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>781</v>
+        <v>608</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="31">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="D23" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="31">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D24" t="s">
         <v>664</v>
@@ -8462,10 +8749,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="31">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>65</v>
+        <v>829</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>609</v>
@@ -8476,13 +8763,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="31">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>825</v>
+        <v>65</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D26" t="s">
         <v>664</v>
@@ -8490,13 +8777,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="31">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="D27" t="s">
         <v>664</v>
@@ -8504,13 +8791,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="31">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D28" t="s">
         <v>664</v>
@@ -8518,10 +8805,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="31">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>609</v>
@@ -8532,10 +8819,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="31">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>609</v>
@@ -8546,43 +8833,46 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="31">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>515</v>
+        <v>846</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>603</v>
+        <v>609</v>
+      </c>
+      <c r="D31" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="31">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>834</v>
+        <v>515</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="31">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="31">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>605</v>
+        <v>837</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>603</v>
@@ -8590,21 +8880,21 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="31">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>838</v>
+        <v>605</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="31">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>609</v>
@@ -8612,65 +8902,65 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="31">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="31">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="31">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="31">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="31">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="31">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>609</v>
@@ -8678,27 +8968,1890 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="31">
+        <v>47</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="31">
         <v>367</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B44" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C44" s="31" t="s">
         <v>609</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E43"/>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="32"/>
+    <col min="2" max="2" width="51.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1" s="32">
+        <v>29</v>
+      </c>
+      <c r="G1" s="32">
+        <v>83</v>
+      </c>
+      <c r="H1" s="32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="32">
+        <v>388</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="32">
+        <v>482</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="32">
+        <v>340</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="32">
+        <v>308</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32">
+        <v>418</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="32">
+        <v>425</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="32">
+        <v>361</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="32">
+        <v>281</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="32">
+        <v>298</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="32">
+        <v>346</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="32">
+        <v>163</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="32">
+        <v>394</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="32">
+        <v>66</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32">
+        <v>317</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32">
+        <v>393</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="32">
+        <v>271</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="32">
+        <v>288</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="32">
+        <v>305</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="32">
+        <v>280</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="32">
+        <v>259</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="32">
+        <v>200</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="32">
+        <v>289</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="32">
+        <v>246</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="32">
+        <v>351</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="32">
+        <v>465</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="32">
+        <v>218</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>874</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="32">
+        <v>279</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="32">
+        <v>471</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="32">
+        <v>391</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="32">
+        <v>286</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="32">
+        <v>406</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="32">
+        <v>56</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="32">
+        <v>320</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="32">
+        <v>345</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="32">
+        <v>417</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="32">
+        <v>297</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="32">
+        <v>247</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="32">
+        <v>407</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="32">
+        <v>399</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="32">
+        <v>159</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="32">
+        <v>284</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="32">
+        <v>411</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="32">
+        <v>380</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="32">
+        <v>228</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>875</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="32">
+        <v>295</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="32">
+        <v>329</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>915</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="32">
+        <v>146</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="32">
+        <v>359</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="32">
+        <v>294</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="32">
+        <v>341</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>921</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="32">
+        <v>315</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>907</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="32">
+        <v>401</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="32">
+        <v>389</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="32">
+        <v>360</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="32">
+        <v>276</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="32">
+        <v>400</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="32">
+        <v>253</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="32">
+        <v>42</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>861</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="32">
+        <v>362</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="32">
+        <v>293</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="32">
+        <v>212</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>872</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="32">
+        <v>274</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="32">
+        <v>239</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="32">
+        <v>318</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>910</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="32">
+        <v>269</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="32">
+        <v>270</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="32">
+        <v>128</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="32">
+        <v>249</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="32">
+        <v>230</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>876</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="32">
+        <v>463</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="32">
+        <v>20</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>858</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="32">
+        <v>369</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="32">
+        <v>415</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="32">
+        <v>358</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="32">
+        <v>162</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="32">
+        <v>139</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="32">
+        <v>373</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="32">
+        <v>409</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="32">
+        <v>158</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="32">
+        <v>460</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="32">
+        <v>421</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="32">
+        <v>327</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="32">
+        <v>10</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="32">
+        <v>332</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="32">
+        <v>4</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="32">
+        <v>155</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>865</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="32">
+        <v>240</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="32">
+        <v>324</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>913</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="32">
+        <v>266</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="32">
+        <v>348</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="32">
+        <v>23</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>827</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="32">
+        <v>166</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="32">
+        <v>336</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>919</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="32">
+        <v>133</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>864</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="32">
+        <v>173</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="32">
+        <v>54</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="32">
+        <v>22</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="32">
+        <v>231</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>754</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="32">
+        <v>57</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="32">
+        <v>382</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="32">
+        <v>140</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="32">
+        <v>402</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="32">
+        <v>224</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="32">
+        <v>31</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="32">
+        <v>251</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="32">
+        <v>422</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="32">
+        <v>17</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="32">
+        <v>50</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>767</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="32">
+        <v>272</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="32">
+        <v>309</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="32">
+        <v>44</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="32">
+        <v>375</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="32">
+        <v>408</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="32">
+        <v>353</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="32">
+        <v>302</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="32">
+        <v>397</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="32">
+        <v>354</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="32">
+        <v>282</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="32">
+        <v>368</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="32">
+        <v>451</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="32">
+        <v>363</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="32">
+        <v>208</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>871</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="32">
+        <v>214</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>873</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="32">
+        <v>261</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="32">
+        <v>313</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="32">
+        <v>378</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="32">
+        <v>321</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="32">
+        <v>331</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="32">
+        <v>374</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="32">
+        <v>326</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="32">
+        <v>257</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>884</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="32">
+        <v>316</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>908</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="32">
+        <v>487</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="32">
+        <v>323</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="32">
+        <v>494</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="32">
+        <v>330</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="32">
+        <v>312</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="32">
+        <v>356</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="32">
+        <v>357</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="32">
+        <v>370</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="32">
+        <v>314</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="32">
+        <v>377</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="32">
+        <v>310</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>905</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="32">
+        <v>444</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="32">
+        <v>447</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="32">
+        <v>448</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="32">
+        <v>459</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="32">
+        <v>469</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="32">
+        <v>474</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="32">
+        <v>475</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="32">
+        <v>480</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="32">
+        <v>481</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="32">
+        <v>483</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="32">
+        <v>484</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="32">
+        <v>485</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="32">
+        <v>486</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="32">
+        <v>379</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D158"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8723,7 +10876,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8737,7 +10890,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8751,7 +10904,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8765,7 +10918,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8779,7 +10932,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8793,7 +10946,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8807,7 +10960,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8821,7 +10974,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8835,7 +10988,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8849,7 +11002,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" s="1" t="s">
         <v>1053</v>
       </c>
@@ -9759,7 +11912,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9773,7 +11926,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9787,7 +11940,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9801,7 +11954,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9815,7 +11968,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9829,7 +11982,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9843,7 +11996,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9857,7 +12010,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9871,7 +12024,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9885,7 +12038,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9899,7 +12052,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9913,7 +12066,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9927,7 +12080,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9941,7 +12094,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9955,7 +12108,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9969,7 +12122,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9983,7 +12136,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9997,7 +12150,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10011,7 +12164,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10025,7 +12178,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10039,7 +12192,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10053,7 +12206,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10067,7 +12220,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10081,7 +12234,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10095,7 +12248,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10109,7 +12262,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10123,7 +12276,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10137,7 +12290,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10151,7 +12304,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10165,7 +12318,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10179,7 +12332,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10193,7 +12346,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10207,7 +12360,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10221,7 +12374,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10235,7 +12388,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10252,7 +12405,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10263,7 +12416,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10277,7 +12430,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10288,7 +12441,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10302,7 +12455,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10316,7 +12469,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10333,7 +12486,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10347,7 +12500,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10361,7 +12514,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10375,7 +12528,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10389,7 +12542,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10403,7 +12556,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10417,7 +12570,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10434,7 +12587,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10448,7 +12601,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10462,7 +12615,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10476,7 +12629,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10490,7 +12643,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10504,7 +12657,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10518,7 +12671,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10532,7 +12685,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10546,7 +12699,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10558,13 +12711,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E132"/>
+  <autoFilter ref="A1:E132">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="dp"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -10685,13 +12844,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14377,7 +16536,7 @@
       </c>
       <c r="E245" s="31"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" s="31" t="s">
         <v>805</v>
       </c>
@@ -14392,7 +16551,7 @@
       </c>
       <c r="E246" s="31"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" s="31" t="s">
         <v>805</v>
       </c>
@@ -14407,7 +16566,7 @@
       </c>
       <c r="E247" s="31"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" s="31" t="s">
         <v>805</v>
       </c>
@@ -14422,7 +16581,7 @@
       </c>
       <c r="E248" s="31"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" s="31" t="s">
         <v>805</v>
       </c>
@@ -14437,7 +16596,7 @@
       </c>
       <c r="E249" s="31"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" s="31" t="s">
         <v>805</v>
       </c>
@@ -14452,7 +16611,7 @@
       </c>
       <c r="E250" s="31"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" s="31" t="s">
         <v>805</v>
       </c>
@@ -14467,7 +16626,7 @@
       </c>
       <c r="E251" s="31"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" s="31" t="s">
         <v>805</v>
       </c>
@@ -14482,7 +16641,7 @@
       </c>
       <c r="E252" s="31"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" s="31" t="s">
         <v>805</v>
       </c>
@@ -14497,7 +16656,7 @@
       </c>
       <c r="E253" s="31"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" s="31" t="s">
         <v>805</v>
       </c>
@@ -14512,7 +16671,7 @@
       </c>
       <c r="E254" s="31"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" s="31" t="s">
         <v>805</v>
       </c>
@@ -14527,7 +16686,7 @@
       </c>
       <c r="E255" s="31"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" s="31" t="s">
         <v>805</v>
       </c>
@@ -14542,7 +16701,7 @@
       </c>
       <c r="E256" s="31"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" s="31" t="s">
         <v>805</v>
       </c>
@@ -14557,7 +16716,7 @@
       </c>
       <c r="E257" s="31"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" hidden="1">
       <c r="A258" s="31" t="s">
         <v>805</v>
       </c>
@@ -14572,7 +16731,7 @@
       </c>
       <c r="E258" s="31"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" s="31" t="s">
         <v>805</v>
       </c>
@@ -14587,7 +16746,7 @@
       </c>
       <c r="E259" s="31"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" s="31" t="s">
         <v>805</v>
       </c>
@@ -14602,7 +16761,7 @@
       </c>
       <c r="E260" s="31"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" s="31" t="s">
         <v>805</v>
       </c>
@@ -14617,7 +16776,7 @@
       </c>
       <c r="E261" s="31"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" s="31" t="s">
         <v>805</v>
       </c>
@@ -14632,7 +16791,7 @@
       </c>
       <c r="E262" s="31"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263" s="31" t="s">
         <v>805</v>
       </c>
@@ -14647,7 +16806,7 @@
       </c>
       <c r="E263" s="31"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264" s="31" t="s">
         <v>805</v>
       </c>
@@ -14662,7 +16821,7 @@
       </c>
       <c r="E264" s="31"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" s="31" t="s">
         <v>805</v>
       </c>
@@ -14677,7 +16836,7 @@
       </c>
       <c r="E265" s="31"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266" s="31" t="s">
         <v>805</v>
       </c>
@@ -14692,7 +16851,7 @@
       </c>
       <c r="E266" s="31"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" s="31" t="s">
         <v>805</v>
       </c>
@@ -14707,7 +16866,7 @@
       </c>
       <c r="E267" s="31"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268" s="31" t="s">
         <v>805</v>
       </c>
@@ -14722,7 +16881,7 @@
       </c>
       <c r="E268" s="31"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269" s="31" t="s">
         <v>805</v>
       </c>
@@ -14737,7 +16896,7 @@
       </c>
       <c r="E269" s="31"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270" s="31" t="s">
         <v>805</v>
       </c>
@@ -14752,7 +16911,7 @@
       </c>
       <c r="E270" s="31"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271" s="31" t="s">
         <v>805</v>
       </c>
@@ -14767,7 +16926,7 @@
       </c>
       <c r="E271" s="31"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" s="31" t="s">
         <v>805</v>
       </c>
@@ -14782,7 +16941,7 @@
       </c>
       <c r="E272" s="31"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" s="31" t="s">
         <v>805</v>
       </c>
@@ -14797,7 +16956,7 @@
       </c>
       <c r="E273" s="31"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" s="31" t="s">
         <v>805</v>
       </c>
@@ -14812,7 +16971,7 @@
       </c>
       <c r="E274" s="31"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" s="31" t="s">
         <v>805</v>
       </c>
@@ -14827,7 +16986,7 @@
       </c>
       <c r="E275" s="31"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" s="31" t="s">
         <v>805</v>
       </c>
@@ -14842,7 +17001,7 @@
       </c>
       <c r="E276" s="31"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" s="31" t="s">
         <v>805</v>
       </c>
@@ -14857,7 +17016,7 @@
       </c>
       <c r="E277" s="31"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" s="31" t="s">
         <v>805</v>
       </c>
@@ -14872,7 +17031,7 @@
       </c>
       <c r="E278" s="31"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" s="31" t="s">
         <v>805</v>
       </c>
@@ -14887,7 +17046,7 @@
       </c>
       <c r="E279" s="31"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" s="31" t="s">
         <v>805</v>
       </c>
@@ -14902,7 +17061,7 @@
       </c>
       <c r="E280" s="31"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" s="31" t="s">
         <v>805</v>
       </c>
@@ -14917,7 +17076,7 @@
       </c>
       <c r="E281" s="31"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" s="31" t="s">
         <v>805</v>
       </c>
@@ -14932,7 +17091,7 @@
       </c>
       <c r="E282" s="31"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" s="31" t="s">
         <v>805</v>
       </c>
@@ -14947,7 +17106,7 @@
       </c>
       <c r="E283" s="31"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" s="31" t="s">
         <v>805</v>
       </c>
@@ -14962,7 +17121,7 @@
       </c>
       <c r="E284" s="31"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" s="31" t="s">
         <v>805</v>
       </c>
@@ -14977,7 +17136,7 @@
       </c>
       <c r="E285" s="31"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" s="31" t="s">
         <v>805</v>
       </c>
@@ -14992,7 +17151,7 @@
       </c>
       <c r="E286" s="31"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" s="31" t="s">
         <v>805</v>
       </c>
@@ -15007,7 +17166,7 @@
       </c>
       <c r="E287" s="31"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" s="31" t="s">
         <v>805</v>
       </c>
@@ -15022,7 +17181,7 @@
       </c>
       <c r="E288" s="31"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" s="31" t="s">
         <v>805</v>
       </c>
@@ -15037,7 +17196,7 @@
       </c>
       <c r="E289" s="31"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" s="31" t="s">
         <v>805</v>
       </c>
@@ -15052,7 +17211,7 @@
       </c>
       <c r="E290" s="31"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" s="31" t="s">
         <v>805</v>
       </c>
@@ -15067,7 +17226,7 @@
       </c>
       <c r="E291" s="31"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" s="31" t="s">
         <v>805</v>
       </c>
@@ -15082,7 +17241,7 @@
       </c>
       <c r="E292" s="31"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" s="31" t="s">
         <v>805</v>
       </c>
@@ -15097,7 +17256,7 @@
       </c>
       <c r="E293" s="31"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" s="31" t="s">
         <v>805</v>
       </c>
@@ -15112,7 +17271,7 @@
       </c>
       <c r="E294" s="31"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" s="31" t="s">
         <v>805</v>
       </c>
@@ -15127,7 +17286,7 @@
       </c>
       <c r="E295" s="31"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" s="31" t="s">
         <v>805</v>
       </c>
@@ -15142,7 +17301,7 @@
       </c>
       <c r="E296" s="31"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" s="31" t="s">
         <v>805</v>
       </c>
@@ -15157,7 +17316,7 @@
       </c>
       <c r="E297" s="31"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" s="31" t="s">
         <v>805</v>
       </c>
@@ -15172,7 +17331,7 @@
       </c>
       <c r="E298" s="31"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" s="31" t="s">
         <v>805</v>
       </c>
@@ -15187,7 +17346,7 @@
       </c>
       <c r="E299" s="31"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" s="31" t="s">
         <v>805</v>
       </c>
@@ -15202,7 +17361,7 @@
       </c>
       <c r="E300" s="31"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" s="31" t="s">
         <v>805</v>
       </c>
@@ -15217,7 +17376,7 @@
       </c>
       <c r="E301" s="31"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" s="31" t="s">
         <v>805</v>
       </c>
@@ -15232,7 +17391,7 @@
       </c>
       <c r="E302" s="31"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" s="31" t="s">
         <v>805</v>
       </c>
@@ -15247,7 +17406,7 @@
       </c>
       <c r="E303" s="31"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" s="31" t="s">
         <v>805</v>
       </c>
@@ -15262,7 +17421,7 @@
       </c>
       <c r="E304" s="31"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" s="31" t="s">
         <v>805</v>
       </c>
@@ -15277,7 +17436,7 @@
       </c>
       <c r="E305" s="31"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" s="31" t="s">
         <v>805</v>
       </c>
@@ -15292,7 +17451,7 @@
       </c>
       <c r="E306" s="31"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307" s="31" t="s">
         <v>805</v>
       </c>
@@ -15307,7 +17466,7 @@
       </c>
       <c r="E307" s="31"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308" s="31" t="s">
         <v>805</v>
       </c>
@@ -15322,7 +17481,7 @@
       </c>
       <c r="E308" s="31"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309" s="31" t="s">
         <v>805</v>
       </c>
@@ -15337,7 +17496,7 @@
       </c>
       <c r="E309" s="31"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310" s="31" t="s">
         <v>805</v>
       </c>
@@ -15352,7 +17511,7 @@
       </c>
       <c r="E310" s="31"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" hidden="1">
       <c r="A311" s="31" t="s">
         <v>805</v>
       </c>
@@ -15367,7 +17526,7 @@
       </c>
       <c r="E311" s="31"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312" s="31" t="s">
         <v>805</v>
       </c>
@@ -15382,7 +17541,7 @@
       </c>
       <c r="E312" s="31"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" s="31" t="s">
         <v>805</v>
       </c>
@@ -15397,7 +17556,7 @@
       </c>
       <c r="E313" s="31"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314" s="31" t="s">
         <v>805</v>
       </c>
@@ -15412,7 +17571,7 @@
       </c>
       <c r="E314" s="31"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" s="31" t="s">
         <v>805</v>
       </c>
@@ -15427,7 +17586,7 @@
       </c>
       <c r="E315" s="31"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" s="31" t="s">
         <v>805</v>
       </c>
@@ -15442,7 +17601,7 @@
       </c>
       <c r="E316" s="31"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317" s="31" t="s">
         <v>805</v>
       </c>
@@ -15457,7 +17616,7 @@
       </c>
       <c r="E317" s="31"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" s="31" t="s">
         <v>805</v>
       </c>
@@ -15472,7 +17631,7 @@
       </c>
       <c r="E318" s="31"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" s="31" t="s">
         <v>805</v>
       </c>
@@ -15487,7 +17646,7 @@
       </c>
       <c r="E319" s="31"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" s="31" t="s">
         <v>805</v>
       </c>
@@ -15502,7 +17661,7 @@
       </c>
       <c r="E320" s="31"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" s="31" t="s">
         <v>805</v>
       </c>
@@ -15517,7 +17676,7 @@
       </c>
       <c r="E321" s="31"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" s="31" t="s">
         <v>805</v>
       </c>
@@ -15532,7 +17691,7 @@
       </c>
       <c r="E322" s="31"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323" s="31" t="s">
         <v>805</v>
       </c>
@@ -15547,7 +17706,7 @@
       </c>
       <c r="E323" s="31"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324" s="31" t="s">
         <v>805</v>
       </c>
@@ -15562,7 +17721,7 @@
       </c>
       <c r="E324" s="31"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325" s="31" t="s">
         <v>805</v>
       </c>
@@ -15577,7 +17736,7 @@
       </c>
       <c r="E325" s="31"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" hidden="1">
       <c r="A326" s="31" t="s">
         <v>805</v>
       </c>
@@ -15592,7 +17751,7 @@
       </c>
       <c r="E326" s="31"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" hidden="1">
       <c r="A327" s="31" t="s">
         <v>805</v>
       </c>
@@ -15607,7 +17766,7 @@
       </c>
       <c r="E327" s="31"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328" s="31" t="s">
         <v>805</v>
       </c>
@@ -15622,7 +17781,7 @@
       </c>
       <c r="E328" s="31"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329" s="31" t="s">
         <v>805</v>
       </c>
@@ -15637,7 +17796,7 @@
       </c>
       <c r="E329" s="31"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" s="31" t="s">
         <v>805</v>
       </c>
@@ -15652,7 +17811,7 @@
       </c>
       <c r="E330" s="31"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" s="31" t="s">
         <v>805</v>
       </c>
@@ -15667,7 +17826,7 @@
       </c>
       <c r="E331" s="31"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" s="31" t="s">
         <v>805</v>
       </c>
@@ -15682,7 +17841,7 @@
       </c>
       <c r="E332" s="31"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" s="31" t="s">
         <v>805</v>
       </c>
@@ -15697,7 +17856,7 @@
       </c>
       <c r="E333" s="31"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" s="31" t="s">
         <v>805</v>
       </c>
@@ -15712,7 +17871,7 @@
       </c>
       <c r="E334" s="31"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" s="31" t="s">
         <v>805</v>
       </c>
@@ -16312,7 +18471,7 @@
       </c>
       <c r="E374" s="31"/>
     </row>
-    <row r="375" spans="1:5" hidden="1">
+    <row r="375" spans="1:5">
       <c r="A375" s="31" t="s">
         <v>812</v>
       </c>
@@ -16327,7 +18486,7 @@
       </c>
       <c r="E375" s="31"/>
     </row>
-    <row r="376" spans="1:5" hidden="1">
+    <row r="376" spans="1:5">
       <c r="A376" s="31" t="s">
         <v>812</v>
       </c>
@@ -16342,7 +18501,7 @@
       </c>
       <c r="E376" s="31"/>
     </row>
-    <row r="377" spans="1:5" hidden="1">
+    <row r="377" spans="1:5">
       <c r="A377" s="31" t="s">
         <v>812</v>
       </c>
@@ -16357,7 +18516,7 @@
       </c>
       <c r="E377" s="31"/>
     </row>
-    <row r="378" spans="1:5" hidden="1">
+    <row r="378" spans="1:5">
       <c r="A378" s="31" t="s">
         <v>812</v>
       </c>
@@ -16372,7 +18531,7 @@
       </c>
       <c r="E378" s="31"/>
     </row>
-    <row r="379" spans="1:5" hidden="1">
+    <row r="379" spans="1:5">
       <c r="A379" s="31" t="s">
         <v>812</v>
       </c>
@@ -16387,7 +18546,7 @@
       </c>
       <c r="E379" s="31"/>
     </row>
-    <row r="380" spans="1:5" hidden="1">
+    <row r="380" spans="1:5">
       <c r="A380" s="31" t="s">
         <v>812</v>
       </c>
@@ -16402,7 +18561,7 @@
       </c>
       <c r="E380" s="31"/>
     </row>
-    <row r="381" spans="1:5" hidden="1">
+    <row r="381" spans="1:5">
       <c r="A381" s="31" t="s">
         <v>812</v>
       </c>
@@ -16417,7 +18576,7 @@
       </c>
       <c r="E381" s="31"/>
     </row>
-    <row r="382" spans="1:5" hidden="1">
+    <row r="382" spans="1:5">
       <c r="A382" s="31" t="s">
         <v>812</v>
       </c>
@@ -16432,7 +18591,7 @@
       </c>
       <c r="E382" s="31"/>
     </row>
-    <row r="383" spans="1:5" hidden="1">
+    <row r="383" spans="1:5">
       <c r="A383" s="31" t="s">
         <v>812</v>
       </c>
@@ -16447,7 +18606,7 @@
       </c>
       <c r="E383" s="31"/>
     </row>
-    <row r="384" spans="1:5" hidden="1">
+    <row r="384" spans="1:5">
       <c r="A384" s="31" t="s">
         <v>812</v>
       </c>
@@ -16462,7 +18621,7 @@
       </c>
       <c r="E384" s="31"/>
     </row>
-    <row r="385" spans="1:5" hidden="1">
+    <row r="385" spans="1:5">
       <c r="A385" s="31" t="s">
         <v>812</v>
       </c>
@@ -16477,7 +18636,7 @@
       </c>
       <c r="E385" s="31"/>
     </row>
-    <row r="386" spans="1:5" hidden="1">
+    <row r="386" spans="1:5">
       <c r="A386" s="31" t="s">
         <v>812</v>
       </c>
@@ -16492,7 +18651,7 @@
       </c>
       <c r="E386" s="31"/>
     </row>
-    <row r="387" spans="1:5" hidden="1">
+    <row r="387" spans="1:5">
       <c r="A387" s="31" t="s">
         <v>812</v>
       </c>
@@ -16507,7 +18666,7 @@
       </c>
       <c r="E387" s="31"/>
     </row>
-    <row r="388" spans="1:5" hidden="1">
+    <row r="388" spans="1:5">
       <c r="A388" s="31" t="s">
         <v>812</v>
       </c>
@@ -16522,7 +18681,7 @@
       </c>
       <c r="E388" s="31"/>
     </row>
-    <row r="389" spans="1:5" hidden="1">
+    <row r="389" spans="1:5">
       <c r="A389" s="31" t="s">
         <v>812</v>
       </c>
@@ -16537,7 +18696,7 @@
       </c>
       <c r="E389" s="31"/>
     </row>
-    <row r="390" spans="1:5" hidden="1">
+    <row r="390" spans="1:5">
       <c r="A390" s="31" t="s">
         <v>812</v>
       </c>
@@ -16552,7 +18711,7 @@
       </c>
       <c r="E390" s="31"/>
     </row>
-    <row r="391" spans="1:5" hidden="1">
+    <row r="391" spans="1:5">
       <c r="A391" s="31" t="s">
         <v>812</v>
       </c>
@@ -16567,7 +18726,7 @@
       </c>
       <c r="E391" s="31"/>
     </row>
-    <row r="392" spans="1:5" hidden="1">
+    <row r="392" spans="1:5">
       <c r="A392" s="31" t="s">
         <v>812</v>
       </c>
@@ -16582,7 +18741,7 @@
       </c>
       <c r="E392" s="31"/>
     </row>
-    <row r="393" spans="1:5" hidden="1">
+    <row r="393" spans="1:5">
       <c r="A393" s="31" t="s">
         <v>812</v>
       </c>
@@ -16597,7 +18756,7 @@
       </c>
       <c r="E393" s="31"/>
     </row>
-    <row r="394" spans="1:5" hidden="1">
+    <row r="394" spans="1:5">
       <c r="A394" s="31" t="s">
         <v>812</v>
       </c>
@@ -16612,7 +18771,7 @@
       </c>
       <c r="E394" s="31"/>
     </row>
-    <row r="395" spans="1:5" hidden="1">
+    <row r="395" spans="1:5">
       <c r="A395" s="31" t="s">
         <v>812</v>
       </c>
@@ -16627,7 +18786,7 @@
       </c>
       <c r="E395" s="31"/>
     </row>
-    <row r="396" spans="1:5" hidden="1">
+    <row r="396" spans="1:5">
       <c r="A396" s="31" t="s">
         <v>812</v>
       </c>
@@ -16642,7 +18801,7 @@
       </c>
       <c r="E396" s="31"/>
     </row>
-    <row r="397" spans="1:5" hidden="1">
+    <row r="397" spans="1:5">
       <c r="A397" s="31" t="s">
         <v>812</v>
       </c>
@@ -16657,7 +18816,7 @@
       </c>
       <c r="E397" s="31"/>
     </row>
-    <row r="398" spans="1:5" hidden="1">
+    <row r="398" spans="1:5">
       <c r="A398" s="31" t="s">
         <v>812</v>
       </c>
@@ -16672,7 +18831,7 @@
       </c>
       <c r="E398" s="31"/>
     </row>
-    <row r="399" spans="1:5" hidden="1">
+    <row r="399" spans="1:5">
       <c r="A399" s="31" t="s">
         <v>812</v>
       </c>
@@ -16687,7 +18846,7 @@
       </c>
       <c r="E399" s="31"/>
     </row>
-    <row r="400" spans="1:5" hidden="1">
+    <row r="400" spans="1:5">
       <c r="A400" s="31" t="s">
         <v>812</v>
       </c>
@@ -16702,7 +18861,7 @@
       </c>
       <c r="E400" s="31"/>
     </row>
-    <row r="401" spans="1:5" hidden="1">
+    <row r="401" spans="1:5">
       <c r="A401" s="31" t="s">
         <v>812</v>
       </c>
@@ -16717,7 +18876,7 @@
       </c>
       <c r="E401" s="31"/>
     </row>
-    <row r="402" spans="1:5" hidden="1">
+    <row r="402" spans="1:5">
       <c r="A402" s="31" t="s">
         <v>812</v>
       </c>
@@ -16732,7 +18891,7 @@
       </c>
       <c r="E402" s="31"/>
     </row>
-    <row r="403" spans="1:5" hidden="1">
+    <row r="403" spans="1:5">
       <c r="A403" s="31" t="s">
         <v>812</v>
       </c>
@@ -16747,7 +18906,7 @@
       </c>
       <c r="E403" s="31"/>
     </row>
-    <row r="404" spans="1:5" hidden="1">
+    <row r="404" spans="1:5">
       <c r="A404" s="31" t="s">
         <v>812</v>
       </c>
@@ -16762,7 +18921,7 @@
       </c>
       <c r="E404" s="31"/>
     </row>
-    <row r="405" spans="1:5" hidden="1">
+    <row r="405" spans="1:5">
       <c r="A405" s="31" t="s">
         <v>812</v>
       </c>
@@ -16777,7 +18936,7 @@
       </c>
       <c r="E405" s="31"/>
     </row>
-    <row r="406" spans="1:5" hidden="1">
+    <row r="406" spans="1:5">
       <c r="A406" s="31" t="s">
         <v>812</v>
       </c>
@@ -16792,7 +18951,7 @@
       </c>
       <c r="E406" s="31"/>
     </row>
-    <row r="407" spans="1:5" hidden="1">
+    <row r="407" spans="1:5">
       <c r="A407" s="31" t="s">
         <v>812</v>
       </c>
@@ -16807,7 +18966,7 @@
       </c>
       <c r="E407" s="31"/>
     </row>
-    <row r="408" spans="1:5" hidden="1">
+    <row r="408" spans="1:5">
       <c r="A408" s="31" t="s">
         <v>812</v>
       </c>
@@ -16822,7 +18981,7 @@
       </c>
       <c r="E408" s="31"/>
     </row>
-    <row r="409" spans="1:5" hidden="1">
+    <row r="409" spans="1:5">
       <c r="A409" s="31" t="s">
         <v>812</v>
       </c>
@@ -16837,7 +18996,7 @@
       </c>
       <c r="E409" s="31"/>
     </row>
-    <row r="410" spans="1:5" hidden="1">
+    <row r="410" spans="1:5">
       <c r="A410" s="31" t="s">
         <v>812</v>
       </c>
@@ -16852,7 +19011,7 @@
       </c>
       <c r="E410" s="31"/>
     </row>
-    <row r="411" spans="1:5" hidden="1">
+    <row r="411" spans="1:5">
       <c r="A411" s="31" t="s">
         <v>812</v>
       </c>
@@ -16867,7 +19026,7 @@
       </c>
       <c r="E411" s="31"/>
     </row>
-    <row r="412" spans="1:5" hidden="1">
+    <row r="412" spans="1:5">
       <c r="A412" s="31" t="s">
         <v>812</v>
       </c>
@@ -16882,7 +19041,7 @@
       </c>
       <c r="E412" s="31"/>
     </row>
-    <row r="413" spans="1:5" hidden="1">
+    <row r="413" spans="1:5">
       <c r="A413" s="31" t="s">
         <v>812</v>
       </c>
@@ -16897,7 +19056,7 @@
       </c>
       <c r="E413" s="31"/>
     </row>
-    <row r="414" spans="1:5" hidden="1">
+    <row r="414" spans="1:5">
       <c r="A414" s="31" t="s">
         <v>812</v>
       </c>
@@ -16912,7 +19071,7 @@
       </c>
       <c r="E414" s="31"/>
     </row>
-    <row r="415" spans="1:5" hidden="1">
+    <row r="415" spans="1:5">
       <c r="A415" s="31" t="s">
         <v>812</v>
       </c>
@@ -16927,7 +19086,7 @@
       </c>
       <c r="E415" s="31"/>
     </row>
-    <row r="416" spans="1:5" hidden="1">
+    <row r="416" spans="1:5">
       <c r="A416" s="31" t="s">
         <v>812</v>
       </c>
@@ -16942,7 +19101,7 @@
       </c>
       <c r="E416" s="31"/>
     </row>
-    <row r="417" spans="1:5" hidden="1">
+    <row r="417" spans="1:5">
       <c r="A417" s="31" t="s">
         <v>812</v>
       </c>
@@ -16957,7 +19116,7 @@
       </c>
       <c r="E417" s="31"/>
     </row>
-    <row r="418" spans="1:5" hidden="1">
+    <row r="418" spans="1:5">
       <c r="A418" s="31" t="s">
         <v>812</v>
       </c>
@@ -16972,7 +19131,7 @@
       </c>
       <c r="E418" s="31"/>
     </row>
-    <row r="419" spans="1:5" hidden="1">
+    <row r="419" spans="1:5">
       <c r="A419" s="31" t="s">
         <v>812</v>
       </c>
@@ -16987,7 +19146,7 @@
       </c>
       <c r="E419" s="31"/>
     </row>
-    <row r="420" spans="1:5" hidden="1">
+    <row r="420" spans="1:5">
       <c r="A420" s="31" t="s">
         <v>812</v>
       </c>
@@ -17002,7 +19161,7 @@
       </c>
       <c r="E420" s="31"/>
     </row>
-    <row r="421" spans="1:5" hidden="1">
+    <row r="421" spans="1:5">
       <c r="A421" s="31" t="s">
         <v>812</v>
       </c>
@@ -17017,7 +19176,7 @@
       </c>
       <c r="E421" s="31"/>
     </row>
-    <row r="422" spans="1:5" hidden="1">
+    <row r="422" spans="1:5">
       <c r="A422" s="31" t="s">
         <v>812</v>
       </c>
@@ -17032,7 +19191,7 @@
       </c>
       <c r="E422" s="31"/>
     </row>
-    <row r="423" spans="1:5" hidden="1">
+    <row r="423" spans="1:5">
       <c r="A423" s="31" t="s">
         <v>812</v>
       </c>
@@ -17047,7 +19206,7 @@
       </c>
       <c r="E423" s="31"/>
     </row>
-    <row r="424" spans="1:5" hidden="1">
+    <row r="424" spans="1:5">
       <c r="A424" s="31" t="s">
         <v>812</v>
       </c>
@@ -17062,7 +19221,7 @@
       </c>
       <c r="E424" s="31"/>
     </row>
-    <row r="425" spans="1:5" hidden="1">
+    <row r="425" spans="1:5">
       <c r="A425" s="31" t="s">
         <v>812</v>
       </c>
@@ -17077,7 +19236,7 @@
       </c>
       <c r="E425" s="31"/>
     </row>
-    <row r="426" spans="1:5" hidden="1">
+    <row r="426" spans="1:5">
       <c r="A426" s="31" t="s">
         <v>812</v>
       </c>
@@ -17092,7 +19251,7 @@
       </c>
       <c r="E426" s="31"/>
     </row>
-    <row r="427" spans="1:5" hidden="1">
+    <row r="427" spans="1:5">
       <c r="A427" s="31" t="s">
         <v>812</v>
       </c>
@@ -17107,7 +19266,7 @@
       </c>
       <c r="E427" s="31"/>
     </row>
-    <row r="428" spans="1:5" hidden="1">
+    <row r="428" spans="1:5">
       <c r="A428" s="31" t="s">
         <v>812</v>
       </c>
@@ -17122,7 +19281,7 @@
       </c>
       <c r="E428" s="31"/>
     </row>
-    <row r="429" spans="1:5" hidden="1">
+    <row r="429" spans="1:5">
       <c r="A429" s="31" t="s">
         <v>812</v>
       </c>
@@ -17137,7 +19296,7 @@
       </c>
       <c r="E429" s="31"/>
     </row>
-    <row r="430" spans="1:5" hidden="1">
+    <row r="430" spans="1:5">
       <c r="A430" s="31" t="s">
         <v>812</v>
       </c>
@@ -17152,7 +19311,7 @@
       </c>
       <c r="E430" s="31"/>
     </row>
-    <row r="431" spans="1:5" hidden="1">
+    <row r="431" spans="1:5">
       <c r="A431" s="31" t="s">
         <v>812</v>
       </c>
@@ -17167,7 +19326,7 @@
       </c>
       <c r="E431" s="31"/>
     </row>
-    <row r="432" spans="1:5" hidden="1">
+    <row r="432" spans="1:5">
       <c r="A432" s="31" t="s">
         <v>812</v>
       </c>
@@ -17182,7 +19341,7 @@
       </c>
       <c r="E432" s="31"/>
     </row>
-    <row r="433" spans="1:5" hidden="1">
+    <row r="433" spans="1:5">
       <c r="A433" s="31" t="s">
         <v>812</v>
       </c>
@@ -17197,7 +19356,7 @@
       </c>
       <c r="E433" s="31"/>
     </row>
-    <row r="434" spans="1:5" hidden="1">
+    <row r="434" spans="1:5">
       <c r="A434" s="31" t="s">
         <v>812</v>
       </c>
@@ -17212,7 +19371,7 @@
       </c>
       <c r="E434" s="31"/>
     </row>
-    <row r="435" spans="1:5" hidden="1">
+    <row r="435" spans="1:5">
       <c r="A435" s="31" t="s">
         <v>812</v>
       </c>
@@ -17227,7 +19386,7 @@
       </c>
       <c r="E435" s="31"/>
     </row>
-    <row r="436" spans="1:5" hidden="1">
+    <row r="436" spans="1:5">
       <c r="A436" s="31" t="s">
         <v>812</v>
       </c>
@@ -17242,7 +19401,7 @@
       </c>
       <c r="E436" s="31"/>
     </row>
-    <row r="437" spans="1:5" hidden="1">
+    <row r="437" spans="1:5">
       <c r="A437" s="31" t="s">
         <v>812</v>
       </c>
@@ -17257,7 +19416,7 @@
       </c>
       <c r="E437" s="31"/>
     </row>
-    <row r="438" spans="1:5" hidden="1">
+    <row r="438" spans="1:5">
       <c r="A438" s="31" t="s">
         <v>812</v>
       </c>
@@ -17272,7 +19431,7 @@
       </c>
       <c r="E438" s="31"/>
     </row>
-    <row r="439" spans="1:5" hidden="1">
+    <row r="439" spans="1:5">
       <c r="A439" s="31" t="s">
         <v>812</v>
       </c>
@@ -17287,7 +19446,7 @@
       </c>
       <c r="E439" s="31"/>
     </row>
-    <row r="440" spans="1:5" hidden="1">
+    <row r="440" spans="1:5">
       <c r="A440" s="31" t="s">
         <v>812</v>
       </c>
@@ -17302,7 +19461,7 @@
       </c>
       <c r="E440" s="31"/>
     </row>
-    <row r="441" spans="1:5" hidden="1">
+    <row r="441" spans="1:5">
       <c r="A441" s="31" t="s">
         <v>812</v>
       </c>
@@ -17317,7 +19476,7 @@
       </c>
       <c r="E441" s="31"/>
     </row>
-    <row r="442" spans="1:5" hidden="1">
+    <row r="442" spans="1:5">
       <c r="A442" s="31" t="s">
         <v>812</v>
       </c>
@@ -17332,7 +19491,7 @@
       </c>
       <c r="E442" s="31"/>
     </row>
-    <row r="443" spans="1:5" hidden="1">
+    <row r="443" spans="1:5">
       <c r="A443" s="31" t="s">
         <v>812</v>
       </c>
@@ -17347,7 +19506,7 @@
       </c>
       <c r="E443" s="31"/>
     </row>
-    <row r="444" spans="1:5" hidden="1">
+    <row r="444" spans="1:5">
       <c r="A444" s="31" t="s">
         <v>812</v>
       </c>
@@ -17362,7 +19521,7 @@
       </c>
       <c r="E444" s="31"/>
     </row>
-    <row r="445" spans="1:5" hidden="1">
+    <row r="445" spans="1:5">
       <c r="A445" s="31" t="s">
         <v>812</v>
       </c>
@@ -17377,7 +19536,7 @@
       </c>
       <c r="E445" s="31"/>
     </row>
-    <row r="446" spans="1:5" hidden="1">
+    <row r="446" spans="1:5">
       <c r="A446" s="31" t="s">
         <v>812</v>
       </c>
@@ -17392,7 +19551,7 @@
       </c>
       <c r="E446" s="31"/>
     </row>
-    <row r="447" spans="1:5" hidden="1">
+    <row r="447" spans="1:5">
       <c r="A447" s="31" t="s">
         <v>812</v>
       </c>
@@ -17407,7 +19566,7 @@
       </c>
       <c r="E447" s="31"/>
     </row>
-    <row r="448" spans="1:5" hidden="1">
+    <row r="448" spans="1:5">
       <c r="A448" s="31" t="s">
         <v>812</v>
       </c>
@@ -17422,7 +19581,7 @@
       </c>
       <c r="E448" s="31"/>
     </row>
-    <row r="449" spans="1:5" hidden="1">
+    <row r="449" spans="1:5">
       <c r="A449" s="31" t="s">
         <v>812</v>
       </c>
@@ -17437,7 +19596,7 @@
       </c>
       <c r="E449" s="31"/>
     </row>
-    <row r="450" spans="1:5" hidden="1">
+    <row r="450" spans="1:5">
       <c r="A450" s="31" t="s">
         <v>812</v>
       </c>
@@ -17452,7 +19611,7 @@
       </c>
       <c r="E450" s="31"/>
     </row>
-    <row r="451" spans="1:5" hidden="1">
+    <row r="451" spans="1:5">
       <c r="A451" s="31" t="s">
         <v>812</v>
       </c>
@@ -19406,7 +21565,7 @@
   <autoFilter ref="A1:D580">
     <filterColumn colId="0">
       <filters>
-        <filter val="Google(90)"/>
+        <filter val="Microsoft(77)"/>
       </filters>
     </filterColumn>
   </autoFilter>
